--- a/predictor/modelB.xlsx
+++ b/predictor/modelB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Desktop\docs\github\soccer_predictor\predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6D5DA8-9B07-4AE3-ABD4-015516D0E5FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644C3250-01B4-4E2E-9B0C-F98EC7B0CABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -168,93 +168,15 @@
   </si>
   <si>
     <t>cost func</t>
-  </si>
-  <si>
-    <t>29-01-2021</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>2414</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Mainz</t>
-  </si>
-  <si>
-    <t>1845</t>
-  </si>
-  <si>
-    <t>betano</t>
-  </si>
-  <si>
-    <t>luckia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>1854</t>
-  </si>
-  <si>
-    <t>Antwerp</t>
-  </si>
-  <si>
-    <t>Waasland-Beveren</t>
-  </si>
-  <si>
-    <t>1832</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>1869</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>1871</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>1843</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,12 +214,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,16 +524,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.90625" customWidth="1"/>
+    <col min="26" max="26" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="20.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -685,27 +609,27 @@
         <f ca="1">(SUM(OFFSET(T2,0,0,_xlfn.FLOOR.MATH(COUNT(P2:P1048576)),3))-SUM(OFFSET(Q2,0,0,_xlfn.FLOOR.MATH(COUNT(P2:P1048576)),3))  )/(SUM(OFFSET(Q2,0,0,_xlfn.FLOOR.MATH(COUNT(P2:P1048576)),3))+0.000000000000000001)</f>
         <v>0</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="5">
         <f ca="1">COUNTIF(OFFSET(Q2,0,0,_xlfn.FLOOR.MATH(COUNT(P2:P1048576)),3),"&gt;0")</f>
         <v>0</v>
       </c>
       <c r="AB1">
-        <v>1.1266</v>
+        <v>1.1258999999999999</v>
       </c>
       <c r="AC1">
-        <v>0.99995999999999996</v>
+        <v>1.0072000000000001</v>
       </c>
       <c r="AD1">
         <f>MAX(Q2:S1048576)</f>
-        <v>7.0116085282567742E-3</v>
-      </c>
-      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="e">
         <f>SUMIF(Q2:S1048576,"&gt;0")/COUNTIF(Q2:S1048576,"&gt;0")</f>
-        <v>6.4097993211119086E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AF1">
         <f>AVERAGE(Q2:S1048576)</f>
-        <v>3.8847268612799448E-4</v>
+        <v>0</v>
       </c>
       <c r="AH1" t="s">
         <v>22</v>
@@ -755,15 +679,15 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q12" si="0">IF((($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1)&lt;0, 0,(($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1))</f>
+        <f t="shared" ref="Q2:Q4" si="0">IF((($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1)&lt;0, 0,(($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1))</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R12" si="1">IF((($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1)&lt;0, 0,(($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1))</f>
+        <f t="shared" ref="R2:R4" si="1">IF((($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1)&lt;0, 0,(($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1))</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S12" si="2">IF((($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1)&lt;0, 0,(($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1))</f>
+        <f t="shared" ref="S2:S4" si="2">IF((($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1)&lt;0, 0,(($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1))</f>
         <v>0</v>
       </c>
       <c r="T2">
@@ -804,7 +728,7 @@
       </c>
       <c r="AI2" s="2">
         <f ca="1">IFERROR(Y1-IF(MAX(AB4:AF4)&gt;AI1,1000,0),-1000)</f>
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -872,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.1266</v>
+        <v>1.1258999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.99995999999999996</v>
+        <v>1.0072000000000001</v>
       </c>
       <c r="AD3">
-        <v>7.0116085282567742E-3</v>
+        <v>2.6399065163984159E-2</v>
       </c>
       <c r="AE3">
-        <v>6.4097993211119086E-3</v>
+        <v>2.5703867682859233E-2</v>
       </c>
       <c r="AF3">
-        <v>3.8847268612799448E-4</v>
+        <v>1.5578101625975292E-3</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -961,430 +885,15 @@
       </c>
       <c r="AD4" s="1">
         <f>ABS(AD1-AD3)/AD3</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1" t="e">
         <f>ABS(AE1-AE3)/AE3</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AF4" s="1">
         <f>ABS(AF1-AF3)/AF3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>0.37453292108068548</v>
-      </c>
-      <c r="F5">
-        <v>0.30407996452558428</v>
-      </c>
-      <c r="G5">
-        <v>0.32138711439373008</v>
-      </c>
-      <c r="H5">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="I5">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="J5">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>0.59518460486032476</v>
-      </c>
-      <c r="F6">
-        <v>0.15940706237886501</v>
-      </c>
-      <c r="G6">
-        <v>0.24540833276081009</v>
-      </c>
-      <c r="H6">
-        <v>1.62</v>
-      </c>
-      <c r="I6">
-        <v>5.6</v>
-      </c>
-      <c r="J6">
-        <v>4.2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <v>0.29831293716975471</v>
-      </c>
-      <c r="F7">
-        <v>0.40545518531797842</v>
-      </c>
-      <c r="G7">
-        <v>0.29623187751226687</v>
-      </c>
-      <c r="H7">
-        <v>2.6</v>
-      </c>
-      <c r="I7">
-        <v>2.8</v>
-      </c>
-      <c r="J7">
-        <v>3.4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="1"/>
-        <v>7.0116085282567742E-3</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8">
-        <v>0.66502240081407427</v>
-      </c>
-      <c r="F8">
-        <v>0.12545344239424211</v>
-      </c>
-      <c r="G8">
-        <v>0.2095241567916836</v>
-      </c>
-      <c r="H8">
-        <v>1.55</v>
-      </c>
-      <c r="I8">
-        <v>6.25</v>
-      </c>
-      <c r="J8">
-        <v>4.05</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9">
-        <v>0.35216724119021459</v>
-      </c>
-      <c r="F9">
-        <v>0.33735069928220429</v>
-      </c>
-      <c r="G9">
-        <v>0.31048205952758112</v>
-      </c>
-      <c r="H9">
-        <v>2.25</v>
-      </c>
-      <c r="I9">
-        <v>3.45</v>
-      </c>
-      <c r="J9">
-        <v>3.05</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="1"/>
-        <v>5.8079901139670431E-3</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10">
-        <v>0.51360200449889504</v>
-      </c>
-      <c r="F10">
-        <v>0.2064489329753702</v>
-      </c>
-      <c r="G10">
-        <v>0.27994906252573482</v>
-      </c>
-      <c r="H10">
-        <v>1.8</v>
-      </c>
-      <c r="I10">
-        <v>4.75</v>
-      </c>
-      <c r="J10">
-        <v>3.15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11">
-        <v>0.24549260579897461</v>
-      </c>
-      <c r="F11">
-        <v>0.48685445843109848</v>
-      </c>
-      <c r="G11">
-        <v>0.26765293576992688</v>
-      </c>
-      <c r="H11">
-        <v>3.2</v>
-      </c>
-      <c r="I11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J11">
-        <v>3.25</v>
-      </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12">
-        <v>0.67969214734674033</v>
-      </c>
-      <c r="F12">
-        <v>0.1179214502414718</v>
-      </c>
-      <c r="G12">
-        <v>0.2023864024117879</v>
-      </c>
-      <c r="H12">
-        <v>1.4</v>
-      </c>
-      <c r="I12">
-        <v>8</v>
-      </c>
-      <c r="J12">
-        <v>5.25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/predictor/modelB.xlsx
+++ b/predictor/modelB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Desktop\docs\github\soccer_predictor\predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644C3250-01B4-4E2E-9B0C-F98EC7B0CABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B124B957-B614-4C07-A4B7-9461DDDCA3D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="250">
   <si>
     <t>date</t>
   </si>
@@ -168,6 +168,654 @@
   </si>
   <si>
     <t>cost func</t>
+  </si>
+  <si>
+    <t>30-01-2021</t>
+  </si>
+  <si>
+    <t>Kasimpasa</t>
+  </si>
+  <si>
+    <t>Kayserispor</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>Brisbane Roar</t>
+  </si>
+  <si>
+    <t>Adelaide United</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>Regensburg</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>1846</t>
+  </si>
+  <si>
+    <t>luckia</t>
+  </si>
+  <si>
+    <t>betano</t>
+  </si>
+  <si>
+    <t>Hamburger SV</t>
+  </si>
+  <si>
+    <t>Paderborn</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Basaksehir</t>
+  </si>
+  <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1869</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>1856</t>
+  </si>
+  <si>
+    <t>Entella</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>2413</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>2414</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>AC Milan</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>1845</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Hertha Berlin</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>B. Monchengladbach</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Schalke</t>
+  </si>
+  <si>
+    <t>Sheffield Wed</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>MK Dons</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Cambridge Utd</t>
+  </si>
+  <si>
+    <t>Crawley</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Peterborough</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Oxford Utd</t>
+  </si>
+  <si>
+    <t>Fleetwood</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Reggiana</t>
+  </si>
+  <si>
+    <t>Dundee Utd</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>2417</t>
+  </si>
+  <si>
+    <t>Nottingham</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>R. Oviedo</t>
+  </si>
+  <si>
+    <t>Albacete</t>
+  </si>
+  <si>
+    <t>1871</t>
+  </si>
+  <si>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>St. Mirren</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>KV Mechelen</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>1832</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>1849</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>1843</t>
+  </si>
+  <si>
+    <t>Ried</t>
+  </si>
+  <si>
+    <t>Admira</t>
+  </si>
+  <si>
+    <t>1827</t>
+  </si>
+  <si>
+    <t>Hartberg</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>Altach</t>
+  </si>
+  <si>
+    <t>Sturm Graz</t>
+  </si>
+  <si>
+    <t>Fenerbahce</t>
+  </si>
+  <si>
+    <t>Rizespor</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Alcorcon</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Manchester Utd</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>Eupen</t>
+  </si>
+  <si>
+    <t>Mouscron</t>
+  </si>
+  <si>
+    <t>Leuven</t>
+  </si>
+  <si>
+    <t>Beerschot VA</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>AC Ajaccio</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Chateauroux</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>SC Farense</t>
+  </si>
+  <si>
+    <t>Chambly</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Sittard</t>
+  </si>
+  <si>
+    <t>Venlo</t>
+  </si>
+  <si>
+    <t>St. Gallen</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>1879</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
+    <t>Charleroi</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Castellon</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
   </si>
 </sst>
 </file>
@@ -524,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,21 +1269,21 @@
       </c>
       <c r="AD1">
         <f>MAX(Q2:S1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AE1" t="e">
+        <v>8.2583030593891882E-2</v>
+      </c>
+      <c r="AE1">
         <f>SUMIF(Q2:S1048576,"&gt;0")/COUNTIF(Q2:S1048576,"&gt;0")</f>
-        <v>#DIV/0!</v>
+        <v>4.6145203814452883E-2</v>
       </c>
       <c r="AF1">
         <f>AVERAGE(Q2:S1048576)</f>
-        <v>0</v>
+        <v>4.5688320608369188E-4</v>
       </c>
       <c r="AH1" t="s">
         <v>22</v>
       </c>
       <c r="AI1">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -679,15 +1327,15 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q4" si="0">IF((($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1)&lt;0, 0,(($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1))</f>
+        <f t="shared" ref="Q2:Q33" si="0">IF((($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1)&lt;0, 0,(($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1))</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R4" si="1">IF((($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1)&lt;0, 0,(($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1))</f>
+        <f t="shared" ref="R2:R33" si="1">IF((($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1)&lt;0, 0,(($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1))</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S4" si="2">IF((($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1)&lt;0, 0,(($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1))</f>
+        <f t="shared" ref="S2:S33" si="2">IF((($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1)&lt;0, 0,(($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1))</f>
         <v>0</v>
       </c>
       <c r="T2">
@@ -728,7 +1376,7 @@
       </c>
       <c r="AI2" s="2">
         <f ca="1">IFERROR(Y1-IF(MAX(AB4:AF4)&gt;AI1,1000,0),-1000)</f>
-        <v>-1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -802,13 +1450,13 @@
         <v>1.0072000000000001</v>
       </c>
       <c r="AD3">
-        <v>2.6399065163984159E-2</v>
+        <v>8.2583030593891882E-2</v>
       </c>
       <c r="AE3">
-        <v>2.5703867682859233E-2</v>
+        <v>4.6145203814452883E-2</v>
       </c>
       <c r="AF3">
-        <v>1.5578101625975292E-3</v>
+        <v>4.5688320608369188E-4</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -885,15 +1533,5101 @@
       </c>
       <c r="AD4" s="1">
         <f>ABS(AD1-AD3)/AD3</f>
-        <v>1</v>
-      </c>
-      <c r="AE4" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
         <f>ABS(AE1-AE3)/AE3</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
         <f>ABS(AF1-AF3)/AF3</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>0.43294322604748009</v>
+      </c>
+      <c r="F5">
+        <v>0.25538932948728521</v>
+      </c>
+      <c r="G5">
+        <v>0.31166744446523481</v>
+      </c>
+      <c r="H5">
+        <v>1.82</v>
+      </c>
+      <c r="I5">
+        <v>3.7</v>
+      </c>
+      <c r="J5">
+        <v>3.55</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>0.530573709792864</v>
+      </c>
+      <c r="F6">
+        <v>0.1992621855233363</v>
+      </c>
+      <c r="G6">
+        <v>0.27016410468379981</v>
+      </c>
+      <c r="H6">
+        <v>1.98</v>
+      </c>
+      <c r="I6">
+        <v>3.65</v>
+      </c>
+      <c r="J6">
+        <v>3.35</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>0.36909517829544408</v>
+      </c>
+      <c r="F7">
+        <v>0.32017420701735883</v>
+      </c>
+      <c r="G7">
+        <v>0.31073061468719698</v>
+      </c>
+      <c r="H7">
+        <v>2.6</v>
+      </c>
+      <c r="I7">
+        <v>2.6</v>
+      </c>
+      <c r="J7">
+        <v>3.2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>0.44633628704719142</v>
+      </c>
+      <c r="F8">
+        <v>0.25338198187975802</v>
+      </c>
+      <c r="G8">
+        <v>0.30028173107305062</v>
+      </c>
+      <c r="H8">
+        <v>1.83</v>
+      </c>
+      <c r="I8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J8">
+        <v>3.45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>0.44284630517884738</v>
+      </c>
+      <c r="F9">
+        <v>0.25373414215572421</v>
+      </c>
+      <c r="G9">
+        <v>0.30341955266542842</v>
+      </c>
+      <c r="H9">
+        <v>1.72</v>
+      </c>
+      <c r="I9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J9">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>0.56693394484210413</v>
+      </c>
+      <c r="F10">
+        <v>0.1836208529456991</v>
+      </c>
+      <c r="G10">
+        <v>0.24944520221219679</v>
+      </c>
+      <c r="H10">
+        <v>1.57</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>3.95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>0.50176423091936873</v>
+      </c>
+      <c r="F11">
+        <v>0.22876905630927949</v>
+      </c>
+      <c r="G11">
+        <v>0.26946671277135181</v>
+      </c>
+      <c r="H11">
+        <v>1.72</v>
+      </c>
+      <c r="I11">
+        <v>4.75</v>
+      </c>
+      <c r="J11">
+        <v>3.65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>0.42838332321628081</v>
+      </c>
+      <c r="F12">
+        <v>0.25969568005116972</v>
+      </c>
+      <c r="G12">
+        <v>0.31192099673254953</v>
+      </c>
+      <c r="H12">
+        <v>1.93</v>
+      </c>
+      <c r="I12">
+        <v>3.9</v>
+      </c>
+      <c r="J12">
+        <v>3.35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>0.43999822955749029</v>
+      </c>
+      <c r="F13">
+        <v>0.2540955851634305</v>
+      </c>
+      <c r="G13">
+        <v>0.30590618527907909</v>
+      </c>
+      <c r="H13">
+        <v>1.91</v>
+      </c>
+      <c r="I13">
+        <v>3.75</v>
+      </c>
+      <c r="J13">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14">
+        <v>0.21721258470131299</v>
+      </c>
+      <c r="F14">
+        <v>0.53465433842589838</v>
+      </c>
+      <c r="G14">
+        <v>0.24813307687278871</v>
+      </c>
+      <c r="H14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I14">
+        <v>1.93</v>
+      </c>
+      <c r="J14">
+        <v>3.25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <v>0.44247039738147231</v>
+      </c>
+      <c r="F15">
+        <v>0.25339996449318669</v>
+      </c>
+      <c r="G15">
+        <v>0.30412963812534088</v>
+      </c>
+      <c r="H15">
+        <v>1.8</v>
+      </c>
+      <c r="I15">
+        <v>4.05</v>
+      </c>
+      <c r="J15">
+        <v>3.35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <v>0.36343027984574822</v>
+      </c>
+      <c r="F16">
+        <v>0.32735570278856668</v>
+      </c>
+      <c r="G16">
+        <v>0.3092140173656851</v>
+      </c>
+      <c r="H16">
+        <v>2.4</v>
+      </c>
+      <c r="I16">
+        <v>2.85</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>0.58255151982090492</v>
+      </c>
+      <c r="F17">
+        <v>0.17195594503228259</v>
+      </c>
+      <c r="G17">
+        <v>0.24549253514681249</v>
+      </c>
+      <c r="H17">
+        <v>1.52</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>3.7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18">
+        <v>0.44448373783947398</v>
+      </c>
+      <c r="F18">
+        <v>0.25784120933463361</v>
+      </c>
+      <c r="G18">
+        <v>0.29767505282589241</v>
+      </c>
+      <c r="H18">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I18">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J18">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19">
+        <v>0.32073457241499992</v>
+      </c>
+      <c r="F19">
+        <v>0.37800151513074609</v>
+      </c>
+      <c r="G19">
+        <v>0.30126391245425388</v>
+      </c>
+      <c r="H19">
+        <v>2.82</v>
+      </c>
+      <c r="I19">
+        <v>2.27</v>
+      </c>
+      <c r="J19">
+        <v>3.3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20">
+        <v>0.30832536399625282</v>
+      </c>
+      <c r="F20">
+        <v>0.39352150958245241</v>
+      </c>
+      <c r="G20">
+        <v>0.29815312642129482</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J20">
+        <v>3.15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <v>0.21238938475639171</v>
+      </c>
+      <c r="F21">
+        <v>0.56565186541831036</v>
+      </c>
+      <c r="G21">
+        <v>0.22195874982529801</v>
+      </c>
+      <c r="H21">
+        <v>3.85</v>
+      </c>
+      <c r="I21">
+        <v>1.95</v>
+      </c>
+      <c r="J21">
+        <v>3.65</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>3.683562907450999E-2</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22">
+        <v>0.28211604645990163</v>
+      </c>
+      <c r="F22">
+        <v>0.4387708414219666</v>
+      </c>
+      <c r="G22">
+        <v>0.27911311211813172</v>
+      </c>
+      <c r="H22">
+        <v>2.95</v>
+      </c>
+      <c r="I22">
+        <v>2.35</v>
+      </c>
+      <c r="J22">
+        <v>3.1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23">
+        <v>0.3757939187496534</v>
+      </c>
+      <c r="F23">
+        <v>0.31613270397817628</v>
+      </c>
+      <c r="G23">
+        <v>0.30807337727217038</v>
+      </c>
+      <c r="H23">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I23">
+        <v>3.6</v>
+      </c>
+      <c r="J23">
+        <v>3.2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24">
+        <v>0.71525995623067484</v>
+      </c>
+      <c r="F24">
+        <v>0.1020631756790786</v>
+      </c>
+      <c r="G24">
+        <v>0.1826768680902465</v>
+      </c>
+      <c r="H24">
+        <v>1.26</v>
+      </c>
+      <c r="I24">
+        <v>10.5</v>
+      </c>
+      <c r="J24">
+        <v>6.5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25">
+        <v>0.43880606862519511</v>
+      </c>
+      <c r="F25">
+        <v>0.26508333631977632</v>
+      </c>
+      <c r="G25">
+        <v>0.29611059505502862</v>
+      </c>
+      <c r="H25">
+        <v>1.78</v>
+      </c>
+      <c r="I25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J25">
+        <v>3.8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26">
+        <v>0.25182826470114472</v>
+      </c>
+      <c r="F26">
+        <v>0.49174495631179599</v>
+      </c>
+      <c r="G26">
+        <v>0.25642677898705918</v>
+      </c>
+      <c r="H26">
+        <v>3.25</v>
+      </c>
+      <c r="I26">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J26">
+        <v>3.8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27">
+        <v>0.73349103909269975</v>
+      </c>
+      <c r="F27">
+        <v>9.6220887833508476E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.17028807307379171</v>
+      </c>
+      <c r="H27">
+        <v>1.25</v>
+      </c>
+      <c r="I27">
+        <v>10.25</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28">
+        <v>0.40082192918038118</v>
+      </c>
+      <c r="F28">
+        <v>0.29017693481515572</v>
+      </c>
+      <c r="G28">
+        <v>0.30900113600446311</v>
+      </c>
+      <c r="H28">
+        <v>2.02</v>
+      </c>
+      <c r="I28">
+        <v>3.6</v>
+      </c>
+      <c r="J28">
+        <v>3.6</v>
+      </c>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <v>0.33543079493724082</v>
+      </c>
+      <c r="F29">
+        <v>0.35891365554311982</v>
+      </c>
+      <c r="G29">
+        <v>0.30565554951963941</v>
+      </c>
+      <c r="H29">
+        <v>2.9</v>
+      </c>
+      <c r="I29">
+        <v>2.5</v>
+      </c>
+      <c r="J29">
+        <v>3.1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30">
+        <v>0.36915199912528418</v>
+      </c>
+      <c r="F30">
+        <v>0.32327361041030039</v>
+      </c>
+      <c r="G30">
+        <v>0.30757439046441543</v>
+      </c>
+      <c r="H30">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I30">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J30">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <v>0.83091894420856638</v>
+      </c>
+      <c r="F31">
+        <v>5.1860677496987299E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.1172203782944463</v>
+      </c>
+      <c r="H31">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I31">
+        <v>25</v>
+      </c>
+      <c r="J31">
+        <v>8.5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>0.40579605161624888</v>
+      </c>
+      <c r="F32">
+        <v>0.29636940111160859</v>
+      </c>
+      <c r="G32">
+        <v>0.29783454727214242</v>
+      </c>
+      <c r="H32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I32">
+        <v>3.05</v>
+      </c>
+      <c r="J32">
+        <v>3.3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>0.27675617671722469</v>
+      </c>
+      <c r="F33">
+        <v>0.44507532367464869</v>
+      </c>
+      <c r="G33">
+        <v>0.27816849960812651</v>
+      </c>
+      <c r="H33">
+        <v>3.45</v>
+      </c>
+      <c r="I33">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J33">
+        <v>3.25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <v>0.69747069888353141</v>
+      </c>
+      <c r="F34">
+        <v>0.1093813113672904</v>
+      </c>
+      <c r="G34">
+        <v>0.19314798974917821</v>
+      </c>
+      <c r="H34">
+        <v>1.35</v>
+      </c>
+      <c r="I34">
+        <v>7.25</v>
+      </c>
+      <c r="J34">
+        <v>4.75</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ref="Q34:Q65" si="4">IF((($AC$1*E34)^($AB$1))-(1-(($AC$1*E34)^($AB$1)))/(H34-1)&lt;0, 0,(($AC$1*E34)^($AB$1))-(1-(($AC$1*E34)^($AB$1)))/(H34-1))</f>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34:R65" si="5">IF((($AC$1*F34)^($AB$1))-(1-(($AC$1*F34)^($AB$1)))/(I34-1)&lt;0, 0,(($AC$1*F34)^($AB$1))-(1-(($AC$1*F34)^($AB$1)))/(I34-1))</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ref="S34:S65" si="6">IF((($AC$1*G34)^($AB$1))-(1-(($AC$1*G34)^($AB$1)))/(J34-1)&lt;0, 0,(($AC$1*G34)^($AB$1))-(1-(($AC$1*G34)^($AB$1)))/(J34-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35">
+        <v>0.39801507074349751</v>
+      </c>
+      <c r="F35">
+        <v>0.2923791956952681</v>
+      </c>
+      <c r="G35">
+        <v>0.3096057335612345</v>
+      </c>
+      <c r="H35">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I35">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J35">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36">
+        <v>0.32296804837403359</v>
+      </c>
+      <c r="F36">
+        <v>0.37829758856899398</v>
+      </c>
+      <c r="G36">
+        <v>0.29873436305697221</v>
+      </c>
+      <c r="H36">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I36">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J36">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>0.45302818883543489</v>
+      </c>
+      <c r="F37">
+        <v>0.25820725379279369</v>
+      </c>
+      <c r="G37">
+        <v>0.28876455737177131</v>
+      </c>
+      <c r="H37">
+        <v>1.95</v>
+      </c>
+      <c r="I37">
+        <v>3.7</v>
+      </c>
+      <c r="J37">
+        <v>3.3</v>
+      </c>
+      <c r="K37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38">
+        <v>0.41418049189746592</v>
+      </c>
+      <c r="F38">
+        <v>0.27945496813743281</v>
+      </c>
+      <c r="G38">
+        <v>0.30636453996510132</v>
+      </c>
+      <c r="H38">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I38">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J38">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39">
+        <v>0.35849996878223211</v>
+      </c>
+      <c r="F39">
+        <v>0.33103553105821443</v>
+      </c>
+      <c r="G39">
+        <v>0.31046450015955351</v>
+      </c>
+      <c r="H39">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I39">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J39">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40">
+        <v>0.461789461301363</v>
+      </c>
+      <c r="F40">
+        <v>0.2417301486262563</v>
+      </c>
+      <c r="G40">
+        <v>0.29648039007238081</v>
+      </c>
+      <c r="H40">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I40">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J40">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>0.45898973257275061</v>
+      </c>
+      <c r="F41">
+        <v>0.25932405933927422</v>
+      </c>
+      <c r="G41">
+        <v>0.28168620808797518</v>
+      </c>
+      <c r="H41">
+        <v>1.95</v>
+      </c>
+      <c r="I41">
+        <v>3.4</v>
+      </c>
+      <c r="J41">
+        <v>3.6</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42">
+        <v>0.27935915022805419</v>
+      </c>
+      <c r="F42">
+        <v>0.43543813441044987</v>
+      </c>
+      <c r="G42">
+        <v>0.28520271536149577</v>
+      </c>
+      <c r="H42">
+        <v>3.25</v>
+      </c>
+      <c r="I42">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J42">
+        <v>3.05</v>
+      </c>
+      <c r="K42" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43">
+        <v>0.30281650349766981</v>
+      </c>
+      <c r="F43">
+        <v>0.40698252264854151</v>
+      </c>
+      <c r="G43">
+        <v>0.29020097385378879</v>
+      </c>
+      <c r="H43">
+        <v>3.05</v>
+      </c>
+      <c r="I43">
+        <v>2.35</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44">
+        <v>0.34365097708853432</v>
+      </c>
+      <c r="F44">
+        <v>0.36155808790400468</v>
+      </c>
+      <c r="G44">
+        <v>0.29479093500746101</v>
+      </c>
+      <c r="H44">
+        <v>2.7</v>
+      </c>
+      <c r="I44">
+        <v>2.4</v>
+      </c>
+      <c r="J44">
+        <v>3.35</v>
+      </c>
+      <c r="K44" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" t="s">
+        <v>44</v>
+      </c>
+      <c r="M44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45">
+        <v>0.35612042436150199</v>
+      </c>
+      <c r="F45">
+        <v>0.33580132088024922</v>
+      </c>
+      <c r="G45">
+        <v>0.30807825475824879</v>
+      </c>
+      <c r="H45">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I45">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J45">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46">
+        <v>0.32949637145661631</v>
+      </c>
+      <c r="F46">
+        <v>0.37285517207932312</v>
+      </c>
+      <c r="G46">
+        <v>0.29764845646406052</v>
+      </c>
+      <c r="H46">
+        <v>3.05</v>
+      </c>
+      <c r="I46">
+        <v>2.62</v>
+      </c>
+      <c r="J46">
+        <v>3.05</v>
+      </c>
+      <c r="K46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" t="s">
+        <v>45</v>
+      </c>
+      <c r="M46" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47">
+        <v>0.32912075934282209</v>
+      </c>
+      <c r="F47">
+        <v>0.36660334494185598</v>
+      </c>
+      <c r="G47">
+        <v>0.30427589571532188</v>
+      </c>
+      <c r="H47">
+        <v>2.9</v>
+      </c>
+      <c r="I47">
+        <v>2.65</v>
+      </c>
+      <c r="J47">
+        <v>2.92</v>
+      </c>
+      <c r="K47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" t="s">
+        <v>44</v>
+      </c>
+      <c r="M47" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48">
+        <v>0.42874141663636378</v>
+      </c>
+      <c r="F48">
+        <v>0.27118323644352038</v>
+      </c>
+      <c r="G48">
+        <v>0.30007534692011573</v>
+      </c>
+      <c r="H48">
+        <v>2.1</v>
+      </c>
+      <c r="I48">
+        <v>3.55</v>
+      </c>
+      <c r="J48">
+        <v>3.05</v>
+      </c>
+      <c r="K48" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M48" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>0.4610719646239409</v>
+      </c>
+      <c r="F49">
+        <v>0.24715671653367699</v>
+      </c>
+      <c r="G49">
+        <v>0.29177131884238189</v>
+      </c>
+      <c r="H49">
+        <v>1.83</v>
+      </c>
+      <c r="I49">
+        <v>4.45</v>
+      </c>
+      <c r="J49">
+        <v>3.3</v>
+      </c>
+      <c r="K49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" t="s">
+        <v>44</v>
+      </c>
+      <c r="M49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50">
+        <v>0.4298585399069485</v>
+      </c>
+      <c r="F50">
+        <v>0.26476975753546073</v>
+      </c>
+      <c r="G50">
+        <v>0.30537170255759077</v>
+      </c>
+      <c r="H50">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I50">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J50">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51">
+        <v>0.28289494501472101</v>
+      </c>
+      <c r="F51">
+        <v>0.43965669176151451</v>
+      </c>
+      <c r="G51">
+        <v>0.27744836322376459</v>
+      </c>
+      <c r="H51">
+        <v>3.45</v>
+      </c>
+      <c r="I51">
+        <v>2.25</v>
+      </c>
+      <c r="J51">
+        <v>3.25</v>
+      </c>
+      <c r="K51" t="s">
+        <v>44</v>
+      </c>
+      <c r="L51" t="s">
+        <v>44</v>
+      </c>
+      <c r="M51" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52">
+        <v>0.38408493863547272</v>
+      </c>
+      <c r="F52">
+        <v>0.30599976190288802</v>
+      </c>
+      <c r="G52">
+        <v>0.30991529946163932</v>
+      </c>
+      <c r="H52">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I52">
+        <v>3.35</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52" t="s">
+        <v>44</v>
+      </c>
+      <c r="L52" t="s">
+        <v>44</v>
+      </c>
+      <c r="M52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53">
+        <v>0.69913572500305876</v>
+      </c>
+      <c r="F53">
+        <v>0.1086954405298817</v>
+      </c>
+      <c r="G53">
+        <v>0.19216883446705951</v>
+      </c>
+      <c r="H53">
+        <v>1.34</v>
+      </c>
+      <c r="I53">
+        <v>8.25</v>
+      </c>
+      <c r="J53">
+        <v>5.25</v>
+      </c>
+      <c r="K53" t="s">
+        <v>45</v>
+      </c>
+      <c r="L53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54">
+        <v>0.4740819707710458</v>
+      </c>
+      <c r="F54">
+        <v>0.24040804262811469</v>
+      </c>
+      <c r="G54">
+        <v>0.28550998660083948</v>
+      </c>
+      <c r="H54">
+        <v>1.83</v>
+      </c>
+      <c r="I54">
+        <v>4.55</v>
+      </c>
+      <c r="J54">
+        <v>3.35</v>
+      </c>
+      <c r="K54" t="s">
+        <v>45</v>
+      </c>
+      <c r="L54" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55">
+        <v>0.39643838255021918</v>
+      </c>
+      <c r="F55">
+        <v>0.303234660246329</v>
+      </c>
+      <c r="G55">
+        <v>0.30032695720345182</v>
+      </c>
+      <c r="H55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I55">
+        <v>2.75</v>
+      </c>
+      <c r="J55">
+        <v>3.45</v>
+      </c>
+      <c r="K55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" t="s">
+        <v>44</v>
+      </c>
+      <c r="M55" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56">
+        <v>0.46260166292083349</v>
+      </c>
+      <c r="F56">
+        <v>0.25322403047967018</v>
+      </c>
+      <c r="G56">
+        <v>0.28417430659949627</v>
+      </c>
+      <c r="H56">
+        <v>2.1</v>
+      </c>
+      <c r="I56">
+        <v>3.4</v>
+      </c>
+      <c r="J56">
+        <v>3.2</v>
+      </c>
+      <c r="K56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57">
+        <v>0.40968507830678991</v>
+      </c>
+      <c r="F57">
+        <v>0.27886800907645731</v>
+      </c>
+      <c r="G57">
+        <v>0.31144691261675278</v>
+      </c>
+      <c r="H57">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I57">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J57">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58">
+        <v>0.43538305841837038</v>
+      </c>
+      <c r="F58">
+        <v>0.2572640308883874</v>
+      </c>
+      <c r="G58">
+        <v>0.30735291069324222</v>
+      </c>
+      <c r="H58">
+        <v>1.87</v>
+      </c>
+      <c r="I58">
+        <v>3.75</v>
+      </c>
+      <c r="J58">
+        <v>3.4</v>
+      </c>
+      <c r="K58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59">
+        <v>0.23084720350424201</v>
+      </c>
+      <c r="F59">
+        <v>0.51831818730541024</v>
+      </c>
+      <c r="G59">
+        <v>0.25083460919034772</v>
+      </c>
+      <c r="H59">
+        <v>4.5</v>
+      </c>
+      <c r="I59">
+        <v>1.68</v>
+      </c>
+      <c r="J59">
+        <v>3.65</v>
+      </c>
+      <c r="K59" t="s">
+        <v>44</v>
+      </c>
+      <c r="L59" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60">
+        <v>0.3638472332146781</v>
+      </c>
+      <c r="F60">
+        <v>0.32727809903077337</v>
+      </c>
+      <c r="G60">
+        <v>0.30887466775454853</v>
+      </c>
+      <c r="H60">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I60">
+        <v>2.95</v>
+      </c>
+      <c r="J60">
+        <v>3.1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61">
+        <v>0.47417737553083239</v>
+      </c>
+      <c r="F61">
+        <v>0.2235280431446765</v>
+      </c>
+      <c r="G61">
+        <v>0.30229458132449122</v>
+      </c>
+      <c r="H61">
+        <v>1.75</v>
+      </c>
+      <c r="I61">
+        <v>5.25</v>
+      </c>
+      <c r="J61">
+        <v>3.3</v>
+      </c>
+      <c r="K61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61" t="s">
+        <v>44</v>
+      </c>
+      <c r="M61" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62">
+        <v>0.30019433776164373</v>
+      </c>
+      <c r="F62">
+        <v>0.40421154512725999</v>
+      </c>
+      <c r="G62">
+        <v>0.2955941171110964</v>
+      </c>
+      <c r="H62">
+        <v>3.15</v>
+      </c>
+      <c r="I62">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J62">
+        <v>3.1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>44</v>
+      </c>
+      <c r="L62" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63">
+        <v>0.35937477288961378</v>
+      </c>
+      <c r="F63">
+        <v>0.33472898818481472</v>
+      </c>
+      <c r="G63">
+        <v>0.30589623892557138</v>
+      </c>
+      <c r="H63">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I63">
+        <v>2.85</v>
+      </c>
+      <c r="J63">
+        <v>2.9</v>
+      </c>
+      <c r="K63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64">
+        <v>0.70237308622826344</v>
+      </c>
+      <c r="F64">
+        <v>0.1091771659292486</v>
+      </c>
+      <c r="G64">
+        <v>0.188449747842488</v>
+      </c>
+      <c r="H64">
+        <v>1.31</v>
+      </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <v>5.25</v>
+      </c>
+      <c r="K64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64" t="s">
+        <v>44</v>
+      </c>
+      <c r="M64" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65">
+        <v>0.2669941012165607</v>
+      </c>
+      <c r="F65">
+        <v>0.45581212748525918</v>
+      </c>
+      <c r="G65">
+        <v>0.27719377129818018</v>
+      </c>
+      <c r="H65">
+        <v>4.2</v>
+      </c>
+      <c r="I65">
+        <v>1.86</v>
+      </c>
+      <c r="J65">
+        <v>3.2</v>
+      </c>
+      <c r="K65" t="s">
+        <v>44</v>
+      </c>
+      <c r="L65" t="s">
+        <v>44</v>
+      </c>
+      <c r="M65" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66">
+        <v>0.41785599812045249</v>
+      </c>
+      <c r="F66">
+        <v>0.30912410557482728</v>
+      </c>
+      <c r="G66">
+        <v>0.27301989630472018</v>
+      </c>
+      <c r="H66">
+        <v>2.15</v>
+      </c>
+      <c r="I66">
+        <v>3.05</v>
+      </c>
+      <c r="J66">
+        <v>3.55</v>
+      </c>
+      <c r="K66" t="s">
+        <v>45</v>
+      </c>
+      <c r="L66" t="s">
+        <v>44</v>
+      </c>
+      <c r="M66" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ref="Q66:Q102" si="7">IF((($AC$1*E66)^($AB$1))-(1-(($AC$1*E66)^($AB$1)))/(H66-1)&lt;0, 0,(($AC$1*E66)^($AB$1))-(1-(($AC$1*E66)^($AB$1)))/(H66-1))</f>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f t="shared" ref="R66:R102" si="8">IF((($AC$1*F66)^($AB$1))-(1-(($AC$1*F66)^($AB$1)))/(I66-1)&lt;0, 0,(($AC$1*F66)^($AB$1))-(1-(($AC$1*F66)^($AB$1)))/(I66-1))</f>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" ref="S66:S102" si="9">IF((($AC$1*G66)^($AB$1))-(1-(($AC$1*G66)^($AB$1)))/(J66-1)&lt;0, 0,(($AC$1*G66)^($AB$1))-(1-(($AC$1*G66)^($AB$1)))/(J66-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67">
+        <v>0.68751151428018753</v>
+      </c>
+      <c r="F67">
+        <v>0.1157548240253434</v>
+      </c>
+      <c r="G67">
+        <v>0.19673366169446899</v>
+      </c>
+      <c r="H67">
+        <v>1.38</v>
+      </c>
+      <c r="I67">
+        <v>8</v>
+      </c>
+      <c r="J67">
+        <v>5.75</v>
+      </c>
+      <c r="K67" t="s">
+        <v>45</v>
+      </c>
+      <c r="L67" t="s">
+        <v>45</v>
+      </c>
+      <c r="M67" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68">
+        <v>0.30067779791993182</v>
+      </c>
+      <c r="F68">
+        <v>0.40597324714746952</v>
+      </c>
+      <c r="G68">
+        <v>0.29334895493259883</v>
+      </c>
+      <c r="H68">
+        <v>3.05</v>
+      </c>
+      <c r="I68">
+        <v>2.57</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+      <c r="K68" t="s">
+        <v>45</v>
+      </c>
+      <c r="L68" t="s">
+        <v>45</v>
+      </c>
+      <c r="M68" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69">
+        <v>0.4080635128648194</v>
+      </c>
+      <c r="F69">
+        <v>0.28708711903469042</v>
+      </c>
+      <c r="G69">
+        <v>0.3048493681004904</v>
+      </c>
+      <c r="H69">
+        <v>2.37</v>
+      </c>
+      <c r="I69">
+        <v>2.9</v>
+      </c>
+      <c r="J69">
+        <v>3.2</v>
+      </c>
+      <c r="K69" t="s">
+        <v>45</v>
+      </c>
+      <c r="L69" t="s">
+        <v>44</v>
+      </c>
+      <c r="M69" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70">
+        <v>0.34254178003333602</v>
+      </c>
+      <c r="F70">
+        <v>0.35521072438635998</v>
+      </c>
+      <c r="G70">
+        <v>0.302247495580304</v>
+      </c>
+      <c r="H70">
+        <v>2.8</v>
+      </c>
+      <c r="I70">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J70">
+        <v>3.2</v>
+      </c>
+      <c r="K70" t="s">
+        <v>44</v>
+      </c>
+      <c r="L70" t="s">
+        <v>45</v>
+      </c>
+      <c r="M70" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71">
+        <v>0.33367951074837182</v>
+      </c>
+      <c r="F71">
+        <v>0.37828320072213761</v>
+      </c>
+      <c r="G71">
+        <v>0.28803728852949079</v>
+      </c>
+      <c r="H71">
+        <v>1.9</v>
+      </c>
+      <c r="I71">
+        <v>3.6</v>
+      </c>
+      <c r="J71">
+        <v>3.6</v>
+      </c>
+      <c r="K71" t="s">
+        <v>44</v>
+      </c>
+      <c r="L71" t="s">
+        <v>44</v>
+      </c>
+      <c r="M71" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="8"/>
+        <v>8.2583030593891882E-2</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72">
+        <v>6.4380654482837751E-2</v>
+      </c>
+      <c r="F72">
+        <v>0.84907914466656442</v>
+      </c>
+      <c r="G72">
+        <v>8.6540200850597895E-2</v>
+      </c>
+      <c r="H72">
+        <v>12</v>
+      </c>
+      <c r="I72">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J72">
+        <v>8</v>
+      </c>
+      <c r="K72" t="s">
+        <v>44</v>
+      </c>
+      <c r="L72" t="s">
+        <v>44</v>
+      </c>
+      <c r="M72" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73">
+        <v>0.15631650667555291</v>
+      </c>
+      <c r="F73">
+        <v>0.65361038807357119</v>
+      </c>
+      <c r="G73">
+        <v>0.19007310525087609</v>
+      </c>
+      <c r="H73">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I73">
+        <v>1.62</v>
+      </c>
+      <c r="J73">
+        <v>3.9</v>
+      </c>
+      <c r="K73" t="s">
+        <v>44</v>
+      </c>
+      <c r="L73" t="s">
+        <v>44</v>
+      </c>
+      <c r="M73" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="8"/>
+        <v>1.901695177495677E-2</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" t="s">
+        <v>194</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74">
+        <v>0.66380383739801252</v>
+      </c>
+      <c r="F74">
+        <v>0.1224263211620929</v>
+      </c>
+      <c r="G74">
+        <v>0.21376984143989461</v>
+      </c>
+      <c r="H74">
+        <v>1.44</v>
+      </c>
+      <c r="I74">
+        <v>7</v>
+      </c>
+      <c r="J74">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L74" t="s">
+        <v>44</v>
+      </c>
+      <c r="M74" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75">
+        <v>0.13419559520386631</v>
+      </c>
+      <c r="F75">
+        <v>0.71207529166335004</v>
+      </c>
+      <c r="G75">
+        <v>0.1537291131327837</v>
+      </c>
+      <c r="H75">
+        <v>7</v>
+      </c>
+      <c r="I75">
+        <v>1.45</v>
+      </c>
+      <c r="J75">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K75" t="s">
+        <v>44</v>
+      </c>
+      <c r="L75" t="s">
+        <v>45</v>
+      </c>
+      <c r="M75" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76">
+        <v>0.38398321509025968</v>
+      </c>
+      <c r="F76">
+        <v>0.29976745255397053</v>
+      </c>
+      <c r="G76">
+        <v>0.31624933235576969</v>
+      </c>
+      <c r="H76">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I76">
+        <v>3.45</v>
+      </c>
+      <c r="J76">
+        <v>2.85</v>
+      </c>
+      <c r="K76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M76" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77">
+        <v>0.32414212234931622</v>
+      </c>
+      <c r="F77">
+        <v>0.40730105570461528</v>
+      </c>
+      <c r="G77">
+        <v>0.26855682194606839</v>
+      </c>
+      <c r="H77">
+        <v>3.02</v>
+      </c>
+      <c r="I77">
+        <v>2.57</v>
+      </c>
+      <c r="J77">
+        <v>3.57</v>
+      </c>
+      <c r="K77" t="s">
+        <v>45</v>
+      </c>
+      <c r="L77" t="s">
+        <v>45</v>
+      </c>
+      <c r="M77" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78">
+        <v>0.52126046580780949</v>
+      </c>
+      <c r="F78">
+        <v>0.19683172713664299</v>
+      </c>
+      <c r="G78">
+        <v>0.28190780705554752</v>
+      </c>
+      <c r="H78">
+        <v>1.7</v>
+      </c>
+      <c r="I78">
+        <v>5.75</v>
+      </c>
+      <c r="J78">
+        <v>3.65</v>
+      </c>
+      <c r="K78" t="s">
+        <v>45</v>
+      </c>
+      <c r="L78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M78" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79">
+        <v>0.43385060816537641</v>
+      </c>
+      <c r="F79">
+        <v>0.28328163556157349</v>
+      </c>
+      <c r="G79">
+        <v>0.28286775627305022</v>
+      </c>
+      <c r="H79">
+        <v>1.95</v>
+      </c>
+      <c r="I79">
+        <v>3.9</v>
+      </c>
+      <c r="J79">
+        <v>3.85</v>
+      </c>
+      <c r="K79" t="s">
+        <v>44</v>
+      </c>
+      <c r="L79" t="s">
+        <v>44</v>
+      </c>
+      <c r="M79" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80">
+        <v>0.39095713557116502</v>
+      </c>
+      <c r="F80">
+        <v>0.30305572017409788</v>
+      </c>
+      <c r="G80">
+        <v>0.30598714425473711</v>
+      </c>
+      <c r="H80">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I80">
+        <v>3.3</v>
+      </c>
+      <c r="J80">
+        <v>3.45</v>
+      </c>
+      <c r="K80" t="s">
+        <v>44</v>
+      </c>
+      <c r="L80" t="s">
+        <v>44</v>
+      </c>
+      <c r="M80" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" t="s">
+        <v>175</v>
+      </c>
+      <c r="E81">
+        <v>0.38693796980808243</v>
+      </c>
+      <c r="F81">
+        <v>0.33791731540003422</v>
+      </c>
+      <c r="G81">
+        <v>0.27514471479188352</v>
+      </c>
+      <c r="H81">
+        <v>2.25</v>
+      </c>
+      <c r="I81">
+        <v>2.9</v>
+      </c>
+      <c r="J81">
+        <v>3.7</v>
+      </c>
+      <c r="K81" t="s">
+        <v>44</v>
+      </c>
+      <c r="L81" t="s">
+        <v>44</v>
+      </c>
+      <c r="M81" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82">
+        <v>0.61865368953033884</v>
+      </c>
+      <c r="F82">
+        <v>0.15510618580460381</v>
+      </c>
+      <c r="G82">
+        <v>0.22624012466505741</v>
+      </c>
+      <c r="H82">
+        <v>1.55</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
+      </c>
+      <c r="J82">
+        <v>3.95</v>
+      </c>
+      <c r="K82" t="s">
+        <v>45</v>
+      </c>
+      <c r="L82" t="s">
+        <v>44</v>
+      </c>
+      <c r="M82" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" t="s">
+        <v>212</v>
+      </c>
+      <c r="D83" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83">
+        <v>0.41892894603995051</v>
+      </c>
+      <c r="F83">
+        <v>0.27412185175677661</v>
+      </c>
+      <c r="G83">
+        <v>0.30694920220327299</v>
+      </c>
+      <c r="H83">
+        <v>1.83</v>
+      </c>
+      <c r="I83">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J83">
+        <v>3.3</v>
+      </c>
+      <c r="K83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L83" t="s">
+        <v>44</v>
+      </c>
+      <c r="M83" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84">
+        <v>0.35262629246542959</v>
+      </c>
+      <c r="F84">
+        <v>0.3372213579761118</v>
+      </c>
+      <c r="G84">
+        <v>0.3101523495584585</v>
+      </c>
+      <c r="H84">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <v>2.9</v>
+      </c>
+      <c r="K84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L84" t="s">
+        <v>44</v>
+      </c>
+      <c r="M84" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <v>0.32660609001117719</v>
+      </c>
+      <c r="F85">
+        <v>0.37507445984672377</v>
+      </c>
+      <c r="G85">
+        <v>0.29831945014209899</v>
+      </c>
+      <c r="H85">
+        <v>2.95</v>
+      </c>
+      <c r="I85">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J85">
+        <v>3</v>
+      </c>
+      <c r="K85" t="s">
+        <v>44</v>
+      </c>
+      <c r="L85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M85" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86">
+        <v>0.34437808617290933</v>
+      </c>
+      <c r="F86">
+        <v>0.34921483133768622</v>
+      </c>
+      <c r="G86">
+        <v>0.30640708248940451</v>
+      </c>
+      <c r="H86">
+        <v>2.85</v>
+      </c>
+      <c r="I86">
+        <v>2.5</v>
+      </c>
+      <c r="J86">
+        <v>2.95</v>
+      </c>
+      <c r="K86" t="s">
+        <v>44</v>
+      </c>
+      <c r="L86" t="s">
+        <v>44</v>
+      </c>
+      <c r="M86" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87">
+        <v>0.3309340790657459</v>
+      </c>
+      <c r="F87">
+        <v>0.36428482520935318</v>
+      </c>
+      <c r="G87">
+        <v>0.30478109572490097</v>
+      </c>
+      <c r="H87">
+        <v>2.9</v>
+      </c>
+      <c r="I87">
+        <v>2.5</v>
+      </c>
+      <c r="J87">
+        <v>2.95</v>
+      </c>
+      <c r="K87" t="s">
+        <v>44</v>
+      </c>
+      <c r="L87" t="s">
+        <v>44</v>
+      </c>
+      <c r="M87" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" t="s">
+        <v>83</v>
+      </c>
+      <c r="E88">
+        <v>0.42338144550695539</v>
+      </c>
+      <c r="F88">
+        <v>0.26902502208881562</v>
+      </c>
+      <c r="G88">
+        <v>0.30759353240422899</v>
+      </c>
+      <c r="H88">
+        <v>1.9</v>
+      </c>
+      <c r="I88">
+        <v>4.25</v>
+      </c>
+      <c r="J88">
+        <v>3.05</v>
+      </c>
+      <c r="K88" t="s">
+        <v>44</v>
+      </c>
+      <c r="L88" t="s">
+        <v>44</v>
+      </c>
+      <c r="M88" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" t="s">
+        <v>224</v>
+      </c>
+      <c r="D89" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89">
+        <v>0.40184944314008619</v>
+      </c>
+      <c r="F89">
+        <v>0.2891146269374294</v>
+      </c>
+      <c r="G89">
+        <v>0.30903592992248441</v>
+      </c>
+      <c r="H89">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I89">
+        <v>3.65</v>
+      </c>
+      <c r="J89">
+        <v>3.05</v>
+      </c>
+      <c r="K89" t="s">
+        <v>44</v>
+      </c>
+      <c r="L89" t="s">
+        <v>44</v>
+      </c>
+      <c r="M89" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90">
+        <v>0.31778732436503898</v>
+      </c>
+      <c r="F90">
+        <v>0.38751179246179579</v>
+      </c>
+      <c r="G90">
+        <v>0.29470088317316517</v>
+      </c>
+      <c r="H90">
+        <v>2.57</v>
+      </c>
+      <c r="I90">
+        <v>2.8</v>
+      </c>
+      <c r="J90">
+        <v>3.35</v>
+      </c>
+      <c r="K90" t="s">
+        <v>45</v>
+      </c>
+      <c r="L90" t="s">
+        <v>44</v>
+      </c>
+      <c r="M90" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" t="s">
+        <v>83</v>
+      </c>
+      <c r="E91">
+        <v>0.33112549682451309</v>
+      </c>
+      <c r="F91">
+        <v>0.36827133957900021</v>
+      </c>
+      <c r="G91">
+        <v>0.3006031635964867</v>
+      </c>
+      <c r="H91">
+        <v>2.85</v>
+      </c>
+      <c r="I91">
+        <v>2.65</v>
+      </c>
+      <c r="J91">
+        <v>2.8</v>
+      </c>
+      <c r="K91" t="s">
+        <v>44</v>
+      </c>
+      <c r="L91" t="s">
+        <v>44</v>
+      </c>
+      <c r="M91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92">
+        <v>0.47607482488706299</v>
+      </c>
+      <c r="F92">
+        <v>0.25177527499682661</v>
+      </c>
+      <c r="G92">
+        <v>0.27214990011611051</v>
+      </c>
+      <c r="H92">
+        <v>1.95</v>
+      </c>
+      <c r="I92">
+        <v>3.45</v>
+      </c>
+      <c r="J92">
+        <v>3.65</v>
+      </c>
+      <c r="K92" t="s">
+        <v>44</v>
+      </c>
+      <c r="L92" t="s">
+        <v>44</v>
+      </c>
+      <c r="M92" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" t="s">
+        <v>232</v>
+      </c>
+      <c r="E93">
+        <v>0.40495983069150748</v>
+      </c>
+      <c r="F93">
+        <v>0.29614473226243082</v>
+      </c>
+      <c r="G93">
+        <v>0.29889543704606159</v>
+      </c>
+      <c r="H93">
+        <v>1.88</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>3.2</v>
+      </c>
+      <c r="K93" t="s">
+        <v>45</v>
+      </c>
+      <c r="L93" t="s">
+        <v>45</v>
+      </c>
+      <c r="M93" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" t="s">
+        <v>234</v>
+      </c>
+      <c r="D94" t="s">
+        <v>164</v>
+      </c>
+      <c r="E94">
+        <v>0.4465345659424208</v>
+      </c>
+      <c r="F94">
+        <v>0.2419167789707779</v>
+      </c>
+      <c r="G94">
+        <v>0.31154865508680141</v>
+      </c>
+      <c r="H94">
+        <v>1.93</v>
+      </c>
+      <c r="I94">
+        <v>4.25</v>
+      </c>
+      <c r="J94">
+        <v>3.15</v>
+      </c>
+      <c r="K94" t="s">
+        <v>45</v>
+      </c>
+      <c r="L94" t="s">
+        <v>44</v>
+      </c>
+      <c r="M94" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" t="s">
+        <v>236</v>
+      </c>
+      <c r="D95" t="s">
+        <v>80</v>
+      </c>
+      <c r="E95">
+        <v>0.82128344817195453</v>
+      </c>
+      <c r="F95">
+        <v>5.4994377512963481E-2</v>
+      </c>
+      <c r="G95">
+        <v>0.12372217431508201</v>
+      </c>
+      <c r="H95">
+        <v>1.2</v>
+      </c>
+      <c r="I95">
+        <v>15</v>
+      </c>
+      <c r="J95">
+        <v>7.25</v>
+      </c>
+      <c r="K95" t="s">
+        <v>45</v>
+      </c>
+      <c r="L95" t="s">
+        <v>45</v>
+      </c>
+      <c r="M95" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" t="s">
+        <v>175</v>
+      </c>
+      <c r="E96">
+        <v>0.34206142425674502</v>
+      </c>
+      <c r="F96">
+        <v>0.36586368622269211</v>
+      </c>
+      <c r="G96">
+        <v>0.29207488952056299</v>
+      </c>
+      <c r="H96">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I96">
+        <v>2.6</v>
+      </c>
+      <c r="J96">
+        <v>3.3</v>
+      </c>
+      <c r="K96" t="s">
+        <v>44</v>
+      </c>
+      <c r="L96" t="s">
+        <v>44</v>
+      </c>
+      <c r="M96" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" t="s">
+        <v>240</v>
+      </c>
+      <c r="D97" t="s">
+        <v>185</v>
+      </c>
+      <c r="E97">
+        <v>0.36454785731255751</v>
+      </c>
+      <c r="F97">
+        <v>0.3292866158835373</v>
+      </c>
+      <c r="G97">
+        <v>0.3061655268039053</v>
+      </c>
+      <c r="H97">
+        <v>2.75</v>
+      </c>
+      <c r="I97">
+        <v>2.7</v>
+      </c>
+      <c r="J97">
+        <v>3.1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>45</v>
+      </c>
+      <c r="L97" t="s">
+        <v>45</v>
+      </c>
+      <c r="M97" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" t="s">
+        <v>242</v>
+      </c>
+      <c r="D98" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98">
+        <v>0.33707513703831737</v>
+      </c>
+      <c r="F98">
+        <v>0.36195006546534347</v>
+      </c>
+      <c r="G98">
+        <v>0.30097479749633921</v>
+      </c>
+      <c r="H98">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I98">
+        <v>3.1</v>
+      </c>
+      <c r="J98">
+        <v>3.15</v>
+      </c>
+      <c r="K98" t="s">
+        <v>45</v>
+      </c>
+      <c r="L98" t="s">
+        <v>44</v>
+      </c>
+      <c r="M98" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" t="s">
+        <v>244</v>
+      </c>
+      <c r="D99" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99">
+        <v>0.28538675725136597</v>
+      </c>
+      <c r="F99">
+        <v>0.45290726137164983</v>
+      </c>
+      <c r="G99">
+        <v>0.2617059813769842</v>
+      </c>
+      <c r="H99">
+        <v>2.95</v>
+      </c>
+      <c r="I99">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="J99">
+        <v>3.6</v>
+      </c>
+      <c r="K99" t="s">
+        <v>45</v>
+      </c>
+      <c r="L99" t="s">
+        <v>45</v>
+      </c>
+      <c r="M99" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" t="s">
+        <v>246</v>
+      </c>
+      <c r="D100" t="s">
+        <v>164</v>
+      </c>
+      <c r="E100">
+        <v>0.51206222869709017</v>
+      </c>
+      <c r="F100">
+        <v>0.2001485398213744</v>
+      </c>
+      <c r="G100">
+        <v>0.2877892314815354</v>
+      </c>
+      <c r="H100">
+        <v>1.7</v>
+      </c>
+      <c r="I100">
+        <v>5.5</v>
+      </c>
+      <c r="J100">
+        <v>3.3</v>
+      </c>
+      <c r="K100" t="s">
+        <v>45</v>
+      </c>
+      <c r="L100" t="s">
+        <v>44</v>
+      </c>
+      <c r="M100" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" t="s">
+        <v>248</v>
+      </c>
+      <c r="D101" t="s">
+        <v>182</v>
+      </c>
+      <c r="E101">
+        <v>0.74659287859080847</v>
+      </c>
+      <c r="F101">
+        <v>8.5824548125699396E-2</v>
+      </c>
+      <c r="G101">
+        <v>0.1675825732834921</v>
+      </c>
+      <c r="H101">
+        <v>1.34</v>
+      </c>
+      <c r="I101">
+        <v>7.75</v>
+      </c>
+      <c r="J101">
+        <v>5.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>45</v>
+      </c>
+      <c r="L101" t="s">
+        <v>44</v>
+      </c>
+      <c r="M101" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102">
+        <v>0.36082263846655988</v>
+      </c>
+      <c r="F102">
+        <v>0.33044130797678939</v>
+      </c>
+      <c r="G102">
+        <v>0.30873605355665079</v>
+      </c>
+      <c r="H102">
+        <v>2.37</v>
+      </c>
+      <c r="I102">
+        <v>3.4</v>
+      </c>
+      <c r="J102">
+        <v>3.15</v>
+      </c>
+      <c r="K102" t="s">
+        <v>45</v>
+      </c>
+      <c r="L102" t="s">
+        <v>44</v>
+      </c>
+      <c r="M102" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/predictor/modelB.xlsx
+++ b/predictor/modelB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Desktop\docs\github\soccer_predictor\predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F54339-A056-4669-89C9-D64B7CDDBBCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8461A8-8813-437A-93D4-4B49321F0C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3707" uniqueCount="470">
   <si>
     <t>date</t>
   </si>
@@ -1465,6 +1465,18 @@
   <si>
     <t>Venezia</t>
   </si>
+  <si>
+    <t>10-02-2021</t>
+  </si>
+  <si>
+    <t>12-02-2021</t>
+  </si>
+  <si>
+    <t>13-02-2021</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
 </sst>
 </file>
 
@@ -1817,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ440"/>
+  <dimension ref="A1:AQ543"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4"/>
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1900,33 +1912,33 @@
       </c>
       <c r="Y1" s="3">
         <f>(SUM(T2:V1048576)-SUM(AL2:AN1048576)  )/(SUM(AL2:AN1048576)+0.000000000000000001)</f>
-        <v>-0.27412132454299104</v>
+        <v>-0.29662927966171898</v>
       </c>
       <c r="Z1">
         <f>COUNTIF(AL2:AN1048576,"&gt;0")</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA1" s="5">
         <f>_xlfn.STDEV.P(AO2:AQ1048576)</f>
-        <v>4.5615242034947406E-2</v>
+        <v>4.3792509976224768E-2</v>
       </c>
       <c r="AB1">
-        <v>1.1462045672856525</v>
+        <v>1.1853687670622843</v>
       </c>
       <c r="AC1">
-        <v>1.0190743483605562</v>
+        <v>1.0429943702418978</v>
       </c>
       <c r="AD1">
         <f>MAX(Q2:S1048576)</f>
-        <v>7.9165934116676273E-2</v>
+        <v>0.10028868466351026</v>
       </c>
       <c r="AE1">
         <f>SUMIF(Q2:S1048576,"&gt;0")/COUNTIF(Q2:S1048576,"&gt;0")</f>
-        <v>2.3304960187013085E-2</v>
+        <v>3.1054049324793866E-2</v>
       </c>
       <c r="AF1">
         <f>AVERAGE(Q2:S1048576)</f>
-        <v>5.4856018663432466E-4</v>
+        <v>7.0664195880527241E-4</v>
       </c>
       <c r="AH1" t="s">
         <v>22</v>
@@ -2048,8 +2060,8 @@
         <v>37</v>
       </c>
       <c r="AI2" s="2">
-        <f>IFERROR(IF(Y1&lt;0,Y1*AA1,Y1/AA1)  -IF(OR(MAX(AB4:AF4)&gt;AI1,AVERAGE(AB4:AF4)&gt;AI1/2),10000,0),-10000)</f>
-        <v>-1.2504110565968904E-2</v>
+        <f>IFERROR(IF(Y1&lt;0,Y1,Y1/SQRT(AA1))  -IF(OR(MAX(AB4:AF4)&gt;AI1,AVERAGE(AB4:AF4)&gt;AI1/2),10000,0),-10000)</f>
+        <v>-10000.296629279661</v>
       </c>
       <c r="AL2">
         <f t="shared" ref="AL2:AL65" si="6">Q2*COUNT(N2)</f>
@@ -2150,10 +2162,10 @@
         <v>8.2040739601906276E-2</v>
       </c>
       <c r="AE3">
-        <v>2.2100444628839332E-2</v>
+        <v>2.2692441216869311E-2</v>
       </c>
       <c r="AF3">
-        <v>5.4434592681870274E-4</v>
+        <v>5.7057143864254738E-4</v>
       </c>
       <c r="AL3">
         <f t="shared" si="6"/>
@@ -2246,23 +2258,23 @@
       </c>
       <c r="AB4" s="1">
         <f>ABS(AB1-AB3)/AB3</f>
-        <v>1.8034076992319525E-2</v>
+        <v>5.2818871180641651E-2</v>
       </c>
       <c r="AC4" s="1">
         <f>ABS(AC1-AC3)/AC3</f>
-        <v>1.1789464218185185E-2</v>
+        <v>3.5538493091637889E-2</v>
       </c>
       <c r="AD4" s="1">
         <f>ABS(AD1-AD3)/AD3</f>
-        <v>3.5041194157679256E-2</v>
+        <v>0.22242540901203653</v>
       </c>
       <c r="AE4" s="1">
         <f>ABS(AE1-AE3)/AE3</f>
-        <v>5.450186991269651E-2</v>
+        <v>0.36847547727516539</v>
       </c>
       <c r="AF4" s="1">
         <f>ABS(AF1-AF3)/AF3</f>
-        <v>7.7418781109489286E-3</v>
+        <v>0.23848112777332819</v>
       </c>
       <c r="AL4">
         <f t="shared" si="6"/>
@@ -3885,7 +3897,7 @@
       </c>
       <c r="R21">
         <f t="shared" si="1"/>
-        <v>2.8018139733613001E-2</v>
+        <v>3.5356588375078934E-2</v>
       </c>
       <c r="S21">
         <f t="shared" si="2"/>
@@ -3897,7 +3909,7 @@
       </c>
       <c r="U21">
         <f t="shared" si="4"/>
-        <v>5.3234465493864701E-2</v>
+        <v>6.7177517912649976E-2</v>
       </c>
       <c r="V21">
         <f t="shared" si="5"/>
@@ -3909,7 +3921,7 @@
       </c>
       <c r="AM21">
         <f t="shared" si="7"/>
-        <v>2.8018139733613001E-2</v>
+        <v>3.5356588375078934E-2</v>
       </c>
       <c r="AN21">
         <f t="shared" si="8"/>
@@ -3921,7 +3933,7 @@
       </c>
       <c r="AP21">
         <f t="shared" si="10"/>
-        <v>2.52163257602517E-2</v>
+        <v>3.1820929537571041E-2</v>
       </c>
       <c r="AQ21" t="str">
         <f t="shared" si="11"/>
@@ -4277,7 +4289,7 @@
       </c>
       <c r="R25">
         <f t="shared" si="1"/>
-        <v>9.2111070719879118E-3</v>
+        <v>2.5133700655124713E-3</v>
       </c>
       <c r="S25">
         <f t="shared" si="2"/>
@@ -4301,7 +4313,7 @@
       </c>
       <c r="AM25">
         <f t="shared" si="7"/>
-        <v>9.2111070719879118E-3</v>
+        <v>2.5133700655124713E-3</v>
       </c>
       <c r="AN25">
         <f t="shared" si="8"/>
@@ -4313,7 +4325,7 @@
       </c>
       <c r="AP25">
         <f t="shared" si="10"/>
-        <v>-9.2111070719879118E-3</v>
+        <v>-2.5133700655124713E-3</v>
       </c>
       <c r="AQ25" t="str">
         <f t="shared" si="11"/>
@@ -4375,7 +4387,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>3.620263563214321E-4</v>
+        <v>8.4252154751845998E-4</v>
       </c>
       <c r="S26">
         <f t="shared" si="2"/>
@@ -4399,7 +4411,7 @@
       </c>
       <c r="AM26">
         <f t="shared" si="7"/>
-        <v>3.620263563214321E-4</v>
+        <v>8.4252154751845998E-4</v>
       </c>
       <c r="AN26">
         <f t="shared" si="8"/>
@@ -4411,7 +4423,7 @@
       </c>
       <c r="AP26">
         <f t="shared" si="10"/>
-        <v>-3.620263563214321E-4</v>
+        <v>-8.4252154751845998E-4</v>
       </c>
       <c r="AQ26" t="str">
         <f t="shared" si="11"/>
@@ -8677,7 +8689,7 @@
       </c>
       <c r="R71">
         <f t="shared" si="13"/>
-        <v>7.9165934116676273E-2</v>
+        <v>7.4610662045957177E-2</v>
       </c>
       <c r="S71">
         <f t="shared" si="14"/>
@@ -8701,7 +8713,7 @@
       </c>
       <c r="AM71">
         <f t="shared" si="19"/>
-        <v>7.9165934116676273E-2</v>
+        <v>7.4610662045957177E-2</v>
       </c>
       <c r="AN71">
         <f t="shared" si="20"/>
@@ -8713,7 +8725,7 @@
       </c>
       <c r="AP71">
         <f t="shared" si="22"/>
-        <v>-7.9165934116676273E-2</v>
+        <v>-7.4610662045957177E-2</v>
       </c>
       <c r="AQ71" t="str">
         <f t="shared" si="23"/>
@@ -8873,7 +8885,7 @@
       </c>
       <c r="R73">
         <f t="shared" si="13"/>
-        <v>4.6213047086132053E-2</v>
+        <v>6.3816243095753733E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="14"/>
@@ -8897,7 +8909,7 @@
       </c>
       <c r="AM73">
         <f t="shared" si="19"/>
-        <v>4.6213047086132053E-2</v>
+        <v>6.3816243095753733E-2</v>
       </c>
       <c r="AN73">
         <f t="shared" si="20"/>
@@ -8909,7 +8921,7 @@
       </c>
       <c r="AP73">
         <f t="shared" si="22"/>
-        <v>-4.6213047086132053E-2</v>
+        <v>-6.3816243095753733E-2</v>
       </c>
       <c r="AQ73" t="str">
         <f t="shared" si="23"/>
@@ -9069,7 +9081,7 @@
       </c>
       <c r="R75">
         <f t="shared" si="13"/>
-        <v>3.7184371031297014E-2</v>
+        <v>6.9747835285420723E-2</v>
       </c>
       <c r="S75">
         <f t="shared" si="14"/>
@@ -9081,7 +9093,7 @@
       </c>
       <c r="U75">
         <f t="shared" si="16"/>
-        <v>5.4661025416006613E-2</v>
+        <v>0.10252931786956847</v>
       </c>
       <c r="V75">
         <f t="shared" si="17"/>
@@ -9093,7 +9105,7 @@
       </c>
       <c r="AM75">
         <f t="shared" si="19"/>
-        <v>3.7184371031297014E-2</v>
+        <v>6.9747835285420723E-2</v>
       </c>
       <c r="AN75">
         <f t="shared" si="20"/>
@@ -9105,7 +9117,7 @@
       </c>
       <c r="AP75">
         <f t="shared" si="22"/>
-        <v>1.7476654384709599E-2</v>
+        <v>3.2781482584147745E-2</v>
       </c>
       <c r="AQ75" t="str">
         <f t="shared" si="23"/>
@@ -11314,7 +11326,7 @@
       </c>
       <c r="R98">
         <f t="shared" si="13"/>
-        <v>1.9717932414247685E-3</v>
+        <v>0</v>
       </c>
       <c r="S98">
         <f t="shared" si="14"/>
@@ -11338,7 +11350,7 @@
       </c>
       <c r="AM98">
         <f t="shared" si="19"/>
-        <v>1.9717932414247685E-3</v>
+        <v>0</v>
       </c>
       <c r="AN98">
         <f t="shared" si="20"/>
@@ -11348,9 +11360,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AP98">
+      <c r="AP98" t="str">
         <f t="shared" si="22"/>
-        <v>-1.9717932414247685E-3</v>
+        <v/>
       </c>
       <c r="AQ98" t="str">
         <f t="shared" si="23"/>
@@ -13559,7 +13571,7 @@
       </c>
       <c r="R121">
         <f t="shared" si="13"/>
-        <v>2.0474470399482747E-3</v>
+        <v>0</v>
       </c>
       <c r="S121">
         <f t="shared" si="14"/>
@@ -13583,7 +13595,7 @@
       </c>
       <c r="AM121">
         <f t="shared" si="19"/>
-        <v>2.0474470399482747E-3</v>
+        <v>0</v>
       </c>
       <c r="AN121">
         <f t="shared" si="20"/>
@@ -13593,9 +13605,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AP121">
+      <c r="AP121" t="str">
         <f t="shared" si="22"/>
-        <v>-2.0474470399482747E-3</v>
+        <v/>
       </c>
       <c r="AQ121" t="str">
         <f t="shared" si="23"/>
@@ -15323,7 +15335,7 @@
       </c>
       <c r="R139">
         <f t="shared" si="25"/>
-        <v>7.0835748284300504E-2</v>
+        <v>6.6738944710996007E-2</v>
       </c>
       <c r="S139">
         <f t="shared" si="26"/>
@@ -15335,7 +15347,7 @@
       </c>
       <c r="U139">
         <f t="shared" si="28"/>
-        <v>0.23375796933819165</v>
+        <v>0.22023851754628682</v>
       </c>
       <c r="V139">
         <f t="shared" si="29"/>
@@ -15347,7 +15359,7 @@
       </c>
       <c r="AM139">
         <f t="shared" si="31"/>
-        <v>7.0835748284300504E-2</v>
+        <v>6.6738944710996007E-2</v>
       </c>
       <c r="AN139">
         <f t="shared" si="32"/>
@@ -15359,7 +15371,7 @@
       </c>
       <c r="AP139">
         <f t="shared" si="34"/>
-        <v>0.16292222105389115</v>
+        <v>0.15349957283529081</v>
       </c>
       <c r="AQ139" t="str">
         <f t="shared" si="35"/>
@@ -15715,7 +15727,7 @@
       </c>
       <c r="R143">
         <f t="shared" si="25"/>
-        <v>6.5463667559066407E-3</v>
+        <v>2.3979502908044736E-4</v>
       </c>
       <c r="S143">
         <f t="shared" si="26"/>
@@ -15739,7 +15751,7 @@
       </c>
       <c r="AM143">
         <f t="shared" si="31"/>
-        <v>6.5463667559066407E-3</v>
+        <v>2.3979502908044736E-4</v>
       </c>
       <c r="AN143">
         <f t="shared" si="32"/>
@@ -15751,7 +15763,7 @@
       </c>
       <c r="AP143">
         <f t="shared" si="34"/>
-        <v>-6.5463667559066407E-3</v>
+        <v>-2.3979502908044736E-4</v>
       </c>
       <c r="AQ143" t="str">
         <f t="shared" si="35"/>
@@ -17118,7 +17130,7 @@
       </c>
       <c r="Q158">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4.1460127367451971E-3</v>
       </c>
       <c r="R158">
         <f t="shared" si="25"/>
@@ -17130,7 +17142,7 @@
       </c>
       <c r="T158">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>5.8873380861781798E-3</v>
       </c>
       <c r="U158">
         <f t="shared" si="28"/>
@@ -17142,7 +17154,7 @@
       </c>
       <c r="AL158">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>4.1460127367451971E-3</v>
       </c>
       <c r="AM158">
         <f t="shared" si="31"/>
@@ -17152,9 +17164,9 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AO158" t="str">
+      <c r="AO158">
         <f t="shared" si="33"/>
-        <v/>
+        <v>1.7413253494329827E-3</v>
       </c>
       <c r="AP158" t="str">
         <f t="shared" si="34"/>
@@ -18449,7 +18461,7 @@
       </c>
       <c r="R172">
         <f t="shared" si="25"/>
-        <v>7.7183194267311794E-2</v>
+        <v>7.589206598383802E-2</v>
       </c>
       <c r="S172">
         <f t="shared" si="26"/>
@@ -18473,7 +18485,7 @@
       </c>
       <c r="AM172">
         <f t="shared" si="31"/>
-        <v>7.7183194267311794E-2</v>
+        <v>7.589206598383802E-2</v>
       </c>
       <c r="AN172">
         <f t="shared" si="32"/>
@@ -18485,7 +18497,7 @@
       </c>
       <c r="AP172">
         <f t="shared" si="34"/>
-        <v>-7.7183194267311794E-2</v>
+        <v>-7.589206598383802E-2</v>
       </c>
       <c r="AQ172" t="str">
         <f t="shared" si="35"/>
@@ -20783,7 +20795,7 @@
       </c>
       <c r="R196">
         <f t="shared" si="37"/>
-        <v>2.3702318417540058E-2</v>
+        <v>2.0092500220492859E-2</v>
       </c>
       <c r="S196">
         <f t="shared" si="38"/>
@@ -20807,7 +20819,7 @@
       </c>
       <c r="AM196">
         <f t="shared" si="43"/>
-        <v>2.3702318417540058E-2</v>
+        <v>2.0092500220492859E-2</v>
       </c>
       <c r="AN196">
         <f t="shared" si="44"/>
@@ -20819,7 +20831,7 @@
       </c>
       <c r="AP196">
         <f t="shared" si="46"/>
-        <v>-2.3702318417540058E-2</v>
+        <v>-2.0092500220492859E-2</v>
       </c>
       <c r="AQ196" t="str">
         <f t="shared" si="47"/>
@@ -21068,7 +21080,7 @@
       </c>
       <c r="R199">
         <f t="shared" si="37"/>
-        <v>4.0767396164829217E-2</v>
+        <v>3.646883280084473E-2</v>
       </c>
       <c r="S199">
         <f t="shared" si="38"/>
@@ -21092,7 +21104,7 @@
       </c>
       <c r="AM199">
         <f t="shared" si="43"/>
-        <v>4.0767396164829217E-2</v>
+        <v>3.646883280084473E-2</v>
       </c>
       <c r="AN199">
         <f t="shared" si="44"/>
@@ -21104,7 +21116,7 @@
       </c>
       <c r="AP199">
         <f t="shared" si="46"/>
-        <v>-4.0767396164829217E-2</v>
+        <v>-3.646883280084473E-2</v>
       </c>
       <c r="AQ199" t="str">
         <f t="shared" si="47"/>
@@ -22484,7 +22496,7 @@
       </c>
       <c r="R214">
         <f t="shared" si="37"/>
-        <v>2.4222644676197336E-2</v>
+        <v>2.7972570185717471E-2</v>
       </c>
       <c r="S214">
         <f t="shared" si="38"/>
@@ -22508,7 +22520,7 @@
       </c>
       <c r="AM214">
         <f t="shared" si="43"/>
-        <v>2.4222644676197336E-2</v>
+        <v>2.7972570185717471E-2</v>
       </c>
       <c r="AN214">
         <f t="shared" si="44"/>
@@ -22520,7 +22532,7 @@
       </c>
       <c r="AP214">
         <f t="shared" si="46"/>
-        <v>-2.4222644676197336E-2</v>
+        <v>-2.7972570185717471E-2</v>
       </c>
       <c r="AQ214" t="str">
         <f t="shared" si="47"/>
@@ -23366,7 +23378,7 @@
       </c>
       <c r="R223">
         <f t="shared" si="37"/>
-        <v>2.9891364895426875E-3</v>
+        <v>6.9285040198237002E-3</v>
       </c>
       <c r="S223">
         <f t="shared" si="38"/>
@@ -23378,7 +23390,7 @@
       </c>
       <c r="U223">
         <f t="shared" si="40"/>
-        <v>5.978272979085375E-3</v>
+        <v>1.38570080396474E-2</v>
       </c>
       <c r="V223">
         <f t="shared" si="41"/>
@@ -23390,7 +23402,7 @@
       </c>
       <c r="AM223">
         <f t="shared" si="43"/>
-        <v>2.9891364895426875E-3</v>
+        <v>6.9285040198237002E-3</v>
       </c>
       <c r="AN223">
         <f t="shared" si="44"/>
@@ -23402,7 +23414,7 @@
       </c>
       <c r="AP223">
         <f t="shared" si="46"/>
-        <v>2.9891364895426875E-3</v>
+        <v>6.9285040198237002E-3</v>
       </c>
       <c r="AQ223" t="str">
         <f t="shared" si="47"/>
@@ -23460,7 +23472,7 @@
       </c>
       <c r="Q224">
         <f t="shared" si="36"/>
-        <v>5.9179771967236144E-3</v>
+        <v>1.0828804018649107E-3</v>
       </c>
       <c r="R224">
         <f t="shared" si="37"/>
@@ -23484,7 +23496,7 @@
       </c>
       <c r="AL224">
         <f t="shared" si="42"/>
-        <v>5.9179771967236144E-3</v>
+        <v>1.0828804018649107E-3</v>
       </c>
       <c r="AM224">
         <f t="shared" si="43"/>
@@ -23496,7 +23508,7 @@
       </c>
       <c r="AO224">
         <f t="shared" si="45"/>
-        <v>-5.9179771967236144E-3</v>
+        <v>-1.0828804018649107E-3</v>
       </c>
       <c r="AP224" t="str">
         <f t="shared" si="46"/>
@@ -26404,7 +26416,7 @@
       </c>
       <c r="R254">
         <f t="shared" si="37"/>
-        <v>3.3233788224493188E-3</v>
+        <v>3.6447177501769401E-3</v>
       </c>
       <c r="S254">
         <f t="shared" si="38"/>
@@ -26416,7 +26428,7 @@
       </c>
       <c r="U254">
         <f t="shared" si="40"/>
-        <v>7.3779009858374886E-3</v>
+        <v>8.0912734053928074E-3</v>
       </c>
       <c r="V254">
         <f t="shared" si="41"/>
@@ -26428,7 +26440,7 @@
       </c>
       <c r="AM254">
         <f t="shared" si="43"/>
-        <v>3.3233788224493188E-3</v>
+        <v>3.6447177501769401E-3</v>
       </c>
       <c r="AN254">
         <f t="shared" si="44"/>
@@ -26440,7 +26452,7 @@
       </c>
       <c r="AP254">
         <f t="shared" si="46"/>
-        <v>4.0545221633881698E-3</v>
+        <v>4.4465556552158673E-3</v>
       </c>
       <c r="AQ254" t="str">
         <f t="shared" si="47"/>
@@ -26600,7 +26612,7 @@
       </c>
       <c r="R256">
         <f t="shared" si="37"/>
-        <v>2.3481611331196889E-2</v>
+        <v>1.7277676498458072E-2</v>
       </c>
       <c r="S256">
         <f t="shared" si="38"/>
@@ -26612,7 +26624,7 @@
       </c>
       <c r="U256">
         <f t="shared" si="40"/>
-        <v>9.3926445324787555E-2</v>
+        <v>6.9110705993832289E-2</v>
       </c>
       <c r="V256">
         <f t="shared" si="41"/>
@@ -26624,7 +26636,7 @@
       </c>
       <c r="AM256">
         <f t="shared" si="43"/>
-        <v>2.3481611331196889E-2</v>
+        <v>1.7277676498458072E-2</v>
       </c>
       <c r="AN256">
         <f t="shared" si="44"/>
@@ -26636,7 +26648,7 @@
       </c>
       <c r="AP256">
         <f t="shared" si="46"/>
-        <v>7.0444833993590666E-2</v>
+        <v>5.1833029495374217E-2</v>
       </c>
       <c r="AQ256" t="str">
         <f t="shared" si="47"/>
@@ -26796,7 +26808,7 @@
       </c>
       <c r="R258">
         <f t="shared" ref="R258:R321" si="49">IF((($AC$1*F258)^($AB$1))-(1-(($AC$1*F258)^($AB$1)))/(I258-1)&lt;0, 0,(($AC$1*F258)^($AB$1))-(1-(($AC$1*F258)^($AB$1)))/(I258-1))</f>
-        <v>1.182419332444215E-2</v>
+        <v>5.1381625719848778E-3</v>
       </c>
       <c r="S258">
         <f t="shared" ref="S258:S321" si="50">IF((($AC$1*G258)^($AB$1))-(1-(($AC$1*G258)^($AB$1)))/(J258-1)&lt;0, 0,(($AC$1*G258)^($AB$1))-(1-(($AC$1*G258)^($AB$1)))/(J258-1))</f>
@@ -26820,7 +26832,7 @@
       </c>
       <c r="AM258">
         <f t="shared" ref="AM258:AM321" si="55">R258*COUNT(O258)</f>
-        <v>1.182419332444215E-2</v>
+        <v>5.1381625719848778E-3</v>
       </c>
       <c r="AN258">
         <f t="shared" ref="AN258:AN321" si="56">S258*COUNT(P258)</f>
@@ -26832,7 +26844,7 @@
       </c>
       <c r="AP258">
         <f t="shared" ref="AP258:AP321" si="58">IF(AM258=0,"",U258-AM258)</f>
-        <v>-1.182419332444215E-2</v>
+        <v>-5.1381625719848778E-3</v>
       </c>
       <c r="AQ258" t="str">
         <f t="shared" ref="AQ258:AQ321" si="59">IF(AN258=0,"",V258-AN258)</f>
@@ -29344,7 +29356,7 @@
       </c>
       <c r="R284">
         <f t="shared" si="49"/>
-        <v>7.1882654210454477E-3</v>
+        <v>8.4751474052263687E-4</v>
       </c>
       <c r="S284">
         <f t="shared" si="50"/>
@@ -29368,7 +29380,7 @@
       </c>
       <c r="AM284">
         <f t="shared" si="55"/>
-        <v>7.1882654210454477E-3</v>
+        <v>8.4751474052263687E-4</v>
       </c>
       <c r="AN284">
         <f t="shared" si="56"/>
@@ -29380,7 +29392,7 @@
       </c>
       <c r="AP284">
         <f t="shared" si="58"/>
-        <v>-7.1882654210454477E-3</v>
+        <v>-8.4751474052263687E-4</v>
       </c>
       <c r="AQ284" t="str">
         <f t="shared" si="59"/>
@@ -29438,7 +29450,7 @@
       </c>
       <c r="Q285">
         <f t="shared" si="48"/>
-        <v>4.9113139551604096E-3</v>
+        <v>0</v>
       </c>
       <c r="R285">
         <f t="shared" si="49"/>
@@ -29462,7 +29474,7 @@
       </c>
       <c r="AL285">
         <f t="shared" si="54"/>
-        <v>4.9113139551604096E-3</v>
+        <v>0</v>
       </c>
       <c r="AM285">
         <f t="shared" si="55"/>
@@ -29472,9 +29484,9 @@
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AO285">
+      <c r="AO285" t="str">
         <f t="shared" si="57"/>
-        <v>-4.9113139551604096E-3</v>
+        <v/>
       </c>
       <c r="AP285" t="str">
         <f t="shared" si="58"/>
@@ -34239,7 +34251,7 @@
       </c>
       <c r="Q335">
         <f t="shared" si="60"/>
-        <v>9.8146987049338441E-4</v>
+        <v>0</v>
       </c>
       <c r="R335">
         <f t="shared" si="61"/>
@@ -34263,7 +34275,7 @@
       </c>
       <c r="AL335">
         <f t="shared" si="66"/>
-        <v>9.8146987049338441E-4</v>
+        <v>0</v>
       </c>
       <c r="AM335">
         <f t="shared" si="67"/>
@@ -34273,9 +34285,9 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="AO335">
+      <c r="AO335" t="str">
         <f t="shared" si="69"/>
-        <v>-9.8146987049338441E-4</v>
+        <v/>
       </c>
       <c r="AP335" t="str">
         <f t="shared" si="70"/>
@@ -34733,7 +34745,7 @@
       </c>
       <c r="R340">
         <f t="shared" si="61"/>
-        <v>6.7125721429813101E-2</v>
+        <v>8.0063213713163717E-2</v>
       </c>
       <c r="S340">
         <f t="shared" si="62"/>
@@ -34757,7 +34769,7 @@
       </c>
       <c r="AM340">
         <f t="shared" si="67"/>
-        <v>6.7125721429813101E-2</v>
+        <v>8.0063213713163717E-2</v>
       </c>
       <c r="AN340">
         <f t="shared" si="68"/>
@@ -34769,7 +34781,7 @@
       </c>
       <c r="AP340">
         <f t="shared" si="70"/>
-        <v>-6.7125721429813101E-2</v>
+        <v>-8.0063213713163717E-2</v>
       </c>
       <c r="AQ340" t="str">
         <f t="shared" si="71"/>
@@ -34827,7 +34839,7 @@
       </c>
       <c r="Q341">
         <f t="shared" si="60"/>
-        <v>1.6475495575667742E-2</v>
+        <v>3.641770445668191E-2</v>
       </c>
       <c r="R341">
         <f t="shared" si="61"/>
@@ -34851,7 +34863,7 @@
       </c>
       <c r="AL341">
         <f t="shared" si="66"/>
-        <v>1.6475495575667742E-2</v>
+        <v>3.641770445668191E-2</v>
       </c>
       <c r="AM341">
         <f t="shared" si="67"/>
@@ -34863,7 +34875,7 @@
       </c>
       <c r="AO341">
         <f t="shared" si="69"/>
-        <v>-1.6475495575667742E-2</v>
+        <v>-3.641770445668191E-2</v>
       </c>
       <c r="AP341" t="str">
         <f t="shared" si="70"/>
@@ -35709,7 +35721,7 @@
       </c>
       <c r="Q350">
         <f t="shared" si="60"/>
-        <v>9.1090904761330777E-3</v>
+        <v>4.4926213138101814E-3</v>
       </c>
       <c r="R350">
         <f t="shared" si="61"/>
@@ -35733,7 +35745,7 @@
       </c>
       <c r="AL350">
         <f t="shared" si="66"/>
-        <v>9.1090904761330777E-3</v>
+        <v>4.4926213138101814E-3</v>
       </c>
       <c r="AM350">
         <f t="shared" si="67"/>
@@ -35745,7 +35757,7 @@
       </c>
       <c r="AO350">
         <f t="shared" si="69"/>
-        <v>-9.1090904761330777E-3</v>
+        <v>-4.4926213138101814E-3</v>
       </c>
       <c r="AP350" t="str">
         <f t="shared" si="70"/>
@@ -39209,51 +39221,51 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <f t="shared" ref="Q386:Q440" si="72">IF((($AC$1*E386)^($AB$1))-(1-(($AC$1*E386)^($AB$1)))/(H386-1)&lt;0, 0,(($AC$1*E386)^($AB$1))-(1-(($AC$1*E386)^($AB$1)))/(H386-1))</f>
+        <f t="shared" ref="Q386:Q449" si="72">IF((($AC$1*E386)^($AB$1))-(1-(($AC$1*E386)^($AB$1)))/(H386-1)&lt;0, 0,(($AC$1*E386)^($AB$1))-(1-(($AC$1*E386)^($AB$1)))/(H386-1))</f>
         <v>0</v>
       </c>
       <c r="R386">
-        <f t="shared" ref="R386:R440" si="73">IF((($AC$1*F386)^($AB$1))-(1-(($AC$1*F386)^($AB$1)))/(I386-1)&lt;0, 0,(($AC$1*F386)^($AB$1))-(1-(($AC$1*F386)^($AB$1)))/(I386-1))</f>
+        <f t="shared" ref="R386:R449" si="73">IF((($AC$1*F386)^($AB$1))-(1-(($AC$1*F386)^($AB$1)))/(I386-1)&lt;0, 0,(($AC$1*F386)^($AB$1))-(1-(($AC$1*F386)^($AB$1)))/(I386-1))</f>
         <v>0</v>
       </c>
       <c r="S386">
-        <f t="shared" ref="S386:S440" si="74">IF((($AC$1*G386)^($AB$1))-(1-(($AC$1*G386)^($AB$1)))/(J386-1)&lt;0, 0,(($AC$1*G386)^($AB$1))-(1-(($AC$1*G386)^($AB$1)))/(J386-1))</f>
+        <f t="shared" ref="S386:S449" si="74">IF((($AC$1*G386)^($AB$1))-(1-(($AC$1*G386)^($AB$1)))/(J386-1)&lt;0, 0,(($AC$1*G386)^($AB$1))-(1-(($AC$1*G386)^($AB$1)))/(J386-1))</f>
         <v>0</v>
       </c>
       <c r="T386">
-        <f t="shared" ref="T386:T407" si="75">H386*Q386*N386</f>
+        <f t="shared" ref="T386:T449" si="75">H386*Q386*N386</f>
         <v>0</v>
       </c>
       <c r="U386">
-        <f t="shared" ref="U386:U407" si="76">I386*R386*O386</f>
+        <f t="shared" ref="U386:U449" si="76">I386*R386*O386</f>
         <v>0</v>
       </c>
       <c r="V386">
-        <f t="shared" ref="V386:V407" si="77">J386*S386*P386</f>
+        <f t="shared" ref="V386:V449" si="77">J386*S386*P386</f>
         <v>0</v>
       </c>
       <c r="AL386">
-        <f t="shared" ref="AL386:AL407" si="78">Q386*COUNT(N386)</f>
+        <f t="shared" ref="AL386:AL449" si="78">Q386*COUNT(N386)</f>
         <v>0</v>
       </c>
       <c r="AM386">
-        <f t="shared" ref="AM386:AM407" si="79">R386*COUNT(O386)</f>
+        <f t="shared" ref="AM386:AM449" si="79">R386*COUNT(O386)</f>
         <v>0</v>
       </c>
       <c r="AN386">
-        <f t="shared" ref="AN386:AN407" si="80">S386*COUNT(P386)</f>
+        <f t="shared" ref="AN386:AN449" si="80">S386*COUNT(P386)</f>
         <v>0</v>
       </c>
       <c r="AO386" t="str">
-        <f t="shared" ref="AO386:AO407" si="81">IF(AL386=0,"",T386-AL386)</f>
+        <f t="shared" ref="AO386:AO449" si="81">IF(AL386=0,"",T386-AL386)</f>
         <v/>
       </c>
       <c r="AP386" t="str">
-        <f t="shared" ref="AP386:AP407" si="82">IF(AM386=0,"",U386-AM386)</f>
+        <f t="shared" ref="AP386:AP449" si="82">IF(AM386=0,"",U386-AM386)</f>
         <v/>
       </c>
       <c r="AQ386" t="str">
-        <f t="shared" ref="AQ386:AQ407" si="83">IF(AN386=0,"",V386-AN386)</f>
+        <f t="shared" ref="AQ386:AQ449" si="83">IF(AN386=0,"",V386-AN386)</f>
         <v/>
       </c>
     </row>
@@ -39397,7 +39409,7 @@
       </c>
       <c r="Q388">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1.0143267081779928E-2</v>
       </c>
       <c r="R388">
         <f t="shared" si="73"/>
@@ -39409,7 +39421,7 @@
       </c>
       <c r="T388">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1.3794843231220702E-2</v>
       </c>
       <c r="U388">
         <f t="shared" si="76"/>
@@ -39421,7 +39433,7 @@
       </c>
       <c r="AL388">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1.0143267081779928E-2</v>
       </c>
       <c r="AM388">
         <f t="shared" si="79"/>
@@ -39431,9 +39443,9 @@
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AO388" t="str">
+      <c r="AO388">
         <f t="shared" si="81"/>
-        <v/>
+        <v>3.6515761494407741E-3</v>
       </c>
       <c r="AP388" t="str">
         <f t="shared" si="82"/>
@@ -39855,7 +39867,7 @@
       </c>
       <c r="R393">
         <f t="shared" si="73"/>
-        <v>2.1975384116576624E-2</v>
+        <v>2.3217083582133258E-2</v>
       </c>
       <c r="S393">
         <f t="shared" si="74"/>
@@ -41214,7 +41226,7 @@
       </c>
       <c r="Q407">
         <f t="shared" si="72"/>
-        <v>1.7713422669123874E-2</v>
+        <v>1.1093431638896312E-2</v>
       </c>
       <c r="R407">
         <f t="shared" si="73"/>
@@ -41238,7 +41250,7 @@
       </c>
       <c r="AL407">
         <f t="shared" si="78"/>
-        <v>1.7713422669123874E-2</v>
+        <v>1.1093431638896312E-2</v>
       </c>
       <c r="AM407">
         <f t="shared" si="79"/>
@@ -41250,7 +41262,7 @@
       </c>
       <c r="AO407">
         <f t="shared" si="81"/>
-        <v>-1.7713422669123874E-2</v>
+        <v>-1.1093431638896312E-2</v>
       </c>
       <c r="AP407" t="str">
         <f t="shared" si="82"/>
@@ -41301,17 +41313,62 @@
       <c r="M408" t="s">
         <v>53</v>
       </c>
+      <c r="N408">
+        <v>0</v>
+      </c>
+      <c r="O408">
+        <v>0</v>
+      </c>
+      <c r="P408">
+        <v>1</v>
+      </c>
       <c r="Q408">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R408">
         <f t="shared" si="73"/>
-        <v>2.8972227273295292E-2</v>
+        <v>2.2780004004726379E-2</v>
       </c>
       <c r="S408">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T408">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U408">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V408">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL408">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM408">
+        <f t="shared" si="79"/>
+        <v>2.2780004004726379E-2</v>
+      </c>
+      <c r="AN408">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO408" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP408">
+        <f t="shared" si="82"/>
+        <v>-2.2780004004726379E-2</v>
+      </c>
+      <c r="AQ408" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="409" spans="1:43" x14ac:dyDescent="0.35">
@@ -41354,17 +41411,62 @@
       <c r="M409" t="s">
         <v>53</v>
       </c>
+      <c r="N409">
+        <v>1</v>
+      </c>
+      <c r="O409">
+        <v>0</v>
+      </c>
+      <c r="P409">
+        <v>0</v>
+      </c>
       <c r="Q409">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R409">
         <f t="shared" si="73"/>
-        <v>1.3702800758688682E-2</v>
+        <v>7.1026968352919106E-3</v>
       </c>
       <c r="S409">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T409">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U409">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V409">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL409">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM409">
+        <f t="shared" si="79"/>
+        <v>7.1026968352919106E-3</v>
+      </c>
+      <c r="AN409">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO409" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP409">
+        <f t="shared" si="82"/>
+        <v>-7.1026968352919106E-3</v>
+      </c>
+      <c r="AQ409" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="410" spans="1:43" x14ac:dyDescent="0.35">
@@ -41407,17 +41509,62 @@
       <c r="M410" t="s">
         <v>48</v>
       </c>
+      <c r="N410">
+        <v>1</v>
+      </c>
+      <c r="O410">
+        <v>0</v>
+      </c>
+      <c r="P410">
+        <v>0</v>
+      </c>
       <c r="Q410">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R410">
         <f t="shared" si="73"/>
-        <v>1.2021638087310271E-2</v>
+        <v>5.3647953857545172E-3</v>
       </c>
       <c r="S410">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T410">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U410">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V410">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL410">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM410">
+        <f t="shared" si="79"/>
+        <v>5.3647953857545172E-3</v>
+      </c>
+      <c r="AN410">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO410" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP410">
+        <f t="shared" si="82"/>
+        <v>-5.3647953857545172E-3</v>
+      </c>
+      <c r="AQ410" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="411" spans="1:43" x14ac:dyDescent="0.35">
@@ -41451,6 +41598,15 @@
       <c r="J411">
         <v>1.0009999999999999</v>
       </c>
+      <c r="N411">
+        <v>1</v>
+      </c>
+      <c r="O411">
+        <v>0</v>
+      </c>
+      <c r="P411">
+        <v>0</v>
+      </c>
       <c r="Q411">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41462,6 +41618,42 @@
       <c r="S411">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T411">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U411">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V411">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL411">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM411">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN411">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO411" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP411" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ411" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="412" spans="1:43" x14ac:dyDescent="0.35">
@@ -41504,6 +41696,15 @@
       <c r="M412" t="s">
         <v>48</v>
       </c>
+      <c r="N412">
+        <v>0</v>
+      </c>
+      <c r="O412">
+        <v>1</v>
+      </c>
+      <c r="P412">
+        <v>0</v>
+      </c>
       <c r="Q412">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41515,6 +41716,42 @@
       <c r="S412">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T412">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U412">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V412">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL412">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM412">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN412">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO412" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP412" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ412" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="413" spans="1:43" x14ac:dyDescent="0.35">
@@ -41557,6 +41794,15 @@
       <c r="M413" t="s">
         <v>53</v>
       </c>
+      <c r="N413">
+        <v>0</v>
+      </c>
+      <c r="O413">
+        <v>1</v>
+      </c>
+      <c r="P413">
+        <v>0</v>
+      </c>
       <c r="Q413">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41568,6 +41814,42 @@
       <c r="S413">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T413">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U413">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V413">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL413">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM413">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN413">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO413" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP413" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ413" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="414" spans="1:43" x14ac:dyDescent="0.35">
@@ -41610,6 +41892,15 @@
       <c r="M414" t="s">
         <v>53</v>
       </c>
+      <c r="N414">
+        <v>0</v>
+      </c>
+      <c r="O414">
+        <v>0</v>
+      </c>
+      <c r="P414">
+        <v>1</v>
+      </c>
       <c r="Q414">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41621,6 +41912,42 @@
       <c r="S414">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T414">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U414">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V414">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL414">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM414">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN414">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO414" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP414" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ414" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="415" spans="1:43" x14ac:dyDescent="0.35">
@@ -41663,6 +41990,15 @@
       <c r="M415" t="s">
         <v>53</v>
       </c>
+      <c r="N415">
+        <v>0</v>
+      </c>
+      <c r="O415">
+        <v>0</v>
+      </c>
+      <c r="P415">
+        <v>1</v>
+      </c>
       <c r="Q415">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41674,6 +42010,42 @@
       <c r="S415">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T415">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U415">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V415">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL415">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM415">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN415">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO415" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP415" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ415" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="416" spans="1:43" x14ac:dyDescent="0.35">
@@ -41716,6 +42088,15 @@
       <c r="M416" t="s">
         <v>53</v>
       </c>
+      <c r="N416">
+        <v>1</v>
+      </c>
+      <c r="O416">
+        <v>0</v>
+      </c>
+      <c r="P416">
+        <v>0</v>
+      </c>
       <c r="Q416">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41728,8 +42109,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T416">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U416">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V416">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL416">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM416">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN416">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO416" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP416" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ416" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>464</v>
       </c>
@@ -41760,6 +42177,15 @@
       <c r="J417">
         <v>1.0009999999999999</v>
       </c>
+      <c r="N417">
+        <v>0</v>
+      </c>
+      <c r="O417">
+        <v>0</v>
+      </c>
+      <c r="P417">
+        <v>1</v>
+      </c>
       <c r="Q417">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41772,8 +42198,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T417">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U417">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V417">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL417">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM417">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN417">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO417" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP417" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ417" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>464</v>
       </c>
@@ -41813,6 +42275,15 @@
       <c r="M418" t="s">
         <v>53</v>
       </c>
+      <c r="N418">
+        <v>0</v>
+      </c>
+      <c r="O418">
+        <v>0</v>
+      </c>
+      <c r="P418">
+        <v>1</v>
+      </c>
       <c r="Q418">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41825,8 +42296,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T418">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U418">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V418">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL418">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM418">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN418">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO418" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP418" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ418" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>464</v>
       </c>
@@ -41857,6 +42364,15 @@
       <c r="J419">
         <v>1.0009999999999999</v>
       </c>
+      <c r="N419">
+        <v>0</v>
+      </c>
+      <c r="O419">
+        <v>0</v>
+      </c>
+      <c r="P419">
+        <v>1</v>
+      </c>
       <c r="Q419">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41869,8 +42385,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T419">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U419">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V419">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL419">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM419">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN419">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO419" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP419" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ419" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>464</v>
       </c>
@@ -41901,6 +42453,15 @@
       <c r="J420">
         <v>1.0009999999999999</v>
       </c>
+      <c r="N420">
+        <v>1</v>
+      </c>
+      <c r="O420">
+        <v>0</v>
+      </c>
+      <c r="P420">
+        <v>0</v>
+      </c>
       <c r="Q420">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41913,8 +42474,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T420">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U420">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V420">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL420">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM420">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN420">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO420" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP420" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ420" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>464</v>
       </c>
@@ -41954,6 +42551,15 @@
       <c r="M421" t="s">
         <v>48</v>
       </c>
+      <c r="N421">
+        <v>0</v>
+      </c>
+      <c r="O421">
+        <v>1</v>
+      </c>
+      <c r="P421">
+        <v>0</v>
+      </c>
       <c r="Q421">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41966,8 +42572,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T421">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U421">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V421">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL421">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM421">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN421">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO421" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP421" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ421" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>464</v>
       </c>
@@ -42007,6 +42649,15 @@
       <c r="M422" t="s">
         <v>48</v>
       </c>
+      <c r="N422">
+        <v>0</v>
+      </c>
+      <c r="O422">
+        <v>0</v>
+      </c>
+      <c r="P422">
+        <v>1</v>
+      </c>
       <c r="Q422">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42019,8 +42670,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T422">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U422">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V422">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL422">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM422">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN422">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO422" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP422" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ422" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>464</v>
       </c>
@@ -42063,8 +42750,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T423">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U423">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V423">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL423">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM423">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN423">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO423" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP423" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ423" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>464</v>
       </c>
@@ -42104,6 +42827,15 @@
       <c r="M424" t="s">
         <v>48</v>
       </c>
+      <c r="N424">
+        <v>1</v>
+      </c>
+      <c r="O424">
+        <v>0</v>
+      </c>
+      <c r="P424">
+        <v>0</v>
+      </c>
       <c r="Q424">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42116,8 +42848,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T424">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U424">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V424">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL424">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM424">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN424">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO424" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP424" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ424" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>464</v>
       </c>
@@ -42157,6 +42925,15 @@
       <c r="M425" t="s">
         <v>48</v>
       </c>
+      <c r="N425">
+        <v>0</v>
+      </c>
+      <c r="O425">
+        <v>0</v>
+      </c>
+      <c r="P425">
+        <v>1</v>
+      </c>
       <c r="Q425">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42169,8 +42946,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T425">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U425">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V425">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL425">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM425">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN425">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO425" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP425" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ425" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>464</v>
       </c>
@@ -42222,8 +43035,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T426">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U426">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V426">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL426">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM426">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN426">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO426" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP426" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ426" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>464</v>
       </c>
@@ -42263,6 +43112,15 @@
       <c r="M427" t="s">
         <v>53</v>
       </c>
+      <c r="N427">
+        <v>0</v>
+      </c>
+      <c r="O427">
+        <v>1</v>
+      </c>
+      <c r="P427">
+        <v>0</v>
+      </c>
       <c r="Q427">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42275,8 +43133,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T427">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U427">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V427">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL427">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM427">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN427">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO427" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP427" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ427" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>464</v>
       </c>
@@ -42307,6 +43201,15 @@
       <c r="J428">
         <v>1.0009999999999999</v>
       </c>
+      <c r="N428">
+        <v>0</v>
+      </c>
+      <c r="O428">
+        <v>0</v>
+      </c>
+      <c r="P428">
+        <v>1</v>
+      </c>
       <c r="Q428">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42319,8 +43222,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T428">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U428">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V428">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL428">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM428">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN428">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO428" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP428" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ428" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>464</v>
       </c>
@@ -42360,6 +43299,15 @@
       <c r="M429" t="s">
         <v>48</v>
       </c>
+      <c r="N429">
+        <v>0</v>
+      </c>
+      <c r="O429">
+        <v>0</v>
+      </c>
+      <c r="P429">
+        <v>1</v>
+      </c>
       <c r="Q429">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42372,8 +43320,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T429">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U429">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V429">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL429">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM429">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN429">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO429" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP429" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ429" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>464</v>
       </c>
@@ -42413,6 +43397,15 @@
       <c r="M430" t="s">
         <v>48</v>
       </c>
+      <c r="N430">
+        <v>0</v>
+      </c>
+      <c r="O430">
+        <v>0</v>
+      </c>
+      <c r="P430">
+        <v>1</v>
+      </c>
       <c r="Q430">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42425,8 +43418,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T430">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U430">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V430">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL430">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM430">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN430">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO430" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP430" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ430" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>464</v>
       </c>
@@ -42466,6 +43495,15 @@
       <c r="M431" t="s">
         <v>48</v>
       </c>
+      <c r="N431">
+        <v>1</v>
+      </c>
+      <c r="O431">
+        <v>0</v>
+      </c>
+      <c r="P431">
+        <v>0</v>
+      </c>
       <c r="Q431">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42478,8 +43516,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T431">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U431">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V431">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL431">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM431">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN431">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO431" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP431" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ431" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>464</v>
       </c>
@@ -42519,6 +43593,15 @@
       <c r="M432" t="s">
         <v>48</v>
       </c>
+      <c r="N432">
+        <v>0</v>
+      </c>
+      <c r="O432">
+        <v>1</v>
+      </c>
+      <c r="P432">
+        <v>0</v>
+      </c>
       <c r="Q432">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42531,8 +43614,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T432">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U432">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V432">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL432">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM432">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN432">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO432" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP432" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ432" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>464</v>
       </c>
@@ -42572,6 +43691,15 @@
       <c r="M433" t="s">
         <v>48</v>
       </c>
+      <c r="N433">
+        <v>0</v>
+      </c>
+      <c r="O433">
+        <v>0</v>
+      </c>
+      <c r="P433">
+        <v>1</v>
+      </c>
       <c r="Q433">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42584,8 +43712,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T433">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U433">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V433">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL433">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM433">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN433">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO433" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP433" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ433" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>464</v>
       </c>
@@ -42628,8 +43792,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T434">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U434">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V434">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL434">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM434">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN434">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO434" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP434" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ434" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>464</v>
       </c>
@@ -42660,6 +43860,15 @@
       <c r="J435">
         <v>1.0009999999999999</v>
       </c>
+      <c r="N435">
+        <v>0</v>
+      </c>
+      <c r="O435">
+        <v>0</v>
+      </c>
+      <c r="P435">
+        <v>1</v>
+      </c>
       <c r="Q435">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42672,8 +43881,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T435">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U435">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V435">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL435">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM435">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN435">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO435" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP435" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ435" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>464</v>
       </c>
@@ -42713,20 +43958,65 @@
       <c r="M436" t="s">
         <v>48</v>
       </c>
+      <c r="N436">
+        <v>1</v>
+      </c>
+      <c r="O436">
+        <v>0</v>
+      </c>
+      <c r="P436">
+        <v>0</v>
+      </c>
       <c r="Q436">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R436">
         <f t="shared" si="73"/>
-        <v>2.7309104756256725E-2</v>
+        <v>2.10236000631982E-2</v>
       </c>
       <c r="S436">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T436">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U436">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V436">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL436">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM436">
+        <f t="shared" si="79"/>
+        <v>2.10236000631982E-2</v>
+      </c>
+      <c r="AN436">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO436" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP436">
+        <f t="shared" si="82"/>
+        <v>-2.10236000631982E-2</v>
+      </c>
+      <c r="AQ436" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>464</v>
       </c>
@@ -42766,6 +44056,15 @@
       <c r="M437" t="s">
         <v>48</v>
       </c>
+      <c r="N437">
+        <v>1</v>
+      </c>
+      <c r="O437">
+        <v>0</v>
+      </c>
+      <c r="P437">
+        <v>0</v>
+      </c>
       <c r="Q437">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42778,8 +44077,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T437">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U437">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V437">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL437">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM437">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN437">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO437" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP437" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ437" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>464</v>
       </c>
@@ -42819,6 +44154,15 @@
       <c r="M438" t="s">
         <v>53</v>
       </c>
+      <c r="N438">
+        <v>0</v>
+      </c>
+      <c r="O438">
+        <v>0</v>
+      </c>
+      <c r="P438">
+        <v>1</v>
+      </c>
       <c r="Q438">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42831,8 +44175,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T438">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U438">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V438">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL438">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM438">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN438">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO438" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP438" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ438" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>464</v>
       </c>
@@ -42872,6 +44252,15 @@
       <c r="M439" t="s">
         <v>48</v>
       </c>
+      <c r="N439">
+        <v>0</v>
+      </c>
+      <c r="O439">
+        <v>0</v>
+      </c>
+      <c r="P439">
+        <v>1</v>
+      </c>
       <c r="Q439">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42884,8 +44273,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T439">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U439">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V439">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL439">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM439">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN439">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO439" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP439" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ439" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>464</v>
       </c>
@@ -42925,6 +44350,15 @@
       <c r="M440" t="s">
         <v>53</v>
       </c>
+      <c r="N440">
+        <v>0</v>
+      </c>
+      <c r="O440">
+        <v>1</v>
+      </c>
+      <c r="P440">
+        <v>0</v>
+      </c>
       <c r="Q440">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42935,6 +44369,6482 @@
       </c>
       <c r="S440">
         <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T440">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U440">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V440">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL440">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM440">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN440">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO440" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP440" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ440" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>466</v>
+      </c>
+      <c r="B441" t="s">
+        <v>319</v>
+      </c>
+      <c r="C441" t="s">
+        <v>234</v>
+      </c>
+      <c r="D441" t="s">
+        <v>236</v>
+      </c>
+      <c r="E441">
+        <v>0.35269223088592749</v>
+      </c>
+      <c r="F441">
+        <v>0.3541033910808119</v>
+      </c>
+      <c r="G441">
+        <v>0.2932043780332606</v>
+      </c>
+      <c r="H441">
+        <v>2.25</v>
+      </c>
+      <c r="I441">
+        <v>2.4</v>
+      </c>
+      <c r="J441">
+        <v>3.15</v>
+      </c>
+      <c r="K441" t="s">
+        <v>53</v>
+      </c>
+      <c r="L441" t="s">
+        <v>53</v>
+      </c>
+      <c r="M441" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q441">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R441">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S441">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T441">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U441">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V441">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL441">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM441">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN441">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO441" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP441" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ441" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>466</v>
+      </c>
+      <c r="B442" t="s">
+        <v>279</v>
+      </c>
+      <c r="C442" t="s">
+        <v>327</v>
+      </c>
+      <c r="D442" t="s">
+        <v>192</v>
+      </c>
+      <c r="E442">
+        <v>0.1200921240438793</v>
+      </c>
+      <c r="F442">
+        <v>0.72742946164156641</v>
+      </c>
+      <c r="G442">
+        <v>0.15247841431455431</v>
+      </c>
+      <c r="H442">
+        <v>6</v>
+      </c>
+      <c r="I442">
+        <v>1.39</v>
+      </c>
+      <c r="J442">
+        <v>4.8</v>
+      </c>
+      <c r="K442" t="s">
+        <v>48</v>
+      </c>
+      <c r="L442" t="s">
+        <v>48</v>
+      </c>
+      <c r="M442" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q442">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R442">
+        <f t="shared" si="73"/>
+        <v>5.0642057328212919E-3</v>
+      </c>
+      <c r="S442">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T442">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U442">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V442">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL442">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM442">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN442">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO442" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP442" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ442" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>466</v>
+      </c>
+      <c r="B443" t="s">
+        <v>191</v>
+      </c>
+      <c r="C443" t="s">
+        <v>195</v>
+      </c>
+      <c r="D443" t="s">
+        <v>192</v>
+      </c>
+      <c r="E443">
+        <v>0.27024197668570887</v>
+      </c>
+      <c r="F443">
+        <v>0.4600634073115531</v>
+      </c>
+      <c r="G443">
+        <v>0.26969461600273797</v>
+      </c>
+      <c r="H443">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I443">
+        <v>2.5</v>
+      </c>
+      <c r="J443">
+        <v>3.55</v>
+      </c>
+      <c r="K443" t="s">
+        <v>48</v>
+      </c>
+      <c r="L443" t="s">
+        <v>48</v>
+      </c>
+      <c r="M443" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q443">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R443">
+        <f t="shared" si="73"/>
+        <v>3.1299292273654633E-2</v>
+      </c>
+      <c r="S443">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T443">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U443">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V443">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL443">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM443">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN443">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO443" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP443" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ443" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>466</v>
+      </c>
+      <c r="B444" t="s">
+        <v>175</v>
+      </c>
+      <c r="C444" t="s">
+        <v>422</v>
+      </c>
+      <c r="D444" t="s">
+        <v>163</v>
+      </c>
+      <c r="E444">
+        <v>0.32911993469612189</v>
+      </c>
+      <c r="F444">
+        <v>0.37747092144928629</v>
+      </c>
+      <c r="G444">
+        <v>0.29340914385459171</v>
+      </c>
+      <c r="H444">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I444">
+        <v>2.7</v>
+      </c>
+      <c r="J444">
+        <v>3.05</v>
+      </c>
+      <c r="K444" t="s">
+        <v>48</v>
+      </c>
+      <c r="L444" t="s">
+        <v>48</v>
+      </c>
+      <c r="M444" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q444">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R444">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S444">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T444">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U444">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V444">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL444">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM444">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN444">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO444" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP444" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ444" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>466</v>
+      </c>
+      <c r="B445" t="s">
+        <v>390</v>
+      </c>
+      <c r="C445" t="s">
+        <v>70</v>
+      </c>
+      <c r="D445" t="s">
+        <v>69</v>
+      </c>
+      <c r="E445">
+        <v>0.44068169373512978</v>
+      </c>
+      <c r="F445">
+        <v>0.2528612743738356</v>
+      </c>
+      <c r="G445">
+        <v>0.30645703189103468</v>
+      </c>
+      <c r="H445">
+        <v>1.91</v>
+      </c>
+      <c r="I445">
+        <v>3.9</v>
+      </c>
+      <c r="J445">
+        <v>3.15</v>
+      </c>
+      <c r="K445" t="s">
+        <v>53</v>
+      </c>
+      <c r="L445" t="s">
+        <v>53</v>
+      </c>
+      <c r="M445" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q445">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R445">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S445">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T445">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U445">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V445">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL445">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM445">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN445">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO445" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP445" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ445" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>466</v>
+      </c>
+      <c r="B446" t="s">
+        <v>171</v>
+      </c>
+      <c r="C446" t="s">
+        <v>424</v>
+      </c>
+      <c r="D446" t="s">
+        <v>163</v>
+      </c>
+      <c r="E446">
+        <v>0.6521163785919698</v>
+      </c>
+      <c r="F446">
+        <v>0.13426438791415701</v>
+      </c>
+      <c r="G446">
+        <v>0.21361923349387321</v>
+      </c>
+      <c r="H446">
+        <v>1.38</v>
+      </c>
+      <c r="I446">
+        <v>7</v>
+      </c>
+      <c r="J446">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K446" t="s">
+        <v>53</v>
+      </c>
+      <c r="L446" t="s">
+        <v>48</v>
+      </c>
+      <c r="M446" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q446">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R446">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S446">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T446">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U446">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V446">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL446">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM446">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN446">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO446" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP446" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ446" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>466</v>
+      </c>
+      <c r="B447" t="s">
+        <v>448</v>
+      </c>
+      <c r="C447" t="s">
+        <v>149</v>
+      </c>
+      <c r="D447" t="s">
+        <v>59</v>
+      </c>
+      <c r="E447">
+        <v>0.2368110614259249</v>
+      </c>
+      <c r="F447">
+        <v>0.51412343707392316</v>
+      </c>
+      <c r="G447">
+        <v>0.24906550150015211</v>
+      </c>
+      <c r="H447">
+        <v>3.65</v>
+      </c>
+      <c r="I447">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J447">
+        <v>3.25</v>
+      </c>
+      <c r="K447" t="s">
+        <v>48</v>
+      </c>
+      <c r="L447" t="s">
+        <v>48</v>
+      </c>
+      <c r="M447" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q447">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R447">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S447">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T447">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U447">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V447">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL447">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM447">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN447">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO447" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP447" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ447" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>466</v>
+      </c>
+      <c r="B448" t="s">
+        <v>194</v>
+      </c>
+      <c r="C448" t="s">
+        <v>281</v>
+      </c>
+      <c r="D448" t="s">
+        <v>192</v>
+      </c>
+      <c r="E448">
+        <v>0.7664417928643158</v>
+      </c>
+      <c r="F448">
+        <v>8.2074227734121499E-2</v>
+      </c>
+      <c r="G448">
+        <v>0.15148397940156269</v>
+      </c>
+      <c r="H448">
+        <v>1.19</v>
+      </c>
+      <c r="I448">
+        <v>10</v>
+      </c>
+      <c r="J448">
+        <v>6.75</v>
+      </c>
+      <c r="K448" t="s">
+        <v>48</v>
+      </c>
+      <c r="L448" t="s">
+        <v>48</v>
+      </c>
+      <c r="M448" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q448">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R448">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S448">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T448">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U448">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V448">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL448">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM448">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN448">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO448" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP448" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ448" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>466</v>
+      </c>
+      <c r="B449" t="s">
+        <v>436</v>
+      </c>
+      <c r="C449" t="s">
+        <v>318</v>
+      </c>
+      <c r="D449" t="s">
+        <v>236</v>
+      </c>
+      <c r="E449">
+        <v>0.40757732649165068</v>
+      </c>
+      <c r="F449">
+        <v>0.29544016237726339</v>
+      </c>
+      <c r="G449">
+        <v>0.29698251113108581</v>
+      </c>
+      <c r="H449">
+        <v>1.95</v>
+      </c>
+      <c r="I449">
+        <v>2.87</v>
+      </c>
+      <c r="J449">
+        <v>3.15</v>
+      </c>
+      <c r="K449" t="s">
+        <v>53</v>
+      </c>
+      <c r="L449" t="s">
+        <v>53</v>
+      </c>
+      <c r="M449" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q449">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R449">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S449">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T449">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U449">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V449">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL449">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM449">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN449">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO449" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP449" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ449" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>466</v>
+      </c>
+      <c r="B450" t="s">
+        <v>174</v>
+      </c>
+      <c r="C450" t="s">
+        <v>173</v>
+      </c>
+      <c r="D450" t="s">
+        <v>163</v>
+      </c>
+      <c r="E450">
+        <v>0.17620878161965639</v>
+      </c>
+      <c r="F450">
+        <v>0.63047076171421046</v>
+      </c>
+      <c r="G450">
+        <v>0.19332045666613309</v>
+      </c>
+      <c r="H450">
+        <v>6</v>
+      </c>
+      <c r="I450">
+        <v>1.43</v>
+      </c>
+      <c r="J450">
+        <v>4.25</v>
+      </c>
+      <c r="K450" t="s">
+        <v>48</v>
+      </c>
+      <c r="L450" t="s">
+        <v>48</v>
+      </c>
+      <c r="M450" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q450">
+        <f t="shared" ref="Q450:Q513" si="84">IF((($AC$1*E450)^($AB$1))-(1-(($AC$1*E450)^($AB$1)))/(H450-1)&lt;0, 0,(($AC$1*E450)^($AB$1))-(1-(($AC$1*E450)^($AB$1)))/(H450-1))</f>
+        <v>0</v>
+      </c>
+      <c r="R450">
+        <f t="shared" ref="R450:R513" si="85">IF((($AC$1*F450)^($AB$1))-(1-(($AC$1*F450)^($AB$1)))/(I450-1)&lt;0, 0,(($AC$1*F450)^($AB$1))-(1-(($AC$1*F450)^($AB$1)))/(I450-1))</f>
+        <v>0</v>
+      </c>
+      <c r="S450">
+        <f t="shared" ref="S450:S513" si="86">IF((($AC$1*G450)^($AB$1))-(1-(($AC$1*G450)^($AB$1)))/(J450-1)&lt;0, 0,(($AC$1*G450)^($AB$1))-(1-(($AC$1*G450)^($AB$1)))/(J450-1))</f>
+        <v>0</v>
+      </c>
+      <c r="T450">
+        <f t="shared" ref="T450:T465" si="87">H450*Q450*N450</f>
+        <v>0</v>
+      </c>
+      <c r="U450">
+        <f t="shared" ref="U450:U465" si="88">I450*R450*O450</f>
+        <v>0</v>
+      </c>
+      <c r="V450">
+        <f t="shared" ref="V450:V465" si="89">J450*S450*P450</f>
+        <v>0</v>
+      </c>
+      <c r="AL450">
+        <f t="shared" ref="AL450:AL465" si="90">Q450*COUNT(N450)</f>
+        <v>0</v>
+      </c>
+      <c r="AM450">
+        <f t="shared" ref="AM450:AM465" si="91">R450*COUNT(O450)</f>
+        <v>0</v>
+      </c>
+      <c r="AN450">
+        <f t="shared" ref="AN450:AN465" si="92">S450*COUNT(P450)</f>
+        <v>0</v>
+      </c>
+      <c r="AO450" t="str">
+        <f t="shared" ref="AO450:AO465" si="93">IF(AL450=0,"",T450-AL450)</f>
+        <v/>
+      </c>
+      <c r="AP450" t="str">
+        <f t="shared" ref="AP450:AP465" si="94">IF(AM450=0,"",U450-AM450)</f>
+        <v/>
+      </c>
+      <c r="AQ450" t="str">
+        <f t="shared" ref="AQ450:AQ465" si="95">IF(AN450=0,"",V450-AN450)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>466</v>
+      </c>
+      <c r="B451" t="s">
+        <v>303</v>
+      </c>
+      <c r="C451" t="s">
+        <v>160</v>
+      </c>
+      <c r="D451" t="s">
+        <v>69</v>
+      </c>
+      <c r="E451">
+        <v>0.66028408925084658</v>
+      </c>
+      <c r="F451">
+        <v>0.1212557887375449</v>
+      </c>
+      <c r="G451">
+        <v>0.21846012201160861</v>
+      </c>
+      <c r="H451">
+        <v>1.47</v>
+      </c>
+      <c r="I451">
+        <v>6.2</v>
+      </c>
+      <c r="J451">
+        <v>3.9</v>
+      </c>
+      <c r="K451" t="s">
+        <v>53</v>
+      </c>
+      <c r="L451" t="s">
+        <v>53</v>
+      </c>
+      <c r="M451" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q451">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R451">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S451">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T451">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U451">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V451">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL451">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM451">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN451">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO451" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP451" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ451" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>466</v>
+      </c>
+      <c r="B452" t="s">
+        <v>371</v>
+      </c>
+      <c r="C452" t="s">
+        <v>398</v>
+      </c>
+      <c r="D452" t="s">
+        <v>350</v>
+      </c>
+      <c r="E452">
+        <v>0.69291207155714507</v>
+      </c>
+      <c r="F452">
+        <v>0.1043527785715241</v>
+      </c>
+      <c r="G452">
+        <v>0.20273514987133101</v>
+      </c>
+      <c r="H452">
+        <v>1.37</v>
+      </c>
+      <c r="I452">
+        <v>8.5</v>
+      </c>
+      <c r="J452">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K452" t="s">
+        <v>53</v>
+      </c>
+      <c r="L452" t="s">
+        <v>53</v>
+      </c>
+      <c r="M452" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q452">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R452">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S452">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T452">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U452">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V452">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL452">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM452">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN452">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO452" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP452" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ452" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>466</v>
+      </c>
+      <c r="B453" t="s">
+        <v>364</v>
+      </c>
+      <c r="C453" t="s">
+        <v>353</v>
+      </c>
+      <c r="D453" t="s">
+        <v>350</v>
+      </c>
+      <c r="E453">
+        <v>0.42010138451005752</v>
+      </c>
+      <c r="F453">
+        <v>0.26400309425316548</v>
+      </c>
+      <c r="G453">
+        <v>0.31589552123677689</v>
+      </c>
+      <c r="H453">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I453">
+        <v>3.5</v>
+      </c>
+      <c r="J453">
+        <v>2.95</v>
+      </c>
+      <c r="K453" t="s">
+        <v>48</v>
+      </c>
+      <c r="L453" t="s">
+        <v>53</v>
+      </c>
+      <c r="M453" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q453">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R453">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S453">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T453">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U453">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V453">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL453">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM453">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN453">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO453" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP453" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ453" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>467</v>
+      </c>
+      <c r="B454" t="s">
+        <v>198</v>
+      </c>
+      <c r="C454" t="s">
+        <v>255</v>
+      </c>
+      <c r="D454" t="s">
+        <v>41</v>
+      </c>
+      <c r="E454">
+        <v>0.38292481366740733</v>
+      </c>
+      <c r="F454">
+        <v>0.30392805304339998</v>
+      </c>
+      <c r="G454">
+        <v>0.31314713328919269</v>
+      </c>
+      <c r="H454">
+        <v>2.25</v>
+      </c>
+      <c r="I454">
+        <v>3.1</v>
+      </c>
+      <c r="J454">
+        <v>3.15</v>
+      </c>
+      <c r="K454" t="s">
+        <v>48</v>
+      </c>
+      <c r="L454" t="s">
+        <v>48</v>
+      </c>
+      <c r="M454" t="s">
+        <v>48</v>
+      </c>
+      <c r="N454">
+        <v>0</v>
+      </c>
+      <c r="O454">
+        <v>1</v>
+      </c>
+      <c r="P454">
+        <v>0</v>
+      </c>
+      <c r="Q454">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R454">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S454">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T454">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U454">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V454">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL454">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM454">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN454">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO454" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP454" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ454" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>467</v>
+      </c>
+      <c r="B455" t="s">
+        <v>384</v>
+      </c>
+      <c r="C455" t="s">
+        <v>50</v>
+      </c>
+      <c r="D455" t="s">
+        <v>47</v>
+      </c>
+      <c r="E455">
+        <v>0.42090559623823948</v>
+      </c>
+      <c r="F455">
+        <v>0.27272027969036938</v>
+      </c>
+      <c r="G455">
+        <v>0.30637412407139109</v>
+      </c>
+      <c r="H455">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I455">
+        <v>3</v>
+      </c>
+      <c r="J455">
+        <v>3.5</v>
+      </c>
+      <c r="K455" t="s">
+        <v>48</v>
+      </c>
+      <c r="L455" t="s">
+        <v>48</v>
+      </c>
+      <c r="M455" t="s">
+        <v>53</v>
+      </c>
+      <c r="N455">
+        <v>0</v>
+      </c>
+      <c r="O455">
+        <v>0</v>
+      </c>
+      <c r="P455">
+        <v>1</v>
+      </c>
+      <c r="Q455">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R455">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S455">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T455">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U455">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V455">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL455">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM455">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN455">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO455" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP455" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ455" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>467</v>
+      </c>
+      <c r="B456" t="s">
+        <v>51</v>
+      </c>
+      <c r="C456" t="s">
+        <v>456</v>
+      </c>
+      <c r="D456" t="s">
+        <v>47</v>
+      </c>
+      <c r="E456">
+        <v>0.53781827541818383</v>
+      </c>
+      <c r="F456">
+        <v>0.19607383433731379</v>
+      </c>
+      <c r="G456">
+        <v>0.26610789024450238</v>
+      </c>
+      <c r="H456">
+        <v>1.6</v>
+      </c>
+      <c r="I456">
+        <v>5.5</v>
+      </c>
+      <c r="J456">
+        <v>3.9</v>
+      </c>
+      <c r="K456" t="s">
+        <v>53</v>
+      </c>
+      <c r="L456" t="s">
+        <v>48</v>
+      </c>
+      <c r="M456" t="s">
+        <v>48</v>
+      </c>
+      <c r="N456">
+        <v>1</v>
+      </c>
+      <c r="O456">
+        <v>0</v>
+      </c>
+      <c r="P456">
+        <v>0</v>
+      </c>
+      <c r="Q456">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R456">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S456">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T456">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U456">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V456">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL456">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM456">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN456">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO456" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP456" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ456" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>467</v>
+      </c>
+      <c r="B457" t="s">
+        <v>252</v>
+      </c>
+      <c r="C457" t="s">
+        <v>286</v>
+      </c>
+      <c r="D457" t="s">
+        <v>186</v>
+      </c>
+      <c r="E457">
+        <v>0.42329234064808169</v>
+      </c>
+      <c r="F457">
+        <v>0.2849676322229438</v>
+      </c>
+      <c r="G457">
+        <v>0.2917400271289744</v>
+      </c>
+      <c r="H457">
+        <v>2.15</v>
+      </c>
+      <c r="I457">
+        <v>3.05</v>
+      </c>
+      <c r="J457">
+        <v>3.45</v>
+      </c>
+      <c r="K457" t="s">
+        <v>48</v>
+      </c>
+      <c r="L457" t="s">
+        <v>48</v>
+      </c>
+      <c r="M457" t="s">
+        <v>48</v>
+      </c>
+      <c r="N457">
+        <v>1</v>
+      </c>
+      <c r="O457">
+        <v>0</v>
+      </c>
+      <c r="P457">
+        <v>0</v>
+      </c>
+      <c r="Q457">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R457">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S457">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T457">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U457">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V457">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL457">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM457">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN457">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO457" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP457" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ457" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>467</v>
+      </c>
+      <c r="B458" t="s">
+        <v>207</v>
+      </c>
+      <c r="C458" t="s">
+        <v>91</v>
+      </c>
+      <c r="D458" t="s">
+        <v>92</v>
+      </c>
+      <c r="E458">
+        <v>0.73213986693870237</v>
+      </c>
+      <c r="F458">
+        <v>9.1390034743684706E-2</v>
+      </c>
+      <c r="G458">
+        <v>0.17647009831761301</v>
+      </c>
+      <c r="H458">
+        <v>1.26</v>
+      </c>
+      <c r="I458">
+        <v>11.5</v>
+      </c>
+      <c r="J458">
+        <v>6</v>
+      </c>
+      <c r="K458" t="s">
+        <v>53</v>
+      </c>
+      <c r="L458" t="s">
+        <v>53</v>
+      </c>
+      <c r="M458" t="s">
+        <v>48</v>
+      </c>
+      <c r="N458">
+        <v>1</v>
+      </c>
+      <c r="O458">
+        <v>0</v>
+      </c>
+      <c r="P458">
+        <v>0</v>
+      </c>
+      <c r="Q458">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R458">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S458">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T458">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U458">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V458">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL458">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM458">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN458">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO458" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP458" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ458" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>467</v>
+      </c>
+      <c r="B459" t="s">
+        <v>151</v>
+      </c>
+      <c r="C459" t="s">
+        <v>102</v>
+      </c>
+      <c r="D459" t="s">
+        <v>59</v>
+      </c>
+      <c r="E459">
+        <v>0.46840426514566319</v>
+      </c>
+      <c r="F459">
+        <v>0.24539365138217001</v>
+      </c>
+      <c r="G459">
+        <v>0.28620208347216669</v>
+      </c>
+      <c r="H459">
+        <v>1.9</v>
+      </c>
+      <c r="I459">
+        <v>3.9</v>
+      </c>
+      <c r="J459">
+        <v>3.4</v>
+      </c>
+      <c r="K459" t="s">
+        <v>48</v>
+      </c>
+      <c r="L459" t="s">
+        <v>48</v>
+      </c>
+      <c r="M459" t="s">
+        <v>53</v>
+      </c>
+      <c r="N459">
+        <v>0</v>
+      </c>
+      <c r="O459">
+        <v>1</v>
+      </c>
+      <c r="P459">
+        <v>0</v>
+      </c>
+      <c r="Q459">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R459">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S459">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T459">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U459">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V459">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL459">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM459">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN459">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO459" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP459" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ459" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>467</v>
+      </c>
+      <c r="B460" t="s">
+        <v>211</v>
+      </c>
+      <c r="C460" t="s">
+        <v>241</v>
+      </c>
+      <c r="D460" t="s">
+        <v>179</v>
+      </c>
+      <c r="E460">
+        <v>0.3299977303680508</v>
+      </c>
+      <c r="F460">
+        <v>0.39255734298037132</v>
+      </c>
+      <c r="G460">
+        <v>0.27744492665157788</v>
+      </c>
+      <c r="H460">
+        <v>2.7</v>
+      </c>
+      <c r="I460">
+        <v>2.4</v>
+      </c>
+      <c r="J460">
+        <v>3.4</v>
+      </c>
+      <c r="K460" t="s">
+        <v>48</v>
+      </c>
+      <c r="L460" t="s">
+        <v>48</v>
+      </c>
+      <c r="M460" t="s">
+        <v>48</v>
+      </c>
+      <c r="N460">
+        <v>1</v>
+      </c>
+      <c r="O460">
+        <v>0</v>
+      </c>
+      <c r="P460">
+        <v>0</v>
+      </c>
+      <c r="Q460">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R460">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S460">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T460">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U460">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V460">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL460">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM460">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN460">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO460" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP460" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ460" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>467</v>
+      </c>
+      <c r="B461" t="s">
+        <v>82</v>
+      </c>
+      <c r="C461" t="s">
+        <v>240</v>
+      </c>
+      <c r="D461" t="s">
+        <v>84</v>
+      </c>
+      <c r="E461">
+        <v>0.50723488235421177</v>
+      </c>
+      <c r="F461">
+        <v>0.22552545149925379</v>
+      </c>
+      <c r="G461">
+        <v>0.26723966614653438</v>
+      </c>
+      <c r="H461">
+        <v>1.82</v>
+      </c>
+      <c r="I461">
+        <v>4.45</v>
+      </c>
+      <c r="J461">
+        <v>3.5</v>
+      </c>
+      <c r="K461" t="s">
+        <v>53</v>
+      </c>
+      <c r="L461" t="s">
+        <v>48</v>
+      </c>
+      <c r="M461" t="s">
+        <v>48</v>
+      </c>
+      <c r="N461">
+        <v>0</v>
+      </c>
+      <c r="O461">
+        <v>0</v>
+      </c>
+      <c r="P461">
+        <v>1</v>
+      </c>
+      <c r="Q461">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R461">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S461">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T461">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U461">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V461">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL461">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM461">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN461">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO461" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP461" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ461" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>467</v>
+      </c>
+      <c r="B462" t="s">
+        <v>392</v>
+      </c>
+      <c r="C462" t="s">
+        <v>458</v>
+      </c>
+      <c r="D462" t="s">
+        <v>168</v>
+      </c>
+      <c r="E462">
+        <v>0.34921671909069169</v>
+      </c>
+      <c r="F462">
+        <v>0.34170197118342571</v>
+      </c>
+      <c r="G462">
+        <v>0.30908130972588271</v>
+      </c>
+      <c r="H462">
+        <v>2.9</v>
+      </c>
+      <c r="I462">
+        <v>2.65</v>
+      </c>
+      <c r="J462">
+        <v>2.9</v>
+      </c>
+      <c r="K462" t="s">
+        <v>48</v>
+      </c>
+      <c r="L462" t="s">
+        <v>48</v>
+      </c>
+      <c r="M462" t="s">
+        <v>53</v>
+      </c>
+      <c r="N462">
+        <v>0</v>
+      </c>
+      <c r="O462">
+        <v>0</v>
+      </c>
+      <c r="P462">
+        <v>1</v>
+      </c>
+      <c r="Q462">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R462">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S462">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T462">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U462">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V462">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL462">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM462">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN462">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO462" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP462" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ462" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>467</v>
+      </c>
+      <c r="B463" t="s">
+        <v>344</v>
+      </c>
+      <c r="C463" t="s">
+        <v>206</v>
+      </c>
+      <c r="D463" t="s">
+        <v>66</v>
+      </c>
+      <c r="E463">
+        <v>0.63112204368125335</v>
+      </c>
+      <c r="F463">
+        <v>0.13869792233586581</v>
+      </c>
+      <c r="G463">
+        <v>0.23018003398288089</v>
+      </c>
+      <c r="H463">
+        <v>1.5</v>
+      </c>
+      <c r="I463">
+        <v>7.75</v>
+      </c>
+      <c r="J463">
+        <v>4.05</v>
+      </c>
+      <c r="K463" t="s">
+        <v>53</v>
+      </c>
+      <c r="L463" t="s">
+        <v>48</v>
+      </c>
+      <c r="M463" t="s">
+        <v>48</v>
+      </c>
+      <c r="N463">
+        <v>1</v>
+      </c>
+      <c r="O463">
+        <v>0</v>
+      </c>
+      <c r="P463">
+        <v>0</v>
+      </c>
+      <c r="Q463">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R463">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S463">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T463">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U463">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V463">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL463">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM463">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN463">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO463" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP463" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ463" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>467</v>
+      </c>
+      <c r="B464" t="s">
+        <v>314</v>
+      </c>
+      <c r="C464" t="s">
+        <v>159</v>
+      </c>
+      <c r="D464" t="s">
+        <v>69</v>
+      </c>
+      <c r="E464">
+        <v>0.57852021032096679</v>
+      </c>
+      <c r="F464">
+        <v>0.1690309121359122</v>
+      </c>
+      <c r="G464">
+        <v>0.25244887754312101</v>
+      </c>
+      <c r="H464">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I464">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J464">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="N464">
+        <v>0</v>
+      </c>
+      <c r="O464">
+        <v>1</v>
+      </c>
+      <c r="P464">
+        <v>0</v>
+      </c>
+      <c r="Q464">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R464">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S464">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T464">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U464">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V464">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL464">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM464">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN464">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO464" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP464" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ464" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>467</v>
+      </c>
+      <c r="B465" t="s">
+        <v>183</v>
+      </c>
+      <c r="C465" t="s">
+        <v>379</v>
+      </c>
+      <c r="D465" t="s">
+        <v>28</v>
+      </c>
+      <c r="E465">
+        <v>0.34179949959895928</v>
+      </c>
+      <c r="F465">
+        <v>0.35290969494451241</v>
+      </c>
+      <c r="G465">
+        <v>0.30529080545652831</v>
+      </c>
+      <c r="H465">
+        <v>2.5</v>
+      </c>
+      <c r="I465">
+        <v>3.15</v>
+      </c>
+      <c r="J465">
+        <v>3</v>
+      </c>
+      <c r="K465" t="s">
+        <v>48</v>
+      </c>
+      <c r="L465" t="s">
+        <v>48</v>
+      </c>
+      <c r="M465" t="s">
+        <v>53</v>
+      </c>
+      <c r="N465">
+        <v>0</v>
+      </c>
+      <c r="O465">
+        <v>0</v>
+      </c>
+      <c r="P465">
+        <v>1</v>
+      </c>
+      <c r="Q465">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R465">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S465">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T465">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U465">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V465">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL465">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM465">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN465">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO465" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP465" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ465" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>468</v>
+      </c>
+      <c r="B466" t="s">
+        <v>40</v>
+      </c>
+      <c r="C466" t="s">
+        <v>256</v>
+      </c>
+      <c r="D466" t="s">
+        <v>41</v>
+      </c>
+      <c r="E466">
+        <v>0.38066260383598</v>
+      </c>
+      <c r="F466">
+        <v>0.30468409970562571</v>
+      </c>
+      <c r="G466">
+        <v>0.31465329645839429</v>
+      </c>
+      <c r="H466">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I466">
+        <v>3</v>
+      </c>
+      <c r="J466">
+        <v>3.15</v>
+      </c>
+      <c r="K466" t="s">
+        <v>53</v>
+      </c>
+      <c r="L466" t="s">
+        <v>48</v>
+      </c>
+      <c r="M466" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q466">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R466">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S466">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>468</v>
+      </c>
+      <c r="B467" t="s">
+        <v>185</v>
+      </c>
+      <c r="C467" t="s">
+        <v>214</v>
+      </c>
+      <c r="D467" t="s">
+        <v>186</v>
+      </c>
+      <c r="E467">
+        <v>0.46014994681397142</v>
+      </c>
+      <c r="F467">
+        <v>0.25612650020816918</v>
+      </c>
+      <c r="G467">
+        <v>0.28372355297785951</v>
+      </c>
+      <c r="H467">
+        <v>2.1</v>
+      </c>
+      <c r="I467">
+        <v>3.35</v>
+      </c>
+      <c r="J467">
+        <v>3.25</v>
+      </c>
+      <c r="K467" t="s">
+        <v>48</v>
+      </c>
+      <c r="L467" t="s">
+        <v>48</v>
+      </c>
+      <c r="M467" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q467">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R467">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S467">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468" t="s">
+        <v>45</v>
+      </c>
+      <c r="C468" t="s">
+        <v>463</v>
+      </c>
+      <c r="D468" t="s">
+        <v>47</v>
+      </c>
+      <c r="E468">
+        <v>0.33657424821791437</v>
+      </c>
+      <c r="F468">
+        <v>0.35807880819010052</v>
+      </c>
+      <c r="G468">
+        <v>0.30534694359198522</v>
+      </c>
+      <c r="H468">
+        <v>2.9</v>
+      </c>
+      <c r="I468">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J468">
+        <v>3.3</v>
+      </c>
+      <c r="K468" t="s">
+        <v>48</v>
+      </c>
+      <c r="L468" t="s">
+        <v>48</v>
+      </c>
+      <c r="M468" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q468">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R468">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S468">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+      <c r="B469" t="s">
+        <v>265</v>
+      </c>
+      <c r="C469" t="s">
+        <v>268</v>
+      </c>
+      <c r="D469" t="s">
+        <v>47</v>
+      </c>
+      <c r="E469">
+        <v>0.30669042735762481</v>
+      </c>
+      <c r="F469">
+        <v>0.39997213474983201</v>
+      </c>
+      <c r="G469">
+        <v>0.29333743789254307</v>
+      </c>
+      <c r="H469">
+        <v>3.05</v>
+      </c>
+      <c r="I469">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J469">
+        <v>3.3</v>
+      </c>
+      <c r="K469" t="s">
+        <v>48</v>
+      </c>
+      <c r="L469" t="s">
+        <v>48</v>
+      </c>
+      <c r="M469" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q469">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R469">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S469">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>269</v>
+      </c>
+      <c r="C470" t="s">
+        <v>440</v>
+      </c>
+      <c r="D470" t="s">
+        <v>47</v>
+      </c>
+      <c r="E470">
+        <v>0.45579483989671049</v>
+      </c>
+      <c r="F470">
+        <v>0.25924690107540788</v>
+      </c>
+      <c r="G470">
+        <v>0.28495825902788152</v>
+      </c>
+      <c r="H470">
+        <v>1.8</v>
+      </c>
+      <c r="I470">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J470">
+        <v>3.5</v>
+      </c>
+      <c r="K470" t="s">
+        <v>48</v>
+      </c>
+      <c r="L470" t="s">
+        <v>48</v>
+      </c>
+      <c r="M470" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q470">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R470">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S470">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>468</v>
+      </c>
+      <c r="B471" t="s">
+        <v>49</v>
+      </c>
+      <c r="C471" t="s">
+        <v>455</v>
+      </c>
+      <c r="D471" t="s">
+        <v>47</v>
+      </c>
+      <c r="E471">
+        <v>0.44930824173524803</v>
+      </c>
+      <c r="F471">
+        <v>0.25673798422880378</v>
+      </c>
+      <c r="G471">
+        <v>0.29395377403594819</v>
+      </c>
+      <c r="H471">
+        <v>1.9</v>
+      </c>
+      <c r="I471">
+        <v>3.65</v>
+      </c>
+      <c r="J471">
+        <v>3.6</v>
+      </c>
+      <c r="K471" t="s">
+        <v>53</v>
+      </c>
+      <c r="L471" t="s">
+        <v>48</v>
+      </c>
+      <c r="M471" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q471">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R471">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S471">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>468</v>
+      </c>
+      <c r="B472" t="s">
+        <v>164</v>
+      </c>
+      <c r="C472" t="s">
+        <v>409</v>
+      </c>
+      <c r="D472" t="s">
+        <v>59</v>
+      </c>
+      <c r="E472">
+        <v>0.28994189381366142</v>
+      </c>
+      <c r="F472">
+        <v>0.42542978727174402</v>
+      </c>
+      <c r="G472">
+        <v>0.2846283189145945</v>
+      </c>
+      <c r="H472">
+        <v>3.3</v>
+      </c>
+      <c r="I472">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J472">
+        <v>3.15</v>
+      </c>
+      <c r="K472" t="s">
+        <v>48</v>
+      </c>
+      <c r="L472" t="s">
+        <v>48</v>
+      </c>
+      <c r="M472" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q472">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R472">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S472">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>468</v>
+      </c>
+      <c r="B473" t="s">
+        <v>299</v>
+      </c>
+      <c r="C473" t="s">
+        <v>334</v>
+      </c>
+      <c r="D473" t="s">
+        <v>56</v>
+      </c>
+      <c r="E473">
+        <v>0.27004807990375801</v>
+      </c>
+      <c r="F473">
+        <v>0.4965274100541327</v>
+      </c>
+      <c r="G473">
+        <v>0.2334245100421094</v>
+      </c>
+      <c r="H473">
+        <v>3.65</v>
+      </c>
+      <c r="I473">
+        <v>1.98</v>
+      </c>
+      <c r="J473">
+        <v>3.8</v>
+      </c>
+      <c r="K473" t="s">
+        <v>48</v>
+      </c>
+      <c r="L473" t="s">
+        <v>53</v>
+      </c>
+      <c r="M473" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q473">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R473">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S473">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>468</v>
+      </c>
+      <c r="B474" t="s">
+        <v>332</v>
+      </c>
+      <c r="C474" t="s">
+        <v>418</v>
+      </c>
+      <c r="D474" t="s">
+        <v>41</v>
+      </c>
+      <c r="E474">
+        <v>0.55836523318939024</v>
+      </c>
+      <c r="F474">
+        <v>0.18405115792729951</v>
+      </c>
+      <c r="G474">
+        <v>0.25758360888331022</v>
+      </c>
+      <c r="H474">
+        <v>1.55</v>
+      </c>
+      <c r="I474">
+        <v>5.75</v>
+      </c>
+      <c r="J474">
+        <v>4.05</v>
+      </c>
+      <c r="K474" t="s">
+        <v>53</v>
+      </c>
+      <c r="L474" t="s">
+        <v>48</v>
+      </c>
+      <c r="M474" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q474">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R474">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S474">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>468</v>
+      </c>
+      <c r="B475" t="s">
+        <v>80</v>
+      </c>
+      <c r="C475" t="s">
+        <v>369</v>
+      </c>
+      <c r="D475" t="s">
+        <v>69</v>
+      </c>
+      <c r="E475">
+        <v>0.35488238794344462</v>
+      </c>
+      <c r="F475">
+        <v>0.33637614770041552</v>
+      </c>
+      <c r="G475">
+        <v>0.30874146435613992</v>
+      </c>
+      <c r="H475">
+        <v>2.62</v>
+      </c>
+      <c r="I475">
+        <v>2.77</v>
+      </c>
+      <c r="J475">
+        <v>2.8</v>
+      </c>
+      <c r="K475" t="s">
+        <v>53</v>
+      </c>
+      <c r="L475" t="s">
+        <v>53</v>
+      </c>
+      <c r="M475" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q475">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R475">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S475">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>468</v>
+      </c>
+      <c r="B476" t="s">
+        <v>304</v>
+      </c>
+      <c r="C476" t="s">
+        <v>465</v>
+      </c>
+      <c r="D476" t="s">
+        <v>69</v>
+      </c>
+      <c r="E476">
+        <v>0.30303003874637741</v>
+      </c>
+      <c r="F476">
+        <v>0.40024782612836279</v>
+      </c>
+      <c r="G476">
+        <v>0.29672213512525969</v>
+      </c>
+      <c r="H476">
+        <v>3.15</v>
+      </c>
+      <c r="I476">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J476">
+        <v>3.05</v>
+      </c>
+      <c r="K476" t="s">
+        <v>53</v>
+      </c>
+      <c r="L476" t="s">
+        <v>53</v>
+      </c>
+      <c r="M476" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q476">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R476">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S476">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>468</v>
+      </c>
+      <c r="B477" t="s">
+        <v>370</v>
+      </c>
+      <c r="C477" t="s">
+        <v>81</v>
+      </c>
+      <c r="D477" t="s">
+        <v>69</v>
+      </c>
+      <c r="E477">
+        <v>0.41442561090593799</v>
+      </c>
+      <c r="F477">
+        <v>0.27686123765961079</v>
+      </c>
+      <c r="G477">
+        <v>0.30871315143445122</v>
+      </c>
+      <c r="H477">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I477">
+        <v>3.3</v>
+      </c>
+      <c r="J477">
+        <v>3.15</v>
+      </c>
+      <c r="K477" t="s">
+        <v>53</v>
+      </c>
+      <c r="L477" t="s">
+        <v>53</v>
+      </c>
+      <c r="M477" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q477">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R477">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S477">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>468</v>
+      </c>
+      <c r="B478" t="s">
+        <v>343</v>
+      </c>
+      <c r="C478" t="s">
+        <v>322</v>
+      </c>
+      <c r="D478" t="s">
+        <v>66</v>
+      </c>
+      <c r="E478">
+        <v>0.1865083418018546</v>
+      </c>
+      <c r="F478">
+        <v>0.59794401664868013</v>
+      </c>
+      <c r="G478">
+        <v>0.21554764154946521</v>
+      </c>
+      <c r="H478">
+        <v>6</v>
+      </c>
+      <c r="I478">
+        <v>1.7</v>
+      </c>
+      <c r="J478">
+        <v>3.55</v>
+      </c>
+      <c r="K478" t="s">
+        <v>48</v>
+      </c>
+      <c r="L478" t="s">
+        <v>53</v>
+      </c>
+      <c r="M478" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q478">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R478">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S478">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>468</v>
+      </c>
+      <c r="B479" t="s">
+        <v>324</v>
+      </c>
+      <c r="C479" t="s">
+        <v>232</v>
+      </c>
+      <c r="D479" t="s">
+        <v>186</v>
+      </c>
+      <c r="E479">
+        <v>0.54367675358006018</v>
+      </c>
+      <c r="F479">
+        <v>0.21311487633153661</v>
+      </c>
+      <c r="G479">
+        <v>0.2432083700884034</v>
+      </c>
+      <c r="H479">
+        <v>1.78</v>
+      </c>
+      <c r="I479">
+        <v>4.2</v>
+      </c>
+      <c r="J479">
+        <v>3.65</v>
+      </c>
+      <c r="K479" t="s">
+        <v>53</v>
+      </c>
+      <c r="L479" t="s">
+        <v>48</v>
+      </c>
+      <c r="M479" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q479">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R479">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S479">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>468</v>
+      </c>
+      <c r="B480" t="s">
+        <v>89</v>
+      </c>
+      <c r="C480" t="s">
+        <v>215</v>
+      </c>
+      <c r="D480" t="s">
+        <v>87</v>
+      </c>
+      <c r="E480">
+        <v>0.41713658497170197</v>
+      </c>
+      <c r="F480">
+        <v>0.27967323887025142</v>
+      </c>
+      <c r="G480">
+        <v>0.30319017615804661</v>
+      </c>
+      <c r="H480">
+        <v>1.83</v>
+      </c>
+      <c r="I480">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J480">
+        <v>3.35</v>
+      </c>
+      <c r="K480" t="s">
+        <v>48</v>
+      </c>
+      <c r="L480" t="s">
+        <v>48</v>
+      </c>
+      <c r="M480" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q480">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R480">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S480">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>468</v>
+      </c>
+      <c r="B481" t="s">
+        <v>469</v>
+      </c>
+      <c r="C481" t="s">
+        <v>298</v>
+      </c>
+      <c r="D481" t="s">
+        <v>84</v>
+      </c>
+      <c r="E481">
+        <v>0.42002533813860032</v>
+      </c>
+      <c r="F481">
+        <v>0.29325431756854131</v>
+      </c>
+      <c r="G481">
+        <v>0.28672034429285842</v>
+      </c>
+      <c r="H481">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I481">
+        <v>3.85</v>
+      </c>
+      <c r="J481">
+        <v>3.25</v>
+      </c>
+      <c r="K481" t="s">
+        <v>48</v>
+      </c>
+      <c r="L481" t="s">
+        <v>48</v>
+      </c>
+      <c r="M481" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q481">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R481">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S481">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
+        <v>468</v>
+      </c>
+      <c r="B482" t="s">
+        <v>444</v>
+      </c>
+      <c r="C482" t="s">
+        <v>94</v>
+      </c>
+      <c r="D482" t="s">
+        <v>92</v>
+      </c>
+      <c r="E482">
+        <v>0.40773767966003782</v>
+      </c>
+      <c r="F482">
+        <v>0.29574233768718328</v>
+      </c>
+      <c r="G482">
+        <v>0.29651998265277879</v>
+      </c>
+      <c r="H482">
+        <v>2.15</v>
+      </c>
+      <c r="I482">
+        <v>3.2</v>
+      </c>
+      <c r="J482">
+        <v>3.65</v>
+      </c>
+      <c r="K482" t="s">
+        <v>48</v>
+      </c>
+      <c r="L482" t="s">
+        <v>48</v>
+      </c>
+      <c r="M482" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q482">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R482">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S482">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>468</v>
+      </c>
+      <c r="B483" t="s">
+        <v>90</v>
+      </c>
+      <c r="C483" t="s">
+        <v>98</v>
+      </c>
+      <c r="D483" t="s">
+        <v>92</v>
+      </c>
+      <c r="E483">
+        <v>0.57682015773614814</v>
+      </c>
+      <c r="F483">
+        <v>0.18734520983766639</v>
+      </c>
+      <c r="G483">
+        <v>0.23583463242618549</v>
+      </c>
+      <c r="H483">
+        <v>1.5</v>
+      </c>
+      <c r="I483">
+        <v>6</v>
+      </c>
+      <c r="J483">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K483" t="s">
+        <v>53</v>
+      </c>
+      <c r="L483" t="s">
+        <v>48</v>
+      </c>
+      <c r="M483" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q483">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R483">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S483">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
+        <v>468</v>
+      </c>
+      <c r="B484" t="s">
+        <v>208</v>
+      </c>
+      <c r="C484" t="s">
+        <v>445</v>
+      </c>
+      <c r="D484" t="s">
+        <v>92</v>
+      </c>
+      <c r="E484">
+        <v>0.56109571194839625</v>
+      </c>
+      <c r="F484">
+        <v>0.18922734787292031</v>
+      </c>
+      <c r="G484">
+        <v>0.24967694017868361</v>
+      </c>
+      <c r="H484">
+        <v>1.47</v>
+      </c>
+      <c r="I484">
+        <v>6.5</v>
+      </c>
+      <c r="J484">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K484" t="s">
+        <v>53</v>
+      </c>
+      <c r="L484" t="s">
+        <v>48</v>
+      </c>
+      <c r="M484" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q484">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R484">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S484">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>468</v>
+      </c>
+      <c r="B485" t="s">
+        <v>99</v>
+      </c>
+      <c r="C485" t="s">
+        <v>336</v>
+      </c>
+      <c r="D485" t="s">
+        <v>92</v>
+      </c>
+      <c r="E485">
+        <v>0.34076654452649191</v>
+      </c>
+      <c r="F485">
+        <v>0.36188680979261328</v>
+      </c>
+      <c r="G485">
+        <v>0.29734664568089481</v>
+      </c>
+      <c r="H485">
+        <v>2.85</v>
+      </c>
+      <c r="I485">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J485">
+        <v>3.15</v>
+      </c>
+      <c r="K485" t="s">
+        <v>48</v>
+      </c>
+      <c r="L485" t="s">
+        <v>48</v>
+      </c>
+      <c r="M485" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q485">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R485">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S485">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
+        <v>468</v>
+      </c>
+      <c r="B486" t="s">
+        <v>125</v>
+      </c>
+      <c r="C486" t="s">
+        <v>112</v>
+      </c>
+      <c r="D486" t="s">
+        <v>74</v>
+      </c>
+      <c r="E486">
+        <v>0.42872614223066352</v>
+      </c>
+      <c r="F486">
+        <v>0.28323391204380938</v>
+      </c>
+      <c r="G486">
+        <v>0.28803994572552721</v>
+      </c>
+      <c r="H486">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I486">
+        <v>3.1</v>
+      </c>
+      <c r="J486">
+        <v>3.6</v>
+      </c>
+      <c r="K486" t="s">
+        <v>48</v>
+      </c>
+      <c r="L486" t="s">
+        <v>48</v>
+      </c>
+      <c r="M486" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q486">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R486">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S486">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
+        <v>468</v>
+      </c>
+      <c r="B487" t="s">
+        <v>422</v>
+      </c>
+      <c r="C487" t="s">
+        <v>424</v>
+      </c>
+      <c r="D487" t="s">
+        <v>163</v>
+      </c>
+      <c r="E487">
+        <v>0.48276285159985088</v>
+      </c>
+      <c r="F487">
+        <v>0.24196054777589909</v>
+      </c>
+      <c r="G487">
+        <v>0.27527660062425002</v>
+      </c>
+      <c r="H487">
+        <v>1.74</v>
+      </c>
+      <c r="I487">
+        <v>4.55</v>
+      </c>
+      <c r="J487">
+        <v>3.35</v>
+      </c>
+      <c r="K487" t="s">
+        <v>48</v>
+      </c>
+      <c r="L487" t="s">
+        <v>48</v>
+      </c>
+      <c r="M487" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q487">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R487">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S487">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A488" t="s">
+        <v>468</v>
+      </c>
+      <c r="B488" t="s">
+        <v>117</v>
+      </c>
+      <c r="C488" t="s">
+        <v>154</v>
+      </c>
+      <c r="D488" t="s">
+        <v>74</v>
+      </c>
+      <c r="E488">
+        <v>0.48332303609173011</v>
+      </c>
+      <c r="F488">
+        <v>0.23550437507011349</v>
+      </c>
+      <c r="G488">
+        <v>0.28117258883815638</v>
+      </c>
+      <c r="H488">
+        <v>1.83</v>
+      </c>
+      <c r="I488">
+        <v>3.9</v>
+      </c>
+      <c r="J488">
+        <v>3.45</v>
+      </c>
+      <c r="K488" t="s">
+        <v>48</v>
+      </c>
+      <c r="L488" t="s">
+        <v>48</v>
+      </c>
+      <c r="M488" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q488">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R488">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S488">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
+        <v>468</v>
+      </c>
+      <c r="B489" t="s">
+        <v>153</v>
+      </c>
+      <c r="C489" t="s">
+        <v>140</v>
+      </c>
+      <c r="D489" t="s">
+        <v>74</v>
+      </c>
+      <c r="E489">
+        <v>0.37881416273001978</v>
+      </c>
+      <c r="F489">
+        <v>0.32131272081242962</v>
+      </c>
+      <c r="G489">
+        <v>0.29987311645755071</v>
+      </c>
+      <c r="H489">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I489">
+        <v>2.6</v>
+      </c>
+      <c r="J489">
+        <v>3.25</v>
+      </c>
+      <c r="K489" t="s">
+        <v>48</v>
+      </c>
+      <c r="L489" t="s">
+        <v>48</v>
+      </c>
+      <c r="M489" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q489">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R489">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S489">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
+        <v>468</v>
+      </c>
+      <c r="B490" t="s">
+        <v>113</v>
+      </c>
+      <c r="C490" t="s">
+        <v>124</v>
+      </c>
+      <c r="D490" t="s">
+        <v>77</v>
+      </c>
+      <c r="E490">
+        <v>0.49857451611157899</v>
+      </c>
+      <c r="F490">
+        <v>0.22064752355587761</v>
+      </c>
+      <c r="G490">
+        <v>0.28077796033254332</v>
+      </c>
+      <c r="H490">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I490">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J490">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q490">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R490">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S490">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
+        <v>468</v>
+      </c>
+      <c r="B491" t="s">
+        <v>57</v>
+      </c>
+      <c r="C491" t="s">
+        <v>170</v>
+      </c>
+      <c r="D491" t="s">
+        <v>59</v>
+      </c>
+      <c r="E491">
+        <v>0.50972817201584952</v>
+      </c>
+      <c r="F491">
+        <v>0.22151422425640621</v>
+      </c>
+      <c r="G491">
+        <v>0.26875760372774438</v>
+      </c>
+      <c r="H491">
+        <v>1.75</v>
+      </c>
+      <c r="I491">
+        <v>4.8</v>
+      </c>
+      <c r="J491">
+        <v>3.35</v>
+      </c>
+      <c r="K491" t="s">
+        <v>53</v>
+      </c>
+      <c r="L491" t="s">
+        <v>48</v>
+      </c>
+      <c r="M491" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q491">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R491">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S491">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
+        <v>468</v>
+      </c>
+      <c r="B492" t="s">
+        <v>107</v>
+      </c>
+      <c r="C492" t="s">
+        <v>447</v>
+      </c>
+      <c r="D492" t="s">
+        <v>74</v>
+      </c>
+      <c r="E492">
+        <v>0.32473826094783081</v>
+      </c>
+      <c r="F492">
+        <v>0.38310674841522729</v>
+      </c>
+      <c r="G492">
+        <v>0.29215499063694189</v>
+      </c>
+      <c r="H492">
+        <v>2.75</v>
+      </c>
+      <c r="I492">
+        <v>2.5</v>
+      </c>
+      <c r="J492">
+        <v>3.15</v>
+      </c>
+      <c r="K492" t="s">
+        <v>48</v>
+      </c>
+      <c r="L492" t="s">
+        <v>48</v>
+      </c>
+      <c r="M492" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q492">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R492">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S492">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
+        <v>468</v>
+      </c>
+      <c r="B493" t="s">
+        <v>448</v>
+      </c>
+      <c r="C493" t="s">
+        <v>148</v>
+      </c>
+      <c r="D493" t="s">
+        <v>59</v>
+      </c>
+      <c r="E493">
+        <v>0.3993148135962083</v>
+      </c>
+      <c r="F493">
+        <v>0.29529822407319112</v>
+      </c>
+      <c r="G493">
+        <v>0.3053869623306007</v>
+      </c>
+      <c r="H493">
+        <v>2.25</v>
+      </c>
+      <c r="I493">
+        <v>3.35</v>
+      </c>
+      <c r="J493">
+        <v>3</v>
+      </c>
+      <c r="K493" t="s">
+        <v>48</v>
+      </c>
+      <c r="L493" t="s">
+        <v>48</v>
+      </c>
+      <c r="M493" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q493">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R493">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S493">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A494" t="s">
+        <v>468</v>
+      </c>
+      <c r="B494" t="s">
+        <v>137</v>
+      </c>
+      <c r="C494" t="s">
+        <v>152</v>
+      </c>
+      <c r="D494" t="s">
+        <v>59</v>
+      </c>
+      <c r="E494">
+        <v>0.3490624851520534</v>
+      </c>
+      <c r="F494">
+        <v>0.34399492022743883</v>
+      </c>
+      <c r="G494">
+        <v>0.30694259462050771</v>
+      </c>
+      <c r="H494">
+        <v>2.65</v>
+      </c>
+      <c r="I494">
+        <v>2.85</v>
+      </c>
+      <c r="J494">
+        <v>2.9</v>
+      </c>
+      <c r="K494" t="s">
+        <v>48</v>
+      </c>
+      <c r="L494" t="s">
+        <v>48</v>
+      </c>
+      <c r="M494" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q494">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R494">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S494">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>468</v>
+      </c>
+      <c r="B495" t="s">
+        <v>72</v>
+      </c>
+      <c r="C495" t="s">
+        <v>118</v>
+      </c>
+      <c r="D495" t="s">
+        <v>74</v>
+      </c>
+      <c r="E495">
+        <v>0.50901222841606875</v>
+      </c>
+      <c r="F495">
+        <v>0.21608025769904179</v>
+      </c>
+      <c r="G495">
+        <v>0.27490751388488932</v>
+      </c>
+      <c r="H495">
+        <v>1.86</v>
+      </c>
+      <c r="I495">
+        <v>4.05</v>
+      </c>
+      <c r="J495">
+        <v>3.3</v>
+      </c>
+      <c r="K495" t="s">
+        <v>48</v>
+      </c>
+      <c r="L495" t="s">
+        <v>48</v>
+      </c>
+      <c r="M495" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q495">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R495">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S495">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>468</v>
+      </c>
+      <c r="B496" t="s">
+        <v>111</v>
+      </c>
+      <c r="C496" t="s">
+        <v>110</v>
+      </c>
+      <c r="D496" t="s">
+        <v>74</v>
+      </c>
+      <c r="E496">
+        <v>0.45583859474482591</v>
+      </c>
+      <c r="F496">
+        <v>0.25732720000894749</v>
+      </c>
+      <c r="G496">
+        <v>0.28683420524622649</v>
+      </c>
+      <c r="H496">
+        <v>2</v>
+      </c>
+      <c r="I496">
+        <v>3.5</v>
+      </c>
+      <c r="J496">
+        <v>3.4</v>
+      </c>
+      <c r="K496" t="s">
+        <v>48</v>
+      </c>
+      <c r="L496" t="s">
+        <v>48</v>
+      </c>
+      <c r="M496" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q496">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R496">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S496">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>468</v>
+      </c>
+      <c r="B497" t="s">
+        <v>147</v>
+      </c>
+      <c r="C497" t="s">
+        <v>138</v>
+      </c>
+      <c r="D497" t="s">
+        <v>59</v>
+      </c>
+      <c r="E497">
+        <v>0.42618933787454388</v>
+      </c>
+      <c r="F497">
+        <v>0.2752524620833281</v>
+      </c>
+      <c r="G497">
+        <v>0.29855820004212802</v>
+      </c>
+      <c r="H497">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I497">
+        <v>3.7</v>
+      </c>
+      <c r="J497">
+        <v>3.2</v>
+      </c>
+      <c r="K497" t="s">
+        <v>48</v>
+      </c>
+      <c r="L497" t="s">
+        <v>48</v>
+      </c>
+      <c r="M497" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q497">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R497">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S497">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>468</v>
+      </c>
+      <c r="B498" t="s">
+        <v>169</v>
+      </c>
+      <c r="C498" t="s">
+        <v>150</v>
+      </c>
+      <c r="D498" t="s">
+        <v>59</v>
+      </c>
+      <c r="E498">
+        <v>0.5424167115524926</v>
+      </c>
+      <c r="F498">
+        <v>0.20583359512656851</v>
+      </c>
+      <c r="G498">
+        <v>0.25174969332093888</v>
+      </c>
+      <c r="H498">
+        <v>1.66</v>
+      </c>
+      <c r="I498">
+        <v>5</v>
+      </c>
+      <c r="J498">
+        <v>3.6</v>
+      </c>
+      <c r="K498" t="s">
+        <v>48</v>
+      </c>
+      <c r="L498" t="s">
+        <v>48</v>
+      </c>
+      <c r="M498" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q498">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R498">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S498">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>468</v>
+      </c>
+      <c r="B499" t="s">
+        <v>313</v>
+      </c>
+      <c r="C499" t="s">
+        <v>67</v>
+      </c>
+      <c r="D499" t="s">
+        <v>69</v>
+      </c>
+      <c r="E499">
+        <v>0.32328739355181457</v>
+      </c>
+      <c r="F499">
+        <v>0.38527430492378861</v>
+      </c>
+      <c r="G499">
+        <v>0.29143830152439659</v>
+      </c>
+      <c r="H499">
+        <v>2.7</v>
+      </c>
+      <c r="I499">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J499">
+        <v>3.05</v>
+      </c>
+      <c r="K499" t="s">
+        <v>53</v>
+      </c>
+      <c r="L499" t="s">
+        <v>53</v>
+      </c>
+      <c r="M499" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q499">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R499">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S499">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
+        <v>468</v>
+      </c>
+      <c r="B500" t="s">
+        <v>131</v>
+      </c>
+      <c r="C500" t="s">
+        <v>73</v>
+      </c>
+      <c r="D500" t="s">
+        <v>74</v>
+      </c>
+      <c r="E500">
+        <v>0.51891220181232034</v>
+      </c>
+      <c r="F500">
+        <v>0.22173062277804209</v>
+      </c>
+      <c r="G500">
+        <v>0.2593571754096376</v>
+      </c>
+      <c r="H500">
+        <v>1.8</v>
+      </c>
+      <c r="I500">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J500">
+        <v>3.45</v>
+      </c>
+      <c r="K500" t="s">
+        <v>48</v>
+      </c>
+      <c r="L500" t="s">
+        <v>48</v>
+      </c>
+      <c r="M500" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q500">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R500">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S500">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>468</v>
+      </c>
+      <c r="B501" t="s">
+        <v>172</v>
+      </c>
+      <c r="C501" t="s">
+        <v>174</v>
+      </c>
+      <c r="D501" t="s">
+        <v>163</v>
+      </c>
+      <c r="E501">
+        <v>0.44404512466081952</v>
+      </c>
+      <c r="F501">
+        <v>0.26722436752152617</v>
+      </c>
+      <c r="G501">
+        <v>0.28873050781765419</v>
+      </c>
+      <c r="H501">
+        <v>2</v>
+      </c>
+      <c r="I501">
+        <v>3.75</v>
+      </c>
+      <c r="J501">
+        <v>3.1</v>
+      </c>
+      <c r="K501" t="s">
+        <v>48</v>
+      </c>
+      <c r="L501" t="s">
+        <v>48</v>
+      </c>
+      <c r="M501" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q501">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R501">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S501">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A502" t="s">
+        <v>468</v>
+      </c>
+      <c r="B502" t="s">
+        <v>135</v>
+      </c>
+      <c r="C502" t="s">
+        <v>262</v>
+      </c>
+      <c r="D502" t="s">
+        <v>56</v>
+      </c>
+      <c r="E502">
+        <v>0.37855597424824861</v>
+      </c>
+      <c r="F502">
+        <v>0.31775602857768842</v>
+      </c>
+      <c r="G502">
+        <v>0.30368799717406297</v>
+      </c>
+      <c r="H502">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I502">
+        <v>3</v>
+      </c>
+      <c r="J502">
+        <v>2.95</v>
+      </c>
+      <c r="K502" t="s">
+        <v>48</v>
+      </c>
+      <c r="L502" t="s">
+        <v>48</v>
+      </c>
+      <c r="M502" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q502">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R502">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S502">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A503" t="s">
+        <v>468</v>
+      </c>
+      <c r="B503" t="s">
+        <v>141</v>
+      </c>
+      <c r="C503" t="s">
+        <v>58</v>
+      </c>
+      <c r="D503" t="s">
+        <v>59</v>
+      </c>
+      <c r="E503">
+        <v>0.3420862648118338</v>
+      </c>
+      <c r="F503">
+        <v>0.351524617207084</v>
+      </c>
+      <c r="G503">
+        <v>0.3063891179810822</v>
+      </c>
+      <c r="H503">
+        <v>2.75</v>
+      </c>
+      <c r="I503">
+        <v>2.7</v>
+      </c>
+      <c r="J503">
+        <v>2.95</v>
+      </c>
+      <c r="K503" t="s">
+        <v>48</v>
+      </c>
+      <c r="L503" t="s">
+        <v>48</v>
+      </c>
+      <c r="M503" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q503">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R503">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S503">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A504" t="s">
+        <v>468</v>
+      </c>
+      <c r="B504" t="s">
+        <v>143</v>
+      </c>
+      <c r="C504" t="s">
+        <v>122</v>
+      </c>
+      <c r="D504" t="s">
+        <v>77</v>
+      </c>
+      <c r="E504">
+        <v>0.43731314514939068</v>
+      </c>
+      <c r="F504">
+        <v>0.26241120727504758</v>
+      </c>
+      <c r="G504">
+        <v>0.30027564757556158</v>
+      </c>
+      <c r="H504">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I504">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J504">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q504">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R504">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S504">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A505" t="s">
+        <v>468</v>
+      </c>
+      <c r="B505" t="s">
+        <v>430</v>
+      </c>
+      <c r="C505" t="s">
+        <v>175</v>
+      </c>
+      <c r="D505" t="s">
+        <v>163</v>
+      </c>
+      <c r="E505">
+        <v>0.80375857774569781</v>
+      </c>
+      <c r="F505">
+        <v>6.2814080335077266E-2</v>
+      </c>
+      <c r="G505">
+        <v>0.13342734191922501</v>
+      </c>
+      <c r="H505">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I505">
+        <v>12</v>
+      </c>
+      <c r="J505">
+        <v>7.25</v>
+      </c>
+      <c r="K505" t="s">
+        <v>48</v>
+      </c>
+      <c r="L505" t="s">
+        <v>48</v>
+      </c>
+      <c r="M505" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q505">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R505">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S505">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A506" t="s">
+        <v>468</v>
+      </c>
+      <c r="B506" t="s">
+        <v>109</v>
+      </c>
+      <c r="C506" t="s">
+        <v>126</v>
+      </c>
+      <c r="D506" t="s">
+        <v>74</v>
+      </c>
+      <c r="E506">
+        <v>0.48992373187997718</v>
+      </c>
+      <c r="F506">
+        <v>0.2476470569491854</v>
+      </c>
+      <c r="G506">
+        <v>0.2624292111708374</v>
+      </c>
+      <c r="H506">
+        <v>1.95</v>
+      </c>
+      <c r="I506">
+        <v>3.45</v>
+      </c>
+      <c r="J506">
+        <v>3.6</v>
+      </c>
+      <c r="K506" t="s">
+        <v>48</v>
+      </c>
+      <c r="L506" t="s">
+        <v>48</v>
+      </c>
+      <c r="M506" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q506">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R506">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S506">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A507" t="s">
+        <v>468</v>
+      </c>
+      <c r="B507" t="s">
+        <v>129</v>
+      </c>
+      <c r="C507" t="s">
+        <v>156</v>
+      </c>
+      <c r="D507" t="s">
+        <v>74</v>
+      </c>
+      <c r="E507">
+        <v>0.38048823435020129</v>
+      </c>
+      <c r="F507">
+        <v>0.31152184628883028</v>
+      </c>
+      <c r="G507">
+        <v>0.30798991936096842</v>
+      </c>
+      <c r="H507">
+        <v>2.5</v>
+      </c>
+      <c r="I507">
+        <v>2.85</v>
+      </c>
+      <c r="J507">
+        <v>3</v>
+      </c>
+      <c r="K507" t="s">
+        <v>48</v>
+      </c>
+      <c r="L507" t="s">
+        <v>48</v>
+      </c>
+      <c r="M507" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q507">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R507">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S507">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A508" t="s">
+        <v>468</v>
+      </c>
+      <c r="B508" t="s">
+        <v>386</v>
+      </c>
+      <c r="C508" t="s">
+        <v>142</v>
+      </c>
+      <c r="D508" t="s">
+        <v>59</v>
+      </c>
+      <c r="E508">
+        <v>0.59423531251768225</v>
+      </c>
+      <c r="F508">
+        <v>0.16785440222248901</v>
+      </c>
+      <c r="G508">
+        <v>0.2379102852598288</v>
+      </c>
+      <c r="H508">
+        <v>1.57</v>
+      </c>
+      <c r="I508">
+        <v>6.25</v>
+      </c>
+      <c r="J508">
+        <v>3.85</v>
+      </c>
+      <c r="K508" t="s">
+        <v>53</v>
+      </c>
+      <c r="L508" t="s">
+        <v>48</v>
+      </c>
+      <c r="M508" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q508">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R508">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S508">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A509" t="s">
+        <v>468</v>
+      </c>
+      <c r="B509" t="s">
+        <v>161</v>
+      </c>
+      <c r="C509" t="s">
+        <v>171</v>
+      </c>
+      <c r="D509" t="s">
+        <v>163</v>
+      </c>
+      <c r="E509">
+        <v>0.26056283812691799</v>
+      </c>
+      <c r="F509">
+        <v>0.4767110485286879</v>
+      </c>
+      <c r="G509">
+        <v>0.262726113344394</v>
+      </c>
+      <c r="H509">
+        <v>4.05</v>
+      </c>
+      <c r="I509">
+        <v>1.95</v>
+      </c>
+      <c r="J509">
+        <v>3.05</v>
+      </c>
+      <c r="K509" t="s">
+        <v>48</v>
+      </c>
+      <c r="L509" t="s">
+        <v>48</v>
+      </c>
+      <c r="M509" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q509">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R509">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S509">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A510" t="s">
+        <v>468</v>
+      </c>
+      <c r="B510" t="s">
+        <v>452</v>
+      </c>
+      <c r="C510" t="s">
+        <v>209</v>
+      </c>
+      <c r="D510" t="s">
+        <v>179</v>
+      </c>
+      <c r="E510">
+        <v>0.24426015795501521</v>
+      </c>
+      <c r="F510">
+        <v>0.5071737713679163</v>
+      </c>
+      <c r="G510">
+        <v>0.2485660706770684</v>
+      </c>
+      <c r="H510">
+        <v>3.9</v>
+      </c>
+      <c r="I510">
+        <v>1.82</v>
+      </c>
+      <c r="J510">
+        <v>3.65</v>
+      </c>
+      <c r="K510" t="s">
+        <v>48</v>
+      </c>
+      <c r="L510" t="s">
+        <v>53</v>
+      </c>
+      <c r="M510" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q510">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R510">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S510">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A511" t="s">
+        <v>468</v>
+      </c>
+      <c r="B511" t="s">
+        <v>65</v>
+      </c>
+      <c r="C511" t="s">
+        <v>450</v>
+      </c>
+      <c r="D511" t="s">
+        <v>66</v>
+      </c>
+      <c r="E511">
+        <v>0.59226458121272607</v>
+      </c>
+      <c r="F511">
+        <v>0.16047187707872479</v>
+      </c>
+      <c r="G511">
+        <v>0.24726354170854911</v>
+      </c>
+      <c r="H511">
+        <v>1.52</v>
+      </c>
+      <c r="I511">
+        <v>7.25</v>
+      </c>
+      <c r="J511">
+        <v>4</v>
+      </c>
+      <c r="K511" t="s">
+        <v>53</v>
+      </c>
+      <c r="L511" t="s">
+        <v>48</v>
+      </c>
+      <c r="M511" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q511">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R511">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S511">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A512" t="s">
+        <v>468</v>
+      </c>
+      <c r="B512" t="s">
+        <v>323</v>
+      </c>
+      <c r="C512" t="s">
+        <v>284</v>
+      </c>
+      <c r="D512" t="s">
+        <v>186</v>
+      </c>
+      <c r="E512">
+        <v>0.13685012689834619</v>
+      </c>
+      <c r="F512">
+        <v>0.71013432231441775</v>
+      </c>
+      <c r="G512">
+        <v>0.153015550787236</v>
+      </c>
+      <c r="H512">
+        <v>9.75</v>
+      </c>
+      <c r="I512">
+        <v>1.24</v>
+      </c>
+      <c r="J512">
+        <v>5.75</v>
+      </c>
+      <c r="K512" t="s">
+        <v>53</v>
+      </c>
+      <c r="L512" t="s">
+        <v>53</v>
+      </c>
+      <c r="M512" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q512">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R512">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S512">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A513" t="s">
+        <v>468</v>
+      </c>
+      <c r="B513" t="s">
+        <v>182</v>
+      </c>
+      <c r="C513" t="s">
+        <v>229</v>
+      </c>
+      <c r="D513" t="s">
+        <v>28</v>
+      </c>
+      <c r="E513">
+        <v>0.32779346117912728</v>
+      </c>
+      <c r="F513">
+        <v>0.37141358469101238</v>
+      </c>
+      <c r="G513">
+        <v>0.30079295412986029</v>
+      </c>
+      <c r="H513">
+        <v>2.6</v>
+      </c>
+      <c r="I513">
+        <v>2.9</v>
+      </c>
+      <c r="J513">
+        <v>3.1</v>
+      </c>
+      <c r="K513" t="s">
+        <v>48</v>
+      </c>
+      <c r="L513" t="s">
+        <v>48</v>
+      </c>
+      <c r="M513" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q513">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R513">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S513">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A514" t="s">
+        <v>468</v>
+      </c>
+      <c r="B514" t="s">
+        <v>417</v>
+      </c>
+      <c r="C514" t="s">
+        <v>197</v>
+      </c>
+      <c r="D514" t="s">
+        <v>41</v>
+      </c>
+      <c r="E514">
+        <v>0.26288530678281191</v>
+      </c>
+      <c r="F514">
+        <v>0.48923683736114981</v>
+      </c>
+      <c r="G514">
+        <v>0.24787785585603819</v>
+      </c>
+      <c r="H514">
+        <v>3.7</v>
+      </c>
+      <c r="I514">
+        <v>1.83</v>
+      </c>
+      <c r="J514">
+        <v>3.8</v>
+      </c>
+      <c r="K514" t="s">
+        <v>53</v>
+      </c>
+      <c r="L514" t="s">
+        <v>53</v>
+      </c>
+      <c r="M514" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q514">
+        <f t="shared" ref="Q514:Q543" si="96">IF((($AC$1*E514)^($AB$1))-(1-(($AC$1*E514)^($AB$1)))/(H514-1)&lt;0, 0,(($AC$1*E514)^($AB$1))-(1-(($AC$1*E514)^($AB$1)))/(H514-1))</f>
+        <v>0</v>
+      </c>
+      <c r="R514">
+        <f t="shared" ref="R514:R543" si="97">IF((($AC$1*F514)^($AB$1))-(1-(($AC$1*F514)^($AB$1)))/(I514-1)&lt;0, 0,(($AC$1*F514)^($AB$1))-(1-(($AC$1*F514)^($AB$1)))/(I514-1))</f>
+        <v>0</v>
+      </c>
+      <c r="S514">
+        <f t="shared" ref="S514:S543" si="98">IF((($AC$1*G514)^($AB$1))-(1-(($AC$1*G514)^($AB$1)))/(J514-1)&lt;0, 0,(($AC$1*G514)^($AB$1))-(1-(($AC$1*G514)^($AB$1)))/(J514-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A515" t="s">
+        <v>468</v>
+      </c>
+      <c r="B515" t="s">
+        <v>294</v>
+      </c>
+      <c r="C515" t="s">
+        <v>263</v>
+      </c>
+      <c r="D515" t="s">
+        <v>189</v>
+      </c>
+      <c r="E515">
+        <v>0.74568838338026</v>
+      </c>
+      <c r="F515">
+        <v>8.7313927958950308E-2</v>
+      </c>
+      <c r="G515">
+        <v>0.16699768866078971</v>
+      </c>
+      <c r="H515">
+        <v>1.21</v>
+      </c>
+      <c r="I515">
+        <v>12</v>
+      </c>
+      <c r="J515">
+        <v>6.75</v>
+      </c>
+      <c r="K515" t="s">
+        <v>53</v>
+      </c>
+      <c r="L515" t="s">
+        <v>53</v>
+      </c>
+      <c r="M515" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q515">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R515">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S515">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A516" t="s">
+        <v>468</v>
+      </c>
+      <c r="B516" t="s">
+        <v>280</v>
+      </c>
+      <c r="C516" t="s">
+        <v>191</v>
+      </c>
+      <c r="D516" t="s">
+        <v>192</v>
+      </c>
+      <c r="E516">
+        <v>0.46557568370812052</v>
+      </c>
+      <c r="F516">
+        <v>0.26808273338903188</v>
+      </c>
+      <c r="G516">
+        <v>0.2663415829028476</v>
+      </c>
+      <c r="H516">
+        <v>1.6</v>
+      </c>
+      <c r="I516">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J516">
+        <v>3.95</v>
+      </c>
+      <c r="K516" t="s">
+        <v>48</v>
+      </c>
+      <c r="L516" t="s">
+        <v>48</v>
+      </c>
+      <c r="M516" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q516">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R516">
+        <f t="shared" si="97"/>
+        <v>7.2943455186620376E-3</v>
+      </c>
+      <c r="S516">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A517" t="s">
+        <v>468</v>
+      </c>
+      <c r="B517" t="s">
+        <v>195</v>
+      </c>
+      <c r="C517" t="s">
+        <v>328</v>
+      </c>
+      <c r="D517" t="s">
+        <v>192</v>
+      </c>
+      <c r="E517">
+        <v>0.13382440266242021</v>
+      </c>
+      <c r="F517">
+        <v>0.70527814094714003</v>
+      </c>
+      <c r="G517">
+        <v>0.16089745639043981</v>
+      </c>
+      <c r="H517">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I517">
+        <v>1.51</v>
+      </c>
+      <c r="J517">
+        <v>4.45</v>
+      </c>
+      <c r="K517" t="s">
+        <v>48</v>
+      </c>
+      <c r="L517" t="s">
+        <v>48</v>
+      </c>
+      <c r="M517" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q517">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R517">
+        <f t="shared" si="97"/>
+        <v>9.666347503485917E-2</v>
+      </c>
+      <c r="S517">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A518" t="s">
+        <v>468</v>
+      </c>
+      <c r="B518" t="s">
+        <v>282</v>
+      </c>
+      <c r="C518" t="s">
+        <v>194</v>
+      </c>
+      <c r="D518" t="s">
+        <v>192</v>
+      </c>
+      <c r="E518">
+        <v>9.3134016259362976E-2</v>
+      </c>
+      <c r="F518">
+        <v>0.7957741215015558</v>
+      </c>
+      <c r="G518">
+        <v>0.1110918622390812</v>
+      </c>
+      <c r="H518">
+        <v>7.75</v>
+      </c>
+      <c r="I518">
+        <v>1.27</v>
+      </c>
+      <c r="J518">
+        <v>6</v>
+      </c>
+      <c r="K518" t="s">
+        <v>48</v>
+      </c>
+      <c r="L518" t="s">
+        <v>48</v>
+      </c>
+      <c r="M518" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q518">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R518">
+        <f t="shared" si="97"/>
+        <v>6.7762043593943E-2</v>
+      </c>
+      <c r="S518">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A519" t="s">
+        <v>468</v>
+      </c>
+      <c r="B519" t="s">
+        <v>339</v>
+      </c>
+      <c r="C519" t="s">
+        <v>238</v>
+      </c>
+      <c r="D519" t="s">
+        <v>168</v>
+      </c>
+      <c r="E519">
+        <v>0.3943824242827863</v>
+      </c>
+      <c r="F519">
+        <v>0.28930689323509029</v>
+      </c>
+      <c r="G519">
+        <v>0.31631068248212341</v>
+      </c>
+      <c r="H519">
+        <v>2.25</v>
+      </c>
+      <c r="I519">
+        <v>3.45</v>
+      </c>
+      <c r="J519">
+        <v>2.85</v>
+      </c>
+      <c r="K519" t="s">
+        <v>48</v>
+      </c>
+      <c r="L519" t="s">
+        <v>48</v>
+      </c>
+      <c r="M519" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q519">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R519">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S519">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A520" t="s">
+        <v>468</v>
+      </c>
+      <c r="B520" t="s">
+        <v>361</v>
+      </c>
+      <c r="C520" t="s">
+        <v>307</v>
+      </c>
+      <c r="D520" t="s">
+        <v>179</v>
+      </c>
+      <c r="E520">
+        <v>0.44149055186388309</v>
+      </c>
+      <c r="F520">
+        <v>0.28423995635257271</v>
+      </c>
+      <c r="G520">
+        <v>0.27426949178354421</v>
+      </c>
+      <c r="H520">
+        <v>2.1</v>
+      </c>
+      <c r="I520">
+        <v>3.3</v>
+      </c>
+      <c r="J520">
+        <v>3.3</v>
+      </c>
+      <c r="K520" t="s">
+        <v>48</v>
+      </c>
+      <c r="L520" t="s">
+        <v>48</v>
+      </c>
+      <c r="M520" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q520">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R520">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S520">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A521" t="s">
+        <v>468</v>
+      </c>
+      <c r="B521" t="s">
+        <v>95</v>
+      </c>
+      <c r="C521" t="s">
+        <v>100</v>
+      </c>
+      <c r="D521" t="s">
+        <v>92</v>
+      </c>
+      <c r="E521">
+        <v>0.48226248521160497</v>
+      </c>
+      <c r="F521">
+        <v>0.2303037011656936</v>
+      </c>
+      <c r="G521">
+        <v>0.28743381362270137</v>
+      </c>
+      <c r="H521">
+        <v>1.72</v>
+      </c>
+      <c r="I521">
+        <v>4.95</v>
+      </c>
+      <c r="J521">
+        <v>3.65</v>
+      </c>
+      <c r="K521" t="s">
+        <v>53</v>
+      </c>
+      <c r="L521" t="s">
+        <v>48</v>
+      </c>
+      <c r="M521" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q521">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R521">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S521">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A522" t="s">
+        <v>468</v>
+      </c>
+      <c r="B522" t="s">
+        <v>105</v>
+      </c>
+      <c r="C522" t="s">
+        <v>356</v>
+      </c>
+      <c r="D522" t="s">
+        <v>56</v>
+      </c>
+      <c r="E522">
+        <v>0.74264350814918401</v>
+      </c>
+      <c r="F522">
+        <v>8.938255886433448E-2</v>
+      </c>
+      <c r="G522">
+        <v>0.16797393298648161</v>
+      </c>
+      <c r="H522">
+        <v>1.37</v>
+      </c>
+      <c r="I522">
+        <v>9.75</v>
+      </c>
+      <c r="J522">
+        <v>5.94</v>
+      </c>
+      <c r="K522" t="s">
+        <v>53</v>
+      </c>
+      <c r="L522" t="s">
+        <v>53</v>
+      </c>
+      <c r="M522" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q522">
+        <f t="shared" si="96"/>
+        <v>3.2671970869685429E-2</v>
+      </c>
+      <c r="R522">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S522">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A523" t="s">
+        <v>468</v>
+      </c>
+      <c r="B523" t="s">
+        <v>64</v>
+      </c>
+      <c r="C523" t="s">
+        <v>442</v>
+      </c>
+      <c r="D523" t="s">
+        <v>66</v>
+      </c>
+      <c r="E523">
+        <v>0.38779596960748808</v>
+      </c>
+      <c r="F523">
+        <v>0.30193726969852408</v>
+      </c>
+      <c r="G523">
+        <v>0.31026676069398779</v>
+      </c>
+      <c r="H523">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I523">
+        <v>3.9</v>
+      </c>
+      <c r="J523">
+        <v>3.2</v>
+      </c>
+      <c r="K523" t="s">
+        <v>48</v>
+      </c>
+      <c r="L523" t="s">
+        <v>48</v>
+      </c>
+      <c r="M523" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q523">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R523">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S523">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A524" t="s">
+        <v>468</v>
+      </c>
+      <c r="B524" t="s">
+        <v>184</v>
+      </c>
+      <c r="C524" t="s">
+        <v>326</v>
+      </c>
+      <c r="D524" t="s">
+        <v>186</v>
+      </c>
+      <c r="E524">
+        <v>0.15292670018732321</v>
+      </c>
+      <c r="F524">
+        <v>0.68156366975072602</v>
+      </c>
+      <c r="G524">
+        <v>0.16550963006195071</v>
+      </c>
+      <c r="H524">
+        <v>7.75</v>
+      </c>
+      <c r="I524">
+        <v>1.31</v>
+      </c>
+      <c r="J524">
+        <v>5.25</v>
+      </c>
+      <c r="K524" t="s">
+        <v>48</v>
+      </c>
+      <c r="L524" t="s">
+        <v>53</v>
+      </c>
+      <c r="M524" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q524">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R524">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S524">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A525" t="s">
+        <v>468</v>
+      </c>
+      <c r="B525" t="s">
+        <v>231</v>
+      </c>
+      <c r="C525" t="s">
+        <v>221</v>
+      </c>
+      <c r="D525" t="s">
+        <v>87</v>
+      </c>
+      <c r="E525">
+        <v>0.41234357444938791</v>
+      </c>
+      <c r="F525">
+        <v>0.28756113685816481</v>
+      </c>
+      <c r="G525">
+        <v>0.30009528869244739</v>
+      </c>
+      <c r="H525">
+        <v>2.1</v>
+      </c>
+      <c r="I525">
+        <v>3.5</v>
+      </c>
+      <c r="J525">
+        <v>3.1</v>
+      </c>
+      <c r="K525" t="s">
+        <v>48</v>
+      </c>
+      <c r="L525" t="s">
+        <v>48</v>
+      </c>
+      <c r="M525" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q525">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R525">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S525">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A526" t="s">
+        <v>468</v>
+      </c>
+      <c r="B526" t="s">
+        <v>88</v>
+      </c>
+      <c r="C526" t="s">
+        <v>223</v>
+      </c>
+      <c r="D526" t="s">
+        <v>87</v>
+      </c>
+      <c r="E526">
+        <v>0.51307503664707266</v>
+      </c>
+      <c r="F526">
+        <v>0.20627423905351239</v>
+      </c>
+      <c r="G526">
+        <v>0.28065072429941501</v>
+      </c>
+      <c r="H526">
+        <v>1.58</v>
+      </c>
+      <c r="I526">
+        <v>6</v>
+      </c>
+      <c r="J526">
+        <v>3.4</v>
+      </c>
+      <c r="K526" t="s">
+        <v>48</v>
+      </c>
+      <c r="L526" t="s">
+        <v>48</v>
+      </c>
+      <c r="M526" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q526">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R526">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S526">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A527" t="s">
+        <v>468</v>
+      </c>
+      <c r="B527" t="s">
+        <v>218</v>
+      </c>
+      <c r="C527" t="s">
+        <v>225</v>
+      </c>
+      <c r="D527" t="s">
+        <v>87</v>
+      </c>
+      <c r="E527">
+        <v>0.38777882343638659</v>
+      </c>
+      <c r="F527">
+        <v>0.30031838401578081</v>
+      </c>
+      <c r="G527">
+        <v>0.3119027925478326</v>
+      </c>
+      <c r="H527">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I527">
+        <v>3.55</v>
+      </c>
+      <c r="J527">
+        <v>2.85</v>
+      </c>
+      <c r="K527" t="s">
+        <v>48</v>
+      </c>
+      <c r="L527" t="s">
+        <v>48</v>
+      </c>
+      <c r="M527" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q527">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R527">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S527">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A528" t="s">
+        <v>468</v>
+      </c>
+      <c r="B528" t="s">
+        <v>216</v>
+      </c>
+      <c r="C528" t="s">
+        <v>220</v>
+      </c>
+      <c r="D528" t="s">
+        <v>87</v>
+      </c>
+      <c r="E528">
+        <v>0.28714681083358401</v>
+      </c>
+      <c r="F528">
+        <v>0.43187787033728769</v>
+      </c>
+      <c r="G528">
+        <v>0.28097531882912841</v>
+      </c>
+      <c r="H528">
+        <v>3.45</v>
+      </c>
+      <c r="I528">
+        <v>2.15</v>
+      </c>
+      <c r="J528">
+        <v>3</v>
+      </c>
+      <c r="K528" t="s">
+        <v>48</v>
+      </c>
+      <c r="L528" t="s">
+        <v>48</v>
+      </c>
+      <c r="M528" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q528">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R528">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S528">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A529" t="s">
+        <v>468</v>
+      </c>
+      <c r="B529" t="s">
+        <v>296</v>
+      </c>
+      <c r="C529" t="s">
+        <v>188</v>
+      </c>
+      <c r="D529" t="s">
+        <v>189</v>
+      </c>
+      <c r="E529">
+        <v>0.34388884156706601</v>
+      </c>
+      <c r="F529">
+        <v>0.35111489818465891</v>
+      </c>
+      <c r="G529">
+        <v>0.3049962602482752</v>
+      </c>
+      <c r="H529">
+        <v>2.9</v>
+      </c>
+      <c r="I529">
+        <v>2.6</v>
+      </c>
+      <c r="J529">
+        <v>3.05</v>
+      </c>
+      <c r="K529" t="s">
+        <v>48</v>
+      </c>
+      <c r="L529" t="s">
+        <v>48</v>
+      </c>
+      <c r="M529" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q529">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R529">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S529">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A530" t="s">
+        <v>468</v>
+      </c>
+      <c r="B530" t="s">
+        <v>228</v>
+      </c>
+      <c r="C530" t="s">
+        <v>219</v>
+      </c>
+      <c r="D530" t="s">
+        <v>87</v>
+      </c>
+      <c r="E530">
+        <v>0.33106975463618998</v>
+      </c>
+      <c r="F530">
+        <v>0.36568844778809251</v>
+      </c>
+      <c r="G530">
+        <v>0.30324179757571751</v>
+      </c>
+      <c r="H530">
+        <v>2.9</v>
+      </c>
+      <c r="I530">
+        <v>2.75</v>
+      </c>
+      <c r="J530">
+        <v>2.7</v>
+      </c>
+      <c r="K530" t="s">
+        <v>48</v>
+      </c>
+      <c r="L530" t="s">
+        <v>48</v>
+      </c>
+      <c r="M530" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q530">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R530">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S530">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A531" t="s">
+        <v>468</v>
+      </c>
+      <c r="B531" t="s">
+        <v>86</v>
+      </c>
+      <c r="C531" t="s">
+        <v>230</v>
+      </c>
+      <c r="D531" t="s">
+        <v>87</v>
+      </c>
+      <c r="E531">
+        <v>0.75044572007792121</v>
+      </c>
+      <c r="F531">
+        <v>8.2014076849710529E-2</v>
+      </c>
+      <c r="G531">
+        <v>0.16754020307236839</v>
+      </c>
+      <c r="H531">
+        <v>1.22</v>
+      </c>
+      <c r="I531">
+        <v>10.75</v>
+      </c>
+      <c r="J531">
+        <v>5.75</v>
+      </c>
+      <c r="K531" t="s">
+        <v>48</v>
+      </c>
+      <c r="L531" t="s">
+        <v>48</v>
+      </c>
+      <c r="M531" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q531">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R531">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S531">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A532" t="s">
+        <v>468</v>
+      </c>
+      <c r="B532" t="s">
+        <v>315</v>
+      </c>
+      <c r="C532" t="s">
+        <v>383</v>
+      </c>
+      <c r="D532" t="s">
+        <v>28</v>
+      </c>
+      <c r="E532">
+        <v>0.39753672054792533</v>
+      </c>
+      <c r="F532">
+        <v>0.29534304506225673</v>
+      </c>
+      <c r="G532">
+        <v>0.30712023438981811</v>
+      </c>
+      <c r="H532">
+        <v>2.15</v>
+      </c>
+      <c r="I532">
+        <v>3.35</v>
+      </c>
+      <c r="J532">
+        <v>3.35</v>
+      </c>
+      <c r="K532" t="s">
+        <v>48</v>
+      </c>
+      <c r="L532" t="s">
+        <v>48</v>
+      </c>
+      <c r="M532" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q532">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R532">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S532">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A533" t="s">
+        <v>468</v>
+      </c>
+      <c r="B533" t="s">
+        <v>226</v>
+      </c>
+      <c r="C533" t="s">
+        <v>222</v>
+      </c>
+      <c r="D533" t="s">
+        <v>87</v>
+      </c>
+      <c r="E533">
+        <v>0.36223897461981142</v>
+      </c>
+      <c r="F533">
+        <v>0.32922950490929609</v>
+      </c>
+      <c r="G533">
+        <v>0.30853152047089238</v>
+      </c>
+      <c r="H533">
+        <v>2.5</v>
+      </c>
+      <c r="I533">
+        <v>3.05</v>
+      </c>
+      <c r="J533">
+        <v>2.8</v>
+      </c>
+      <c r="K533" t="s">
+        <v>48</v>
+      </c>
+      <c r="L533" t="s">
+        <v>48</v>
+      </c>
+      <c r="M533" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q533">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R533">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S533">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A534" t="s">
+        <v>468</v>
+      </c>
+      <c r="B534" t="s">
+        <v>357</v>
+      </c>
+      <c r="C534" t="s">
+        <v>462</v>
+      </c>
+      <c r="D534" t="s">
+        <v>168</v>
+      </c>
+      <c r="E534">
+        <v>0.4458653067523845</v>
+      </c>
+      <c r="F534">
+        <v>0.2436727861769194</v>
+      </c>
+      <c r="G534">
+        <v>0.3104619070706961</v>
+      </c>
+      <c r="H534">
+        <v>1.95</v>
+      </c>
+      <c r="I534">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J534">
+        <v>2.9</v>
+      </c>
+      <c r="K534" t="s">
+        <v>48</v>
+      </c>
+      <c r="L534" t="s">
+        <v>48</v>
+      </c>
+      <c r="M534" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q534">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R534">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S534">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A535" t="s">
+        <v>468</v>
+      </c>
+      <c r="B535" t="s">
+        <v>308</v>
+      </c>
+      <c r="C535" t="s">
+        <v>178</v>
+      </c>
+      <c r="D535" t="s">
+        <v>179</v>
+      </c>
+      <c r="E535">
+        <v>0.34643973810010747</v>
+      </c>
+      <c r="F535">
+        <v>0.39488043435442322</v>
+      </c>
+      <c r="G535">
+        <v>0.25867982754546931</v>
+      </c>
+      <c r="H535">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I535">
+        <v>2.5</v>
+      </c>
+      <c r="J535">
+        <v>3.6</v>
+      </c>
+      <c r="K535" t="s">
+        <v>48</v>
+      </c>
+      <c r="L535" t="s">
+        <v>48</v>
+      </c>
+      <c r="M535" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q535">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R535">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S535">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A536" t="s">
+        <v>468</v>
+      </c>
+      <c r="B536" t="s">
+        <v>259</v>
+      </c>
+      <c r="C536" t="s">
+        <v>83</v>
+      </c>
+      <c r="D536" t="s">
+        <v>84</v>
+      </c>
+      <c r="E536">
+        <v>0.1388295147768126</v>
+      </c>
+      <c r="F536">
+        <v>0.7019092059359292</v>
+      </c>
+      <c r="G536">
+        <v>0.15926127928725811</v>
+      </c>
+      <c r="H536">
+        <v>6</v>
+      </c>
+      <c r="I536">
+        <v>1.5</v>
+      </c>
+      <c r="J536">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="K536" t="s">
+        <v>48</v>
+      </c>
+      <c r="L536" t="s">
+        <v>53</v>
+      </c>
+      <c r="M536" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q536">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R536">
+        <f t="shared" si="97"/>
+        <v>7.2899991189013247E-2</v>
+      </c>
+      <c r="S536">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A537" t="s">
+        <v>468</v>
+      </c>
+      <c r="B537" t="s">
+        <v>431</v>
+      </c>
+      <c r="C537" t="s">
+        <v>187</v>
+      </c>
+      <c r="D537" t="s">
+        <v>189</v>
+      </c>
+      <c r="E537">
+        <v>0.69509827500742016</v>
+      </c>
+      <c r="F537">
+        <v>0.1104840738420671</v>
+      </c>
+      <c r="G537">
+        <v>0.19441765115051271</v>
+      </c>
+      <c r="H537">
+        <v>1.38</v>
+      </c>
+      <c r="I537">
+        <v>7</v>
+      </c>
+      <c r="J537">
+        <v>5.25</v>
+      </c>
+      <c r="K537" t="s">
+        <v>53</v>
+      </c>
+      <c r="L537" t="s">
+        <v>48</v>
+      </c>
+      <c r="M537" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q537">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R537">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S537">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A538" t="s">
+        <v>468</v>
+      </c>
+      <c r="B538" t="s">
+        <v>355</v>
+      </c>
+      <c r="C538" t="s">
+        <v>248</v>
+      </c>
+      <c r="D538" t="s">
+        <v>56</v>
+      </c>
+      <c r="E538">
+        <v>0.31176268519813588</v>
+      </c>
+      <c r="F538">
+        <v>0.41762881901565091</v>
+      </c>
+      <c r="G538">
+        <v>0.27060849578621321</v>
+      </c>
+      <c r="H538">
+        <v>2.8</v>
+      </c>
+      <c r="I538">
+        <v>2.5</v>
+      </c>
+      <c r="J538">
+        <v>3.35</v>
+      </c>
+      <c r="K538" t="s">
+        <v>48</v>
+      </c>
+      <c r="L538" t="s">
+        <v>48</v>
+      </c>
+      <c r="M538" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q538">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R538">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S538">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A539" t="s">
+        <v>468</v>
+      </c>
+      <c r="B539" t="s">
+        <v>376</v>
+      </c>
+      <c r="C539" t="s">
+        <v>406</v>
+      </c>
+      <c r="D539" t="s">
+        <v>350</v>
+      </c>
+      <c r="E539">
+        <v>0.58190193872100859</v>
+      </c>
+      <c r="F539">
+        <v>0.17143146500285081</v>
+      </c>
+      <c r="G539">
+        <v>0.2466665962761406</v>
+      </c>
+      <c r="H539">
+        <v>1.57</v>
+      </c>
+      <c r="I539">
+        <v>5.3</v>
+      </c>
+      <c r="J539">
+        <v>4.05</v>
+      </c>
+      <c r="K539" t="s">
+        <v>48</v>
+      </c>
+      <c r="L539" t="s">
+        <v>53</v>
+      </c>
+      <c r="M539" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q539">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R539">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S539">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A540" t="s">
+        <v>468</v>
+      </c>
+      <c r="B540" t="s">
+        <v>367</v>
+      </c>
+      <c r="C540" t="s">
+        <v>274</v>
+      </c>
+      <c r="D540" t="s">
+        <v>66</v>
+      </c>
+      <c r="E540">
+        <v>0.77906337694768057</v>
+      </c>
+      <c r="F540">
+        <v>7.0845055876302646E-2</v>
+      </c>
+      <c r="G540">
+        <v>0.15009156717601671</v>
+      </c>
+      <c r="H540">
+        <v>1.32</v>
+      </c>
+      <c r="I540">
+        <v>9</v>
+      </c>
+      <c r="J540">
+        <v>6</v>
+      </c>
+      <c r="K540" t="s">
+        <v>53</v>
+      </c>
+      <c r="L540" t="s">
+        <v>48</v>
+      </c>
+      <c r="M540" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q540">
+        <f t="shared" si="96"/>
+        <v>0.10028868466351026</v>
+      </c>
+      <c r="R540">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S540">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A541" t="s">
+        <v>468</v>
+      </c>
+      <c r="B541" t="s">
+        <v>382</v>
+      </c>
+      <c r="C541" t="s">
+        <v>27</v>
+      </c>
+      <c r="D541" t="s">
+        <v>28</v>
+      </c>
+      <c r="E541">
+        <v>0.78369616348118498</v>
+      </c>
+      <c r="F541">
+        <v>6.8936202533056407E-2</v>
+      </c>
+      <c r="G541">
+        <v>0.14736763398575861</v>
+      </c>
+      <c r="H541">
+        <v>1.21</v>
+      </c>
+      <c r="I541">
+        <v>15</v>
+      </c>
+      <c r="J541">
+        <v>6.5</v>
+      </c>
+      <c r="K541" t="s">
+        <v>48</v>
+      </c>
+      <c r="L541" t="s">
+        <v>53</v>
+      </c>
+      <c r="M541" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q541">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R541">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S541">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A542" t="s">
+        <v>468</v>
+      </c>
+      <c r="B542" t="s">
+        <v>363</v>
+      </c>
+      <c r="C542" t="s">
+        <v>354</v>
+      </c>
+      <c r="D542" t="s">
+        <v>350</v>
+      </c>
+      <c r="E542">
+        <v>0.69334148684251529</v>
+      </c>
+      <c r="F542">
+        <v>0.10400664397706549</v>
+      </c>
+      <c r="G542">
+        <v>0.20265186918041911</v>
+      </c>
+      <c r="H542">
+        <v>1.4</v>
+      </c>
+      <c r="I542">
+        <v>6.75</v>
+      </c>
+      <c r="J542">
+        <v>5.25</v>
+      </c>
+      <c r="K542" t="s">
+        <v>53</v>
+      </c>
+      <c r="L542" t="s">
+        <v>48</v>
+      </c>
+      <c r="M542" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q542">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R542">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S542">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A543" t="s">
+        <v>468</v>
+      </c>
+      <c r="B543" t="s">
+        <v>426</v>
+      </c>
+      <c r="C543" t="s">
+        <v>351</v>
+      </c>
+      <c r="D543" t="s">
+        <v>350</v>
+      </c>
+      <c r="E543">
+        <v>0.70557708121908413</v>
+      </c>
+      <c r="F543">
+        <v>0.1023316872336741</v>
+      </c>
+      <c r="G543">
+        <v>0.19209123154724189</v>
+      </c>
+      <c r="H543">
+        <v>1.38</v>
+      </c>
+      <c r="I543">
+        <v>7.8</v>
+      </c>
+      <c r="J543">
+        <v>5</v>
+      </c>
+      <c r="K543" t="s">
+        <v>53</v>
+      </c>
+      <c r="L543" t="s">
+        <v>53</v>
+      </c>
+      <c r="M543" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q543">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R543">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S543">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
     </row>

--- a/predictor/modelB.xlsx
+++ b/predictor/modelB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Desktop\docs\github\soccer_predictor\predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8461A8-8813-437A-93D4-4B49321F0C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74138B6-F410-463E-87C5-BE03DB829911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="Y1" s="3">
         <f>(SUM(T2:V1048576)-SUM(AL2:AN1048576)  )/(SUM(AL2:AN1048576)+0.000000000000000001)</f>
-        <v>-0.29662927966171898</v>
+        <v>-0.33905462535809611</v>
       </c>
       <c r="Z1">
         <f>COUNTIF(AL2:AN1048576,"&gt;0")</f>
@@ -1920,25 +1920,25 @@
       </c>
       <c r="AA1" s="5">
         <f>_xlfn.STDEV.P(AO2:AQ1048576)</f>
-        <v>4.3792509976224768E-2</v>
+        <v>4.379966944261604E-2</v>
       </c>
       <c r="AB1">
-        <v>1.1853687670622843</v>
+        <v>1.1596559998021709</v>
       </c>
       <c r="AC1">
-        <v>1.0429943702418978</v>
+        <v>1.0272216812539179</v>
       </c>
       <c r="AD1">
         <f>MAX(Q2:S1048576)</f>
-        <v>0.10028868466351026</v>
+        <v>7.7498574340151727E-2</v>
       </c>
       <c r="AE1">
         <f>SUMIF(Q2:S1048576,"&gt;0")/COUNTIF(Q2:S1048576,"&gt;0")</f>
-        <v>3.1054049324793866E-2</v>
+        <v>2.2610757246137533E-2</v>
       </c>
       <c r="AF1">
         <f>AVERAGE(Q2:S1048576)</f>
-        <v>7.0664195880527241E-4</v>
+        <v>5.1451292626512218E-4</v>
       </c>
       <c r="AH1" t="s">
         <v>22</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="AI2" s="2">
         <f>IFERROR(IF(Y1&lt;0,Y1,Y1/SQRT(AA1))  -IF(OR(MAX(AB4:AF4)&gt;AI1,AVERAGE(AB4:AF4)&gt;AI1/2),10000,0),-10000)</f>
-        <v>-10000.296629279661</v>
+        <v>-0.33905462535809611</v>
       </c>
       <c r="AL2">
         <f t="shared" ref="AL2:AL65" si="6">Q2*COUNT(N2)</f>
@@ -2162,10 +2162,10 @@
         <v>8.2040739601906276E-2</v>
       </c>
       <c r="AE3">
-        <v>2.2692441216869311E-2</v>
+        <v>2.064396978322169E-2</v>
       </c>
       <c r="AF3">
-        <v>5.7057143864254738E-4</v>
+        <v>5.2054290351297009E-4</v>
       </c>
       <c r="AL3">
         <f t="shared" si="6"/>
@@ -2258,23 +2258,23 @@
       </c>
       <c r="AB4" s="1">
         <f>ABS(AB1-AB3)/AB3</f>
-        <v>5.2818871180641651E-2</v>
+        <v>2.9981348079022148E-2</v>
       </c>
       <c r="AC4" s="1">
         <f>ABS(AC1-AC3)/AC3</f>
-        <v>3.5538493091637889E-2</v>
+        <v>1.9878555653214641E-2</v>
       </c>
       <c r="AD4" s="1">
         <f>ABS(AD1-AD3)/AD3</f>
-        <v>0.22242540901203653</v>
+        <v>5.5364752728887016E-2</v>
       </c>
       <c r="AE4" s="1">
         <f>ABS(AE1-AE3)/AE3</f>
-        <v>0.36847547727516539</v>
+        <v>9.5271766213993456E-2</v>
       </c>
       <c r="AF4" s="1">
         <f>ABS(AF1-AF3)/AF3</f>
-        <v>0.23848112777332819</v>
+        <v>1.1584015855664568E-2</v>
       </c>
       <c r="AL4">
         <f t="shared" si="6"/>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="R21">
         <f t="shared" si="1"/>
-        <v>3.5356588375078934E-2</v>
+        <v>3.0291938872604951E-2</v>
       </c>
       <c r="S21">
         <f t="shared" si="2"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="U21">
         <f t="shared" si="4"/>
-        <v>6.7177517912649976E-2</v>
+        <v>5.7554683857949401E-2</v>
       </c>
       <c r="V21">
         <f t="shared" si="5"/>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="AM21">
         <f t="shared" si="7"/>
-        <v>3.5356588375078934E-2</v>
+        <v>3.0291938872604951E-2</v>
       </c>
       <c r="AN21">
         <f t="shared" si="8"/>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="AP21">
         <f t="shared" si="10"/>
-        <v>3.1820929537571041E-2</v>
+        <v>2.726274498534445E-2</v>
       </c>
       <c r="AQ21" t="str">
         <f t="shared" si="11"/>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="R25">
         <f t="shared" si="1"/>
-        <v>2.5133700655124713E-3</v>
+        <v>6.8342654647833012E-3</v>
       </c>
       <c r="S25">
         <f t="shared" si="2"/>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="AM25">
         <f t="shared" si="7"/>
-        <v>2.5133700655124713E-3</v>
+        <v>6.8342654647833012E-3</v>
       </c>
       <c r="AN25">
         <f t="shared" si="8"/>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="AP25">
         <f t="shared" si="10"/>
-        <v>-2.5133700655124713E-3</v>
+        <v>-6.8342654647833012E-3</v>
       </c>
       <c r="AQ25" t="str">
         <f t="shared" si="11"/>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>8.4252154751845998E-4</v>
+        <v>3.5072900566901488E-4</v>
       </c>
       <c r="S26">
         <f t="shared" si="2"/>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="AM26">
         <f t="shared" si="7"/>
-        <v>8.4252154751845998E-4</v>
+        <v>3.5072900566901488E-4</v>
       </c>
       <c r="AN26">
         <f t="shared" si="8"/>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="AP26">
         <f t="shared" si="10"/>
-        <v>-8.4252154751845998E-4</v>
+        <v>-3.5072900566901488E-4</v>
       </c>
       <c r="AQ26" t="str">
         <f t="shared" si="11"/>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="R71">
         <f t="shared" si="13"/>
-        <v>7.4610662045957177E-2</v>
+        <v>7.7498574340151727E-2</v>
       </c>
       <c r="S71">
         <f t="shared" si="14"/>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="AM71">
         <f t="shared" si="19"/>
-        <v>7.4610662045957177E-2</v>
+        <v>7.7498574340151727E-2</v>
       </c>
       <c r="AN71">
         <f t="shared" si="20"/>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="AP71">
         <f t="shared" si="22"/>
-        <v>-7.4610662045957177E-2</v>
+        <v>-7.7498574340151727E-2</v>
       </c>
       <c r="AQ71" t="str">
         <f t="shared" si="23"/>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="R73">
         <f t="shared" si="13"/>
-        <v>6.3816243095753733E-2</v>
+        <v>5.1905462430352101E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="14"/>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="AM73">
         <f t="shared" si="19"/>
-        <v>6.3816243095753733E-2</v>
+        <v>5.1905462430352101E-2</v>
       </c>
       <c r="AN73">
         <f t="shared" si="20"/>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="AP73">
         <f t="shared" si="22"/>
-        <v>-6.3816243095753733E-2</v>
+        <v>-5.1905462430352101E-2</v>
       </c>
       <c r="AQ73" t="str">
         <f t="shared" si="23"/>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="R75">
         <f t="shared" si="13"/>
-        <v>6.9747835285420723E-2</v>
+        <v>4.7853873552494486E-2</v>
       </c>
       <c r="S75">
         <f t="shared" si="14"/>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="U75">
         <f t="shared" si="16"/>
-        <v>0.10252931786956847</v>
+        <v>7.0345194122166887E-2</v>
       </c>
       <c r="V75">
         <f t="shared" si="17"/>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="AM75">
         <f t="shared" si="19"/>
-        <v>6.9747835285420723E-2</v>
+        <v>4.7853873552494486E-2</v>
       </c>
       <c r="AN75">
         <f t="shared" si="20"/>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="AP75">
         <f t="shared" si="22"/>
-        <v>3.2781482584147745E-2</v>
+        <v>2.2491320569672402E-2</v>
       </c>
       <c r="AQ75" t="str">
         <f t="shared" si="23"/>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="R98">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.2766176158761642E-5</v>
       </c>
       <c r="S98">
         <f t="shared" si="14"/>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="AM98">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.2766176158761642E-5</v>
       </c>
       <c r="AN98">
         <f t="shared" si="20"/>
@@ -11360,9 +11360,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AP98" t="str">
+      <c r="AP98">
         <f t="shared" si="22"/>
-        <v/>
+        <v>-2.2766176158761642E-5</v>
       </c>
       <c r="AQ98" t="str">
         <f t="shared" si="23"/>
@@ -15335,7 +15335,7 @@
       </c>
       <c r="R139">
         <f t="shared" si="25"/>
-        <v>6.6738944710996007E-2</v>
+        <v>6.9318288947833484E-2</v>
       </c>
       <c r="S139">
         <f t="shared" si="26"/>
@@ -15347,7 +15347,7 @@
       </c>
       <c r="U139">
         <f t="shared" si="28"/>
-        <v>0.22023851754628682</v>
+        <v>0.22875035352785048</v>
       </c>
       <c r="V139">
         <f t="shared" si="29"/>
@@ -15359,7 +15359,7 @@
       </c>
       <c r="AM139">
         <f t="shared" si="31"/>
-        <v>6.6738944710996007E-2</v>
+        <v>6.9318288947833484E-2</v>
       </c>
       <c r="AN139">
         <f t="shared" si="32"/>
@@ -15371,7 +15371,7 @@
       </c>
       <c r="AP139">
         <f t="shared" si="34"/>
-        <v>0.15349957283529081</v>
+        <v>0.15943206458001699</v>
       </c>
       <c r="AQ139" t="str">
         <f t="shared" si="35"/>
@@ -15727,7 +15727,7 @@
       </c>
       <c r="R143">
         <f t="shared" si="25"/>
-        <v>2.3979502908044736E-4</v>
+        <v>4.2914145167249895E-3</v>
       </c>
       <c r="S143">
         <f t="shared" si="26"/>
@@ -15751,7 +15751,7 @@
       </c>
       <c r="AM143">
         <f t="shared" si="31"/>
-        <v>2.3979502908044736E-4</v>
+        <v>4.2914145167249895E-3</v>
       </c>
       <c r="AN143">
         <f t="shared" si="32"/>
@@ -15763,7 +15763,7 @@
       </c>
       <c r="AP143">
         <f t="shared" si="34"/>
-        <v>-2.3979502908044736E-4</v>
+        <v>-4.2914145167249895E-3</v>
       </c>
       <c r="AQ143" t="str">
         <f t="shared" si="35"/>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="Q158">
         <f t="shared" si="24"/>
-        <v>4.1460127367451971E-3</v>
+        <v>0</v>
       </c>
       <c r="R158">
         <f t="shared" si="25"/>
@@ -17142,7 +17142,7 @@
       </c>
       <c r="T158">
         <f t="shared" si="27"/>
-        <v>5.8873380861781798E-3</v>
+        <v>0</v>
       </c>
       <c r="U158">
         <f t="shared" si="28"/>
@@ -17154,7 +17154,7 @@
       </c>
       <c r="AL158">
         <f t="shared" si="30"/>
-        <v>4.1460127367451971E-3</v>
+        <v>0</v>
       </c>
       <c r="AM158">
         <f t="shared" si="31"/>
@@ -17164,9 +17164,9 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AO158">
+      <c r="AO158" t="str">
         <f t="shared" si="33"/>
-        <v>1.7413253494329827E-3</v>
+        <v/>
       </c>
       <c r="AP158" t="str">
         <f t="shared" si="34"/>
@@ -18461,7 +18461,7 @@
       </c>
       <c r="R172">
         <f t="shared" si="25"/>
-        <v>7.589206598383802E-2</v>
+        <v>7.6596635983934902E-2</v>
       </c>
       <c r="S172">
         <f t="shared" si="26"/>
@@ -18485,7 +18485,7 @@
       </c>
       <c r="AM172">
         <f t="shared" si="31"/>
-        <v>7.589206598383802E-2</v>
+        <v>7.6596635983934902E-2</v>
       </c>
       <c r="AN172">
         <f t="shared" si="32"/>
@@ -18497,7 +18497,7 @@
       </c>
       <c r="AP172">
         <f t="shared" si="34"/>
-        <v>-7.589206598383802E-2</v>
+        <v>-7.6596635983934902E-2</v>
       </c>
       <c r="AQ172" t="str">
         <f t="shared" si="35"/>
@@ -20795,7 +20795,7 @@
       </c>
       <c r="R196">
         <f t="shared" si="37"/>
-        <v>2.0092500220492859E-2</v>
+        <v>2.2337729843136422E-2</v>
       </c>
       <c r="S196">
         <f t="shared" si="38"/>
@@ -20819,7 +20819,7 @@
       </c>
       <c r="AM196">
         <f t="shared" si="43"/>
-        <v>2.0092500220492859E-2</v>
+        <v>2.2337729843136422E-2</v>
       </c>
       <c r="AN196">
         <f t="shared" si="44"/>
@@ -20831,7 +20831,7 @@
       </c>
       <c r="AP196">
         <f t="shared" si="46"/>
-        <v>-2.0092500220492859E-2</v>
+        <v>-2.2337729843136422E-2</v>
       </c>
       <c r="AQ196" t="str">
         <f t="shared" si="47"/>
@@ -21080,7 +21080,7 @@
       </c>
       <c r="R199">
         <f t="shared" si="37"/>
-        <v>3.646883280084473E-2</v>
+        <v>3.917796807639562E-2</v>
       </c>
       <c r="S199">
         <f t="shared" si="38"/>
@@ -21104,7 +21104,7 @@
       </c>
       <c r="AM199">
         <f t="shared" si="43"/>
-        <v>3.646883280084473E-2</v>
+        <v>3.917796807639562E-2</v>
       </c>
       <c r="AN199">
         <f t="shared" si="44"/>
@@ -21116,7 +21116,7 @@
       </c>
       <c r="AP199">
         <f t="shared" si="46"/>
-        <v>-3.646883280084473E-2</v>
+        <v>-3.917796807639562E-2</v>
       </c>
       <c r="AQ199" t="str">
         <f t="shared" si="47"/>
@@ -22496,7 +22496,7 @@
       </c>
       <c r="R214">
         <f t="shared" si="37"/>
-        <v>2.7972570185717471E-2</v>
+        <v>2.5302233796391571E-2</v>
       </c>
       <c r="S214">
         <f t="shared" si="38"/>
@@ -22520,7 +22520,7 @@
       </c>
       <c r="AM214">
         <f t="shared" si="43"/>
-        <v>2.7972570185717471E-2</v>
+        <v>2.5302233796391571E-2</v>
       </c>
       <c r="AN214">
         <f t="shared" si="44"/>
@@ -22532,7 +22532,7 @@
       </c>
       <c r="AP214">
         <f t="shared" si="46"/>
-        <v>-2.7972570185717471E-2</v>
+        <v>-2.5302233796391571E-2</v>
       </c>
       <c r="AQ214" t="str">
         <f t="shared" si="47"/>
@@ -23378,7 +23378,7 @@
       </c>
       <c r="R223">
         <f t="shared" si="37"/>
-        <v>6.9285040198237002E-3</v>
+        <v>4.1280788621524955E-3</v>
       </c>
       <c r="S223">
         <f t="shared" si="38"/>
@@ -23390,7 +23390,7 @@
       </c>
       <c r="U223">
         <f t="shared" si="40"/>
-        <v>1.38570080396474E-2</v>
+        <v>8.2561577243049911E-3</v>
       </c>
       <c r="V223">
         <f t="shared" si="41"/>
@@ -23402,7 +23402,7 @@
       </c>
       <c r="AM223">
         <f t="shared" si="43"/>
-        <v>6.9285040198237002E-3</v>
+        <v>4.1280788621524955E-3</v>
       </c>
       <c r="AN223">
         <f t="shared" si="44"/>
@@ -23414,7 +23414,7 @@
       </c>
       <c r="AP223">
         <f t="shared" si="46"/>
-        <v>6.9285040198237002E-3</v>
+        <v>4.1280788621524955E-3</v>
       </c>
       <c r="AQ223" t="str">
         <f t="shared" si="47"/>
@@ -23472,7 +23472,7 @@
       </c>
       <c r="Q224">
         <f t="shared" si="36"/>
-        <v>1.0828804018649107E-3</v>
+        <v>4.2072613799872399E-3</v>
       </c>
       <c r="R224">
         <f t="shared" si="37"/>
@@ -23496,7 +23496,7 @@
       </c>
       <c r="AL224">
         <f t="shared" si="42"/>
-        <v>1.0828804018649107E-3</v>
+        <v>4.2072613799872399E-3</v>
       </c>
       <c r="AM224">
         <f t="shared" si="43"/>
@@ -23508,7 +23508,7 @@
       </c>
       <c r="AO224">
         <f t="shared" si="45"/>
-        <v>-1.0828804018649107E-3</v>
+        <v>-4.2072613799872399E-3</v>
       </c>
       <c r="AP224" t="str">
         <f t="shared" si="46"/>
@@ -26416,7 +26416,7 @@
       </c>
       <c r="R254">
         <f t="shared" si="37"/>
-        <v>3.6447177501769401E-3</v>
+        <v>3.2597080999830497E-3</v>
       </c>
       <c r="S254">
         <f t="shared" si="38"/>
@@ -26428,7 +26428,7 @@
       </c>
       <c r="U254">
         <f t="shared" si="40"/>
-        <v>8.0912734053928074E-3</v>
+        <v>7.2365519819623707E-3</v>
       </c>
       <c r="V254">
         <f t="shared" si="41"/>
@@ -26440,7 +26440,7 @@
       </c>
       <c r="AM254">
         <f t="shared" si="43"/>
-        <v>3.6447177501769401E-3</v>
+        <v>3.2597080999830497E-3</v>
       </c>
       <c r="AN254">
         <f t="shared" si="44"/>
@@ -26452,7 +26452,7 @@
       </c>
       <c r="AP254">
         <f t="shared" si="46"/>
-        <v>4.4465556552158673E-3</v>
+        <v>3.976843881979321E-3</v>
       </c>
       <c r="AQ254" t="str">
         <f t="shared" si="47"/>
@@ -26612,7 +26612,7 @@
       </c>
       <c r="R256">
         <f t="shared" si="37"/>
-        <v>1.7277676498458072E-2</v>
+        <v>2.1263526411880201E-2</v>
       </c>
       <c r="S256">
         <f t="shared" si="38"/>
@@ -26624,7 +26624,7 @@
       </c>
       <c r="U256">
         <f t="shared" si="40"/>
-        <v>6.9110705993832289E-2</v>
+        <v>8.5054105647520806E-2</v>
       </c>
       <c r="V256">
         <f t="shared" si="41"/>
@@ -26636,7 +26636,7 @@
       </c>
       <c r="AM256">
         <f t="shared" si="43"/>
-        <v>1.7277676498458072E-2</v>
+        <v>2.1263526411880201E-2</v>
       </c>
       <c r="AN256">
         <f t="shared" si="44"/>
@@ -26648,7 +26648,7 @@
       </c>
       <c r="AP256">
         <f t="shared" si="46"/>
-        <v>5.1833029495374217E-2</v>
+        <v>6.3790579235640604E-2</v>
       </c>
       <c r="AQ256" t="str">
         <f t="shared" si="47"/>
@@ -26808,7 +26808,7 @@
       </c>
       <c r="R258">
         <f t="shared" ref="R258:R321" si="49">IF((($AC$1*F258)^($AB$1))-(1-(($AC$1*F258)^($AB$1)))/(I258-1)&lt;0, 0,(($AC$1*F258)^($AB$1))-(1-(($AC$1*F258)^($AB$1)))/(I258-1))</f>
-        <v>5.1381625719848778E-3</v>
+        <v>9.4520506571864338E-3</v>
       </c>
       <c r="S258">
         <f t="shared" ref="S258:S321" si="50">IF((($AC$1*G258)^($AB$1))-(1-(($AC$1*G258)^($AB$1)))/(J258-1)&lt;0, 0,(($AC$1*G258)^($AB$1))-(1-(($AC$1*G258)^($AB$1)))/(J258-1))</f>
@@ -26832,7 +26832,7 @@
       </c>
       <c r="AM258">
         <f t="shared" ref="AM258:AM321" si="55">R258*COUNT(O258)</f>
-        <v>5.1381625719848778E-3</v>
+        <v>9.4520506571864338E-3</v>
       </c>
       <c r="AN258">
         <f t="shared" ref="AN258:AN321" si="56">S258*COUNT(P258)</f>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="AP258">
         <f t="shared" ref="AP258:AP321" si="58">IF(AM258=0,"",U258-AM258)</f>
-        <v>-5.1381625719848778E-3</v>
+        <v>-9.4520506571864338E-3</v>
       </c>
       <c r="AQ258" t="str">
         <f t="shared" ref="AQ258:AQ321" si="59">IF(AN258=0,"",V258-AN258)</f>
@@ -29356,7 +29356,7 @@
       </c>
       <c r="R284">
         <f t="shared" si="49"/>
-        <v>8.4751474052263687E-4</v>
+        <v>4.9224299504739277E-3</v>
       </c>
       <c r="S284">
         <f t="shared" si="50"/>
@@ -29380,7 +29380,7 @@
       </c>
       <c r="AM284">
         <f t="shared" si="55"/>
-        <v>8.4751474052263687E-4</v>
+        <v>4.9224299504739277E-3</v>
       </c>
       <c r="AN284">
         <f t="shared" si="56"/>
@@ -29392,7 +29392,7 @@
       </c>
       <c r="AP284">
         <f t="shared" si="58"/>
-        <v>-8.4751474052263687E-4</v>
+        <v>-4.9224299504739277E-3</v>
       </c>
       <c r="AQ284" t="str">
         <f t="shared" si="59"/>
@@ -29450,7 +29450,7 @@
       </c>
       <c r="Q285">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>2.8139547944667498E-3</v>
       </c>
       <c r="R285">
         <f t="shared" si="49"/>
@@ -29474,7 +29474,7 @@
       </c>
       <c r="AL285">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>2.8139547944667498E-3</v>
       </c>
       <c r="AM285">
         <f t="shared" si="55"/>
@@ -29484,9 +29484,9 @@
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AO285" t="str">
+      <c r="AO285">
         <f t="shared" si="57"/>
-        <v/>
+        <v>-2.8139547944667498E-3</v>
       </c>
       <c r="AP285" t="str">
         <f t="shared" si="58"/>
@@ -34745,7 +34745,7 @@
       </c>
       <c r="R340">
         <f t="shared" si="61"/>
-        <v>8.0063213713163717E-2</v>
+        <v>7.1269165387228384E-2</v>
       </c>
       <c r="S340">
         <f t="shared" si="62"/>
@@ -34769,7 +34769,7 @@
       </c>
       <c r="AM340">
         <f t="shared" si="67"/>
-        <v>8.0063213713163717E-2</v>
+        <v>7.1269165387228384E-2</v>
       </c>
       <c r="AN340">
         <f t="shared" si="68"/>
@@ -34781,7 +34781,7 @@
       </c>
       <c r="AP340">
         <f t="shared" si="70"/>
-        <v>-8.0063213713163717E-2</v>
+        <v>-7.1269165387228384E-2</v>
       </c>
       <c r="AQ340" t="str">
         <f t="shared" si="71"/>
@@ -34839,7 +34839,7 @@
       </c>
       <c r="Q341">
         <f t="shared" si="60"/>
-        <v>3.641770445668191E-2</v>
+        <v>2.2941129266794147E-2</v>
       </c>
       <c r="R341">
         <f t="shared" si="61"/>
@@ -34863,7 +34863,7 @@
       </c>
       <c r="AL341">
         <f t="shared" si="66"/>
-        <v>3.641770445668191E-2</v>
+        <v>2.2941129266794147E-2</v>
       </c>
       <c r="AM341">
         <f t="shared" si="67"/>
@@ -34875,7 +34875,7 @@
       </c>
       <c r="AO341">
         <f t="shared" si="69"/>
-        <v>-3.641770445668191E-2</v>
+        <v>-2.2941129266794147E-2</v>
       </c>
       <c r="AP341" t="str">
         <f t="shared" si="70"/>
@@ -35721,7 +35721,7 @@
       </c>
       <c r="Q350">
         <f t="shared" si="60"/>
-        <v>4.4926213138101814E-3</v>
+        <v>7.4750058749159173E-3</v>
       </c>
       <c r="R350">
         <f t="shared" si="61"/>
@@ -35745,7 +35745,7 @@
       </c>
       <c r="AL350">
         <f t="shared" si="66"/>
-        <v>4.4926213138101814E-3</v>
+        <v>7.4750058749159173E-3</v>
       </c>
       <c r="AM350">
         <f t="shared" si="67"/>
@@ -35757,7 +35757,7 @@
       </c>
       <c r="AO350">
         <f t="shared" si="69"/>
-        <v>-4.4926213138101814E-3</v>
+        <v>-7.4750058749159173E-3</v>
       </c>
       <c r="AP350" t="str">
         <f t="shared" si="70"/>
@@ -39409,7 +39409,7 @@
       </c>
       <c r="Q388">
         <f t="shared" si="72"/>
-        <v>1.0143267081779928E-2</v>
+        <v>0</v>
       </c>
       <c r="R388">
         <f t="shared" si="73"/>
@@ -39421,7 +39421,7 @@
       </c>
       <c r="T388">
         <f t="shared" si="75"/>
-        <v>1.3794843231220702E-2</v>
+        <v>0</v>
       </c>
       <c r="U388">
         <f t="shared" si="76"/>
@@ -39433,7 +39433,7 @@
       </c>
       <c r="AL388">
         <f t="shared" si="78"/>
-        <v>1.0143267081779928E-2</v>
+        <v>0</v>
       </c>
       <c r="AM388">
         <f t="shared" si="79"/>
@@ -39443,9 +39443,9 @@
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AO388">
+      <c r="AO388" t="str">
         <f t="shared" si="81"/>
-        <v>3.6515761494407741E-3</v>
+        <v/>
       </c>
       <c r="AP388" t="str">
         <f t="shared" si="82"/>
@@ -39867,7 +39867,7 @@
       </c>
       <c r="R393">
         <f t="shared" si="73"/>
-        <v>2.3217083582133258E-2</v>
+        <v>2.2220735167698957E-2</v>
       </c>
       <c r="S393">
         <f t="shared" si="74"/>
@@ -41226,7 +41226,7 @@
       </c>
       <c r="Q407">
         <f t="shared" si="72"/>
-        <v>1.1093431638896312E-2</v>
+        <v>1.5370644550910195E-2</v>
       </c>
       <c r="R407">
         <f t="shared" si="73"/>
@@ -41250,7 +41250,7 @@
       </c>
       <c r="AL407">
         <f t="shared" si="78"/>
-        <v>1.1093431638896312E-2</v>
+        <v>1.5370644550910195E-2</v>
       </c>
       <c r="AM407">
         <f t="shared" si="79"/>
@@ -41262,7 +41262,7 @@
       </c>
       <c r="AO407">
         <f t="shared" si="81"/>
-        <v>-1.1093431638896312E-2</v>
+        <v>-1.5370644550910195E-2</v>
       </c>
       <c r="AP407" t="str">
         <f t="shared" si="82"/>
@@ -41328,7 +41328,7 @@
       </c>
       <c r="R408">
         <f t="shared" si="73"/>
-        <v>2.2780004004726379E-2</v>
+        <v>2.6759138172031322E-2</v>
       </c>
       <c r="S408">
         <f t="shared" si="74"/>
@@ -41352,7 +41352,7 @@
       </c>
       <c r="AM408">
         <f t="shared" si="79"/>
-        <v>2.2780004004726379E-2</v>
+        <v>2.6759138172031322E-2</v>
       </c>
       <c r="AN408">
         <f t="shared" si="80"/>
@@ -41364,7 +41364,7 @@
       </c>
       <c r="AP408">
         <f t="shared" si="82"/>
-        <v>-2.2780004004726379E-2</v>
+        <v>-2.6759138172031322E-2</v>
       </c>
       <c r="AQ408" t="str">
         <f t="shared" si="83"/>
@@ -41426,7 +41426,7 @@
       </c>
       <c r="R409">
         <f t="shared" si="73"/>
-        <v>7.1026968352919106E-3</v>
+        <v>1.1356485571496933E-2</v>
       </c>
       <c r="S409">
         <f t="shared" si="74"/>
@@ -41450,7 +41450,7 @@
       </c>
       <c r="AM409">
         <f t="shared" si="79"/>
-        <v>7.1026968352919106E-3</v>
+        <v>1.1356485571496933E-2</v>
       </c>
       <c r="AN409">
         <f t="shared" si="80"/>
@@ -41462,7 +41462,7 @@
       </c>
       <c r="AP409">
         <f t="shared" si="82"/>
-        <v>-7.1026968352919106E-3</v>
+        <v>-1.1356485571496933E-2</v>
       </c>
       <c r="AQ409" t="str">
         <f t="shared" si="83"/>
@@ -41524,7 +41524,7 @@
       </c>
       <c r="R410">
         <f t="shared" si="73"/>
-        <v>5.3647953857545172E-3</v>
+        <v>9.6658700912347628E-3</v>
       </c>
       <c r="S410">
         <f t="shared" si="74"/>
@@ -41548,7 +41548,7 @@
       </c>
       <c r="AM410">
         <f t="shared" si="79"/>
-        <v>5.3647953857545172E-3</v>
+        <v>9.6658700912347628E-3</v>
       </c>
       <c r="AN410">
         <f t="shared" si="80"/>
@@ -41560,7 +41560,7 @@
       </c>
       <c r="AP410">
         <f t="shared" si="82"/>
-        <v>-5.3647953857545172E-3</v>
+        <v>-9.6658700912347628E-3</v>
       </c>
       <c r="AQ410" t="str">
         <f t="shared" si="83"/>
@@ -43973,7 +43973,7 @@
       </c>
       <c r="R436">
         <f t="shared" si="73"/>
-        <v>2.10236000631982E-2</v>
+        <v>2.5065641130476657E-2</v>
       </c>
       <c r="S436">
         <f t="shared" si="74"/>
@@ -43997,7 +43997,7 @@
       </c>
       <c r="AM436">
         <f t="shared" si="79"/>
-        <v>2.10236000631982E-2</v>
+        <v>2.5065641130476657E-2</v>
       </c>
       <c r="AN436">
         <f t="shared" si="80"/>
@@ -44009,7 +44009,7 @@
       </c>
       <c r="AP436">
         <f t="shared" si="82"/>
-        <v>-2.10236000631982E-2</v>
+        <v>-2.5065641130476657E-2</v>
       </c>
       <c r="AQ436" t="str">
         <f t="shared" si="83"/>
@@ -44543,7 +44543,7 @@
       </c>
       <c r="R442">
         <f t="shared" si="73"/>
-        <v>5.0642057328212919E-3</v>
+        <v>0</v>
       </c>
       <c r="S442">
         <f t="shared" si="74"/>
@@ -44632,7 +44632,7 @@
       </c>
       <c r="R443">
         <f t="shared" si="73"/>
-        <v>3.1299292273654633E-2</v>
+        <v>3.2144274199647327E-2</v>
       </c>
       <c r="S443">
         <f t="shared" si="74"/>
@@ -46852,13 +46852,13 @@
         <v>47</v>
       </c>
       <c r="E468">
-        <v>0.33657424821791437</v>
+        <v>0.33648334558825033</v>
       </c>
       <c r="F468">
-        <v>0.35807880819010052</v>
+        <v>0.35807889569904189</v>
       </c>
       <c r="G468">
-        <v>0.30534694359198522</v>
+        <v>0.30543775871270767</v>
       </c>
       <c r="H468">
         <v>2.9</v>
@@ -46867,7 +46867,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J468">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K468" t="s">
         <v>48</v>
@@ -46905,13 +46905,13 @@
         <v>47</v>
       </c>
       <c r="E469">
-        <v>0.30669042735762481</v>
+        <v>0.30724477836846159</v>
       </c>
       <c r="F469">
-        <v>0.39997213474983201</v>
+        <v>0.39917529111162081</v>
       </c>
       <c r="G469">
-        <v>0.29333743789254307</v>
+        <v>0.29357993051991738</v>
       </c>
       <c r="H469">
         <v>3.05</v>
@@ -47011,16 +47011,16 @@
         <v>47</v>
       </c>
       <c r="E471">
-        <v>0.44930824173524803</v>
+        <v>0.4491935454972279</v>
       </c>
       <c r="F471">
-        <v>0.25673798422880378</v>
+        <v>0.25675354305556919</v>
       </c>
       <c r="G471">
-        <v>0.29395377403594819</v>
+        <v>0.29405291144720291</v>
       </c>
       <c r="H471">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I471">
         <v>3.65</v>
@@ -47064,13 +47064,13 @@
         <v>59</v>
       </c>
       <c r="E472">
-        <v>0.28994189381366142</v>
+        <v>0.29129813462315068</v>
       </c>
       <c r="F472">
-        <v>0.42542978727174402</v>
+        <v>0.42336581562864822</v>
       </c>
       <c r="G472">
-        <v>0.2846283189145945</v>
+        <v>0.28533604974820109</v>
       </c>
       <c r="H472">
         <v>3.3</v>
@@ -47117,31 +47117,31 @@
         <v>56</v>
       </c>
       <c r="E473">
-        <v>0.27004807990375801</v>
+        <v>0.26724572359280241</v>
       </c>
       <c r="F473">
-        <v>0.4965274100541327</v>
+        <v>0.50043362239765932</v>
       </c>
       <c r="G473">
-        <v>0.2334245100421094</v>
+        <v>0.2323206540095383</v>
       </c>
       <c r="H473">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I473">
         <v>1.98</v>
       </c>
       <c r="J473">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K473" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L473" t="s">
         <v>53</v>
       </c>
       <c r="M473" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q473">
         <f t="shared" si="84"/>
@@ -47170,13 +47170,13 @@
         <v>41</v>
       </c>
       <c r="E474">
-        <v>0.55836523318939024</v>
+        <v>0.5552463716069086</v>
       </c>
       <c r="F474">
-        <v>0.18405115792729951</v>
+        <v>0.18575214399117909</v>
       </c>
       <c r="G474">
-        <v>0.25758360888331022</v>
+        <v>0.25900148440191217</v>
       </c>
       <c r="H474">
         <v>1.55</v>
@@ -47223,22 +47223,22 @@
         <v>69</v>
       </c>
       <c r="E475">
-        <v>0.35488238794344462</v>
+        <v>0.35587712948586953</v>
       </c>
       <c r="F475">
-        <v>0.33637614770041552</v>
+        <v>0.3351248801023029</v>
       </c>
       <c r="G475">
-        <v>0.30874146435613992</v>
+        <v>0.30899799041182763</v>
       </c>
       <c r="H475">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="I475">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="J475">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="K475" t="s">
         <v>53</v>
@@ -47276,22 +47276,22 @@
         <v>69</v>
       </c>
       <c r="E476">
-        <v>0.30303003874637741</v>
+        <v>0.30413974960489892</v>
       </c>
       <c r="F476">
-        <v>0.40024782612836279</v>
+        <v>0.39876075097982822</v>
       </c>
       <c r="G476">
-        <v>0.29672213512525969</v>
+        <v>0.29709949941527292</v>
       </c>
       <c r="H476">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I476">
         <v>2.2000000000000002</v>
       </c>
       <c r="J476">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="K476" t="s">
         <v>53</v>
@@ -47329,19 +47329,19 @@
         <v>69</v>
       </c>
       <c r="E477">
-        <v>0.41442561090593799</v>
+        <v>0.41355281986494058</v>
       </c>
       <c r="F477">
-        <v>0.27686123765961079</v>
+        <v>0.27758331125580632</v>
       </c>
       <c r="G477">
-        <v>0.30871315143445122</v>
+        <v>0.3088638688792531</v>
       </c>
       <c r="H477">
-        <v>2.0699999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="I477">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J477">
         <v>3.15</v>
@@ -47382,13 +47382,13 @@
         <v>66</v>
       </c>
       <c r="E478">
-        <v>0.1865083418018546</v>
+        <v>0.18566822354826629</v>
       </c>
       <c r="F478">
-        <v>0.59794401664868013</v>
+        <v>0.59935023524474262</v>
       </c>
       <c r="G478">
-        <v>0.21554764154946521</v>
+        <v>0.21498154120699101</v>
       </c>
       <c r="H478">
         <v>6</v>
@@ -47435,22 +47435,22 @@
         <v>186</v>
       </c>
       <c r="E479">
-        <v>0.54367675358006018</v>
+        <v>0.54119140084094808</v>
       </c>
       <c r="F479">
-        <v>0.21311487633153661</v>
+        <v>0.21466422672256361</v>
       </c>
       <c r="G479">
-        <v>0.2432083700884034</v>
+        <v>0.24414437243648829</v>
       </c>
       <c r="H479">
         <v>1.78</v>
       </c>
       <c r="I479">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J479">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K479" t="s">
         <v>53</v>
@@ -47488,22 +47488,22 @@
         <v>87</v>
       </c>
       <c r="E480">
-        <v>0.41713658497170197</v>
+        <v>0.41638718002007119</v>
       </c>
       <c r="F480">
-        <v>0.27967323887025142</v>
+        <v>0.28050262979088442</v>
       </c>
       <c r="G480">
-        <v>0.30319017615804661</v>
+        <v>0.30311019018904439</v>
       </c>
       <c r="H480">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I480">
-        <v>4.1500000000000004</v>
+        <v>4.05</v>
       </c>
       <c r="J480">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K480" t="s">
         <v>48</v>
@@ -47541,22 +47541,22 @@
         <v>84</v>
       </c>
       <c r="E481">
-        <v>0.42002533813860032</v>
+        <v>0.40359183363940232</v>
       </c>
       <c r="F481">
-        <v>0.29325431756854131</v>
+        <v>0.30791701255214121</v>
       </c>
       <c r="G481">
-        <v>0.28672034429285842</v>
+        <v>0.28849115380845652</v>
       </c>
       <c r="H481">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="I481">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J481">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K481" t="s">
         <v>48</v>
@@ -47594,13 +47594,13 @@
         <v>92</v>
       </c>
       <c r="E482">
-        <v>0.40773767966003782</v>
+        <v>0.40651666937573211</v>
       </c>
       <c r="F482">
-        <v>0.29574233768718328</v>
+        <v>0.29696550908004771</v>
       </c>
       <c r="G482">
-        <v>0.29651998265277879</v>
+        <v>0.29651782154422018</v>
       </c>
       <c r="H482">
         <v>2.15</v>
@@ -47609,7 +47609,7 @@
         <v>3.2</v>
       </c>
       <c r="J482">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K482" t="s">
         <v>48</v>
@@ -47618,7 +47618,7 @@
         <v>48</v>
       </c>
       <c r="M482" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q482">
         <f t="shared" si="84"/>
@@ -47647,22 +47647,22 @@
         <v>92</v>
       </c>
       <c r="E483">
-        <v>0.57682015773614814</v>
+        <v>0.58630667540659709</v>
       </c>
       <c r="F483">
-        <v>0.18734520983766639</v>
+        <v>0.18103797856242709</v>
       </c>
       <c r="G483">
-        <v>0.23583463242618549</v>
+        <v>0.23265534603097579</v>
       </c>
       <c r="H483">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="I483">
         <v>6</v>
       </c>
       <c r="J483">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="K483" t="s">
         <v>53</v>
@@ -47700,13 +47700,13 @@
         <v>92</v>
       </c>
       <c r="E484">
-        <v>0.56109571194839625</v>
+        <v>0.56222024888391764</v>
       </c>
       <c r="F484">
-        <v>0.18922734787292031</v>
+        <v>0.18852583475539211</v>
       </c>
       <c r="G484">
-        <v>0.24967694017868361</v>
+        <v>0.2492539163606903</v>
       </c>
       <c r="H484">
         <v>1.47</v>
@@ -47806,22 +47806,22 @@
         <v>74</v>
       </c>
       <c r="E486">
-        <v>0.42872614223066352</v>
+        <v>0.42379259947634568</v>
       </c>
       <c r="F486">
-        <v>0.28323391204380938</v>
+        <v>0.28711161978006361</v>
       </c>
       <c r="G486">
-        <v>0.28803994572552721</v>
+        <v>0.28909578074359071</v>
       </c>
       <c r="H486">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="I486">
         <v>3.1</v>
       </c>
       <c r="J486">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K486" t="s">
         <v>48</v>
@@ -47859,22 +47859,22 @@
         <v>163</v>
       </c>
       <c r="E487">
-        <v>0.48276285159985088</v>
+        <v>0.47514870133047349</v>
       </c>
       <c r="F487">
-        <v>0.24196054777589909</v>
+        <v>0.24670135691945241</v>
       </c>
       <c r="G487">
-        <v>0.27527660062425002</v>
+        <v>0.27814994175007401</v>
       </c>
       <c r="H487">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="I487">
-        <v>4.55</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J487">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K487" t="s">
         <v>48</v>
@@ -47912,22 +47912,22 @@
         <v>74</v>
       </c>
       <c r="E488">
-        <v>0.48332303609173011</v>
+        <v>0.48041388404596153</v>
       </c>
       <c r="F488">
-        <v>0.23550437507011349</v>
+        <v>0.2374927145233087</v>
       </c>
       <c r="G488">
-        <v>0.28117258883815638</v>
+        <v>0.28209340143072992</v>
       </c>
       <c r="H488">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I488">
         <v>3.9</v>
       </c>
       <c r="J488">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K488" t="s">
         <v>48</v>
@@ -47965,13 +47965,13 @@
         <v>74</v>
       </c>
       <c r="E489">
-        <v>0.37881416273001978</v>
+        <v>0.3795289042158404</v>
       </c>
       <c r="F489">
-        <v>0.32131272081242962</v>
+        <v>0.32045614491955521</v>
       </c>
       <c r="G489">
-        <v>0.29987311645755071</v>
+        <v>0.30001495086460428</v>
       </c>
       <c r="H489">
         <v>2.5499999999999998</v>
@@ -48018,13 +48018,13 @@
         <v>77</v>
       </c>
       <c r="E490">
-        <v>0.49857451611157899</v>
+        <v>0.49815344483705182</v>
       </c>
       <c r="F490">
-        <v>0.22064752355587761</v>
+        <v>0.22079225557481619</v>
       </c>
       <c r="G490">
-        <v>0.28077796033254332</v>
+        <v>0.28105429958813188</v>
       </c>
       <c r="H490">
         <v>1.0009999999999999</v>
@@ -48062,13 +48062,13 @@
         <v>59</v>
       </c>
       <c r="E491">
-        <v>0.50972817201584952</v>
+        <v>0.50992842858292842</v>
       </c>
       <c r="F491">
-        <v>0.22151422425640621</v>
+        <v>0.22138739983932559</v>
       </c>
       <c r="G491">
-        <v>0.26875760372774438</v>
+        <v>0.26868417157774588</v>
       </c>
       <c r="H491">
         <v>1.75</v>
@@ -48115,13 +48115,13 @@
         <v>74</v>
       </c>
       <c r="E492">
-        <v>0.32473826094783081</v>
+        <v>0.3253365939405663</v>
       </c>
       <c r="F492">
-        <v>0.38310674841522729</v>
+        <v>0.38242131179553829</v>
       </c>
       <c r="G492">
-        <v>0.29215499063694189</v>
+        <v>0.29224209426389552</v>
       </c>
       <c r="H492">
         <v>2.75</v>
@@ -48168,19 +48168,19 @@
         <v>59</v>
       </c>
       <c r="E493">
-        <v>0.3993148135962083</v>
+        <v>0.39689941581209509</v>
       </c>
       <c r="F493">
-        <v>0.29529822407319112</v>
+        <v>0.29729504775507798</v>
       </c>
       <c r="G493">
-        <v>0.3053869623306007</v>
+        <v>0.30580553643282687</v>
       </c>
       <c r="H493">
         <v>2.25</v>
       </c>
       <c r="I493">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J493">
         <v>3</v>
@@ -48274,13 +48274,13 @@
         <v>74</v>
       </c>
       <c r="E495">
-        <v>0.50901222841606875</v>
+        <v>0.50991104878604254</v>
       </c>
       <c r="F495">
-        <v>0.21608025769904179</v>
+        <v>0.21561540838556659</v>
       </c>
       <c r="G495">
-        <v>0.27490751388488932</v>
+        <v>0.27447354282839082</v>
       </c>
       <c r="H495">
         <v>1.86</v>
@@ -48327,13 +48327,13 @@
         <v>74</v>
       </c>
       <c r="E496">
-        <v>0.45583859474482591</v>
+        <v>0.45541698852594592</v>
       </c>
       <c r="F496">
-        <v>0.25732720000894749</v>
+        <v>0.25766716650040039</v>
       </c>
       <c r="G496">
-        <v>0.28683420524622649</v>
+        <v>0.28691584497365391</v>
       </c>
       <c r="H496">
         <v>2</v>
@@ -48342,7 +48342,7 @@
         <v>3.5</v>
       </c>
       <c r="J496">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K496" t="s">
         <v>48</v>
@@ -48380,13 +48380,13 @@
         <v>59</v>
       </c>
       <c r="E497">
-        <v>0.42618933787454388</v>
+        <v>0.42825669320803261</v>
       </c>
       <c r="F497">
-        <v>0.2752524620833281</v>
+        <v>0.27356501222931201</v>
       </c>
       <c r="G497">
-        <v>0.29855820004212802</v>
+        <v>0.29817829456265538</v>
       </c>
       <c r="H497">
         <v>2.0499999999999998</v>
@@ -48433,13 +48433,13 @@
         <v>59</v>
       </c>
       <c r="E498">
-        <v>0.5424167115524926</v>
+        <v>0.54224179425649155</v>
       </c>
       <c r="F498">
-        <v>0.20583359512656851</v>
+        <v>0.20594073397222801</v>
       </c>
       <c r="G498">
-        <v>0.25174969332093888</v>
+        <v>0.25181747177128061</v>
       </c>
       <c r="H498">
         <v>1.66</v>
@@ -48448,7 +48448,7 @@
         <v>5</v>
       </c>
       <c r="J498">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K498" t="s">
         <v>48</v>
@@ -48486,13 +48486,13 @@
         <v>69</v>
       </c>
       <c r="E499">
-        <v>0.32328739355181457</v>
+        <v>0.32277025313889701</v>
       </c>
       <c r="F499">
-        <v>0.38527430492378861</v>
+        <v>0.3857511106583732</v>
       </c>
       <c r="G499">
-        <v>0.29143830152439659</v>
+        <v>0.29147863620272979</v>
       </c>
       <c r="H499">
         <v>2.7</v>
@@ -48539,13 +48539,13 @@
         <v>74</v>
       </c>
       <c r="E500">
-        <v>0.51891220181232034</v>
+        <v>0.51853004764082911</v>
       </c>
       <c r="F500">
-        <v>0.22173062277804209</v>
+        <v>0.22197706085509131</v>
       </c>
       <c r="G500">
-        <v>0.2593571754096376</v>
+        <v>0.25949289150407961</v>
       </c>
       <c r="H500">
         <v>1.8</v>
@@ -48592,13 +48592,13 @@
         <v>163</v>
       </c>
       <c r="E501">
-        <v>0.44404512466081952</v>
+        <v>0.44373845034773252</v>
       </c>
       <c r="F501">
-        <v>0.26722436752152617</v>
+        <v>0.26734493755706618</v>
       </c>
       <c r="G501">
-        <v>0.28873050781765419</v>
+        <v>0.28891661209520131</v>
       </c>
       <c r="H501">
         <v>2</v>
@@ -48645,22 +48645,22 @@
         <v>56</v>
       </c>
       <c r="E502">
-        <v>0.37855597424824861</v>
+        <v>0.37752892163253388</v>
       </c>
       <c r="F502">
-        <v>0.31775602857768842</v>
+        <v>0.31833605298339679</v>
       </c>
       <c r="G502">
-        <v>0.30368799717406297</v>
+        <v>0.30413502538406928</v>
       </c>
       <c r="H502">
-        <v>2.5499999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="I502">
         <v>3</v>
       </c>
       <c r="J502">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K502" t="s">
         <v>48</v>
@@ -48669,7 +48669,7 @@
         <v>48</v>
       </c>
       <c r="M502" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q502">
         <f t="shared" si="84"/>
@@ -48698,13 +48698,13 @@
         <v>59</v>
       </c>
       <c r="E503">
-        <v>0.3420862648118338</v>
+        <v>0.3426373869065214</v>
       </c>
       <c r="F503">
-        <v>0.351524617207084</v>
+        <v>0.35087868886465368</v>
       </c>
       <c r="G503">
-        <v>0.3063891179810822</v>
+        <v>0.30648392422882492</v>
       </c>
       <c r="H503">
         <v>2.75</v>
@@ -48751,13 +48751,13 @@
         <v>77</v>
       </c>
       <c r="E504">
-        <v>0.43731314514939068</v>
+        <v>0.43539244268825678</v>
       </c>
       <c r="F504">
-        <v>0.26241120727504758</v>
+        <v>0.26358375660774658</v>
       </c>
       <c r="G504">
-        <v>0.30027564757556158</v>
+        <v>0.30102380070399642</v>
       </c>
       <c r="H504">
         <v>1.0009999999999999</v>
@@ -48795,16 +48795,16 @@
         <v>163</v>
       </c>
       <c r="E505">
-        <v>0.80375857774569781</v>
+        <v>0.80358183634662028</v>
       </c>
       <c r="F505">
-        <v>6.2814080335077266E-2</v>
+        <v>6.2884229148705534E-2</v>
       </c>
       <c r="G505">
-        <v>0.13342734191922501</v>
+        <v>0.1335339345046741</v>
       </c>
       <c r="H505">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I505">
         <v>12</v>
@@ -48813,7 +48813,7 @@
         <v>7.25</v>
       </c>
       <c r="K505" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L505" t="s">
         <v>48</v>
@@ -48901,22 +48901,22 @@
         <v>74</v>
       </c>
       <c r="E507">
-        <v>0.38048823435020129</v>
+        <v>0.3793716430351759</v>
       </c>
       <c r="F507">
-        <v>0.31152184628883028</v>
+        <v>0.31255167897181863</v>
       </c>
       <c r="G507">
-        <v>0.30798991936096842</v>
+        <v>0.30807667799300548</v>
       </c>
       <c r="H507">
-        <v>2.5</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I507">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J507">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K507" t="s">
         <v>48</v>
@@ -48954,13 +48954,13 @@
         <v>59</v>
       </c>
       <c r="E508">
-        <v>0.59423531251768225</v>
+        <v>0.5932947717277457</v>
       </c>
       <c r="F508">
-        <v>0.16785440222248901</v>
+        <v>0.16841192630356239</v>
       </c>
       <c r="G508">
-        <v>0.2379102852598288</v>
+        <v>0.23829330196869189</v>
       </c>
       <c r="H508">
         <v>1.57</v>
@@ -49007,19 +49007,19 @@
         <v>163</v>
       </c>
       <c r="E509">
-        <v>0.26056283812691799</v>
+        <v>0.26185127215316673</v>
       </c>
       <c r="F509">
-        <v>0.4767110485286879</v>
+        <v>0.47466641357959322</v>
       </c>
       <c r="G509">
-        <v>0.262726113344394</v>
+        <v>0.26348231426724023</v>
       </c>
       <c r="H509">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I509">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J509">
         <v>3.05</v>
@@ -49060,13 +49060,13 @@
         <v>179</v>
       </c>
       <c r="E510">
-        <v>0.24426015795501521</v>
+        <v>0.2443660235124645</v>
       </c>
       <c r="F510">
-        <v>0.5071737713679163</v>
+        <v>0.50691928673293107</v>
       </c>
       <c r="G510">
-        <v>0.2485660706770684</v>
+        <v>0.24871468975460459</v>
       </c>
       <c r="H510">
         <v>3.9</v>
@@ -49113,13 +49113,13 @@
         <v>66</v>
       </c>
       <c r="E511">
-        <v>0.59226458121272607</v>
+        <v>0.59254660585863117</v>
       </c>
       <c r="F511">
-        <v>0.16047187707872479</v>
+        <v>0.16034537429836659</v>
       </c>
       <c r="G511">
-        <v>0.24726354170854911</v>
+        <v>0.24710801984300229</v>
       </c>
       <c r="H511">
         <v>1.52</v>
@@ -49128,7 +49128,7 @@
         <v>7.25</v>
       </c>
       <c r="J511">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="K511" t="s">
         <v>53</v>
@@ -49166,16 +49166,16 @@
         <v>186</v>
       </c>
       <c r="E512">
-        <v>0.13685012689834619</v>
+        <v>0.13675797978356569</v>
       </c>
       <c r="F512">
-        <v>0.71013432231441775</v>
+        <v>0.71034428857747545</v>
       </c>
       <c r="G512">
-        <v>0.153015550787236</v>
+        <v>0.15289773163895901</v>
       </c>
       <c r="H512">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="I512">
         <v>1.24</v>
@@ -49184,7 +49184,7 @@
         <v>5.75</v>
       </c>
       <c r="K512" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L512" t="s">
         <v>53</v>
@@ -49228,10 +49228,10 @@
         <v>0.30079295412986029</v>
       </c>
       <c r="H513">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="I513">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="J513">
         <v>3.1</v>
@@ -49272,13 +49272,13 @@
         <v>41</v>
       </c>
       <c r="E514">
-        <v>0.26288530678281191</v>
+        <v>0.2633355739463934</v>
       </c>
       <c r="F514">
-        <v>0.48923683736114981</v>
+        <v>0.48735939470917411</v>
       </c>
       <c r="G514">
-        <v>0.24787785585603819</v>
+        <v>0.2493050313444326</v>
       </c>
       <c r="H514">
         <v>3.7</v>
@@ -49287,13 +49287,13 @@
         <v>1.83</v>
       </c>
       <c r="J514">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K514" t="s">
         <v>53</v>
       </c>
       <c r="L514" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M514" t="s">
         <v>48</v>
@@ -49325,13 +49325,13 @@
         <v>189</v>
       </c>
       <c r="E515">
-        <v>0.74568838338026</v>
+        <v>0.73958813415208668</v>
       </c>
       <c r="F515">
-        <v>8.7313927958950308E-2</v>
+        <v>9.1238736236506565E-2</v>
       </c>
       <c r="G515">
-        <v>0.16699768866078971</v>
+        <v>0.16917312961140671</v>
       </c>
       <c r="H515">
         <v>1.21</v>
@@ -49378,22 +49378,22 @@
         <v>192</v>
       </c>
       <c r="E516">
-        <v>0.46557568370812052</v>
+        <v>0.45823404636941811</v>
       </c>
       <c r="F516">
-        <v>0.26808273338903188</v>
+        <v>0.27539372478182161</v>
       </c>
       <c r="G516">
-        <v>0.2663415829028476</v>
+        <v>0.26637222884876027</v>
       </c>
       <c r="H516">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="I516">
         <v>4.6500000000000004</v>
       </c>
       <c r="J516">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K516" t="s">
         <v>48</v>
@@ -49410,7 +49410,7 @@
       </c>
       <c r="R516">
         <f t="shared" si="97"/>
-        <v>7.2943455186620376E-3</v>
+        <v>2.0622731352012869E-2</v>
       </c>
       <c r="S516">
         <f t="shared" si="98"/>
@@ -49431,22 +49431,22 @@
         <v>192</v>
       </c>
       <c r="E517">
-        <v>0.13382440266242021</v>
+        <v>0.1329185185743719</v>
       </c>
       <c r="F517">
-        <v>0.70527814094714003</v>
+        <v>0.70662255318199441</v>
       </c>
       <c r="G517">
-        <v>0.16089745639043981</v>
+        <v>0.16045892824363359</v>
       </c>
       <c r="H517">
-        <v>4.9000000000000004</v>
+        <v>5.25</v>
       </c>
       <c r="I517">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="J517">
-        <v>4.45</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="K517" t="s">
         <v>48</v>
@@ -49463,7 +49463,7 @@
       </c>
       <c r="R517">
         <f t="shared" si="97"/>
-        <v>9.666347503485917E-2</v>
+        <v>1.5011700666018535E-2</v>
       </c>
       <c r="S517">
         <f t="shared" si="98"/>
@@ -49484,22 +49484,22 @@
         <v>192</v>
       </c>
       <c r="E518">
-        <v>9.3134016259362976E-2</v>
+        <v>9.4106339788686849E-2</v>
       </c>
       <c r="F518">
-        <v>0.7957741215015558</v>
+        <v>0.79392577299833555</v>
       </c>
       <c r="G518">
-        <v>0.1110918622390812</v>
+        <v>0.1119678872129776</v>
       </c>
       <c r="H518">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="I518">
         <v>1.27</v>
       </c>
       <c r="J518">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="K518" t="s">
         <v>48</v>
@@ -49516,7 +49516,7 @@
       </c>
       <c r="R518">
         <f t="shared" si="97"/>
-        <v>6.7762043593943E-2</v>
+        <v>9.47243031434708E-3</v>
       </c>
       <c r="S518">
         <f t="shared" si="98"/>
@@ -49537,13 +49537,13 @@
         <v>168</v>
       </c>
       <c r="E519">
-        <v>0.3943824242827863</v>
+        <v>0.39730298474124209</v>
       </c>
       <c r="F519">
-        <v>0.28930689323509029</v>
+        <v>0.28631698130794481</v>
       </c>
       <c r="G519">
-        <v>0.31631068248212341</v>
+        <v>0.31638003395081321</v>
       </c>
       <c r="H519">
         <v>2.25</v>
@@ -49561,7 +49561,7 @@
         <v>48</v>
       </c>
       <c r="M519" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q519">
         <f t="shared" si="96"/>
@@ -49590,22 +49590,22 @@
         <v>179</v>
       </c>
       <c r="E520">
-        <v>0.44149055186388309</v>
+        <v>0.44946266946198882</v>
       </c>
       <c r="F520">
-        <v>0.28423995635257271</v>
+        <v>0.2790594183688514</v>
       </c>
       <c r="G520">
-        <v>0.27426949178354421</v>
+        <v>0.27147791216915979</v>
       </c>
       <c r="H520">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I520">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J520">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K520" t="s">
         <v>48</v>
@@ -49643,22 +49643,22 @@
         <v>92</v>
       </c>
       <c r="E521">
-        <v>0.48226248521160497</v>
+        <v>0.48392929583306338</v>
       </c>
       <c r="F521">
-        <v>0.2303037011656936</v>
+        <v>0.22920850992489089</v>
       </c>
       <c r="G521">
-        <v>0.28743381362270137</v>
+        <v>0.28686219424204579</v>
       </c>
       <c r="H521">
         <v>1.72</v>
       </c>
       <c r="I521">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="J521">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K521" t="s">
         <v>53</v>
@@ -49696,22 +49696,22 @@
         <v>56</v>
       </c>
       <c r="E522">
-        <v>0.74264350814918401</v>
+        <v>0.74095504209121754</v>
       </c>
       <c r="F522">
-        <v>8.938255886433448E-2</v>
+        <v>9.0652506439944172E-2</v>
       </c>
       <c r="G522">
-        <v>0.16797393298648161</v>
+        <v>0.16839245146883819</v>
       </c>
       <c r="H522">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="I522">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="J522">
-        <v>5.94</v>
+        <v>5.96</v>
       </c>
       <c r="K522" t="s">
         <v>53</v>
@@ -49724,7 +49724,7 @@
       </c>
       <c r="Q522">
         <f t="shared" si="96"/>
-        <v>3.2671970869685429E-2</v>
+        <v>0</v>
       </c>
       <c r="R522">
         <f t="shared" si="97"/>
@@ -49749,13 +49749,13 @@
         <v>66</v>
       </c>
       <c r="E523">
-        <v>0.38779596960748808</v>
+        <v>0.38865697229957619</v>
       </c>
       <c r="F523">
-        <v>0.30193726969852408</v>
+        <v>0.30156642529883859</v>
       </c>
       <c r="G523">
-        <v>0.31026676069398779</v>
+        <v>0.30977660240158511</v>
       </c>
       <c r="H523">
         <v>2.0499999999999998</v>
@@ -49781,7 +49781,7 @@
       </c>
       <c r="R523">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>6.7905591520744935E-4</v>
       </c>
       <c r="S523">
         <f t="shared" si="98"/>
@@ -49802,13 +49802,13 @@
         <v>186</v>
       </c>
       <c r="E524">
-        <v>0.15292670018732321</v>
+        <v>0.15256624975911259</v>
       </c>
       <c r="F524">
-        <v>0.68156366975072602</v>
+        <v>0.68222753826978966</v>
       </c>
       <c r="G524">
-        <v>0.16550963006195071</v>
+        <v>0.16520621197109761</v>
       </c>
       <c r="H524">
         <v>7.75</v>
@@ -49817,7 +49817,7 @@
         <v>1.31</v>
       </c>
       <c r="J524">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="K524" t="s">
         <v>48</v>
@@ -49855,13 +49855,13 @@
         <v>87</v>
       </c>
       <c r="E525">
-        <v>0.41234357444938791</v>
+        <v>0.41430958316812372</v>
       </c>
       <c r="F525">
-        <v>0.28756113685816481</v>
+        <v>0.2870840909024599</v>
       </c>
       <c r="G525">
-        <v>0.30009528869244739</v>
+        <v>0.29860632592941638</v>
       </c>
       <c r="H525">
         <v>2.1</v>
@@ -49908,13 +49908,13 @@
         <v>87</v>
       </c>
       <c r="E526">
-        <v>0.51307503664707266</v>
+        <v>0.50789167439401861</v>
       </c>
       <c r="F526">
-        <v>0.20627423905351239</v>
+        <v>0.20986367471242989</v>
       </c>
       <c r="G526">
-        <v>0.28065072429941501</v>
+        <v>0.28224465089355139</v>
       </c>
       <c r="H526">
         <v>1.58</v>
@@ -49940,7 +49940,7 @@
       </c>
       <c r="R526">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>2.4828149282771772E-3</v>
       </c>
       <c r="S526">
         <f t="shared" si="98"/>
@@ -49961,13 +49961,13 @@
         <v>87</v>
       </c>
       <c r="E527">
-        <v>0.38777882343638659</v>
+        <v>0.38870833163187152</v>
       </c>
       <c r="F527">
-        <v>0.30031838401578081</v>
+        <v>0.29942592561861642</v>
       </c>
       <c r="G527">
-        <v>0.3119027925478326</v>
+        <v>0.31186574274951212</v>
       </c>
       <c r="H527">
         <v>2.2000000000000002</v>
@@ -50014,13 +50014,13 @@
         <v>87</v>
       </c>
       <c r="E528">
-        <v>0.28714681083358401</v>
+        <v>0.28493984614310158</v>
       </c>
       <c r="F528">
-        <v>0.43187787033728769</v>
+        <v>0.43523881199131198</v>
       </c>
       <c r="G528">
-        <v>0.28097531882912841</v>
+        <v>0.27982134186558638</v>
       </c>
       <c r="H528">
         <v>3.45</v>
@@ -50067,13 +50067,13 @@
         <v>189</v>
       </c>
       <c r="E529">
-        <v>0.34388884156706601</v>
+        <v>0.34285090175210381</v>
       </c>
       <c r="F529">
-        <v>0.35111489818465891</v>
+        <v>0.35219867542803102</v>
       </c>
       <c r="G529">
-        <v>0.3049962602482752</v>
+        <v>0.30495042281986512</v>
       </c>
       <c r="H529">
         <v>2.9</v>
@@ -50120,13 +50120,13 @@
         <v>87</v>
       </c>
       <c r="E530">
-        <v>0.33106975463618998</v>
+        <v>0.32785315770078832</v>
       </c>
       <c r="F530">
-        <v>0.36568844778809251</v>
+        <v>0.36997615733495659</v>
       </c>
       <c r="G530">
-        <v>0.30324179757571751</v>
+        <v>0.30217068496425509</v>
       </c>
       <c r="H530">
         <v>2.9</v>
@@ -50173,25 +50173,25 @@
         <v>87</v>
       </c>
       <c r="E531">
-        <v>0.75044572007792121</v>
+        <v>0.75117046614882155</v>
       </c>
       <c r="F531">
-        <v>8.2014076849710529E-2</v>
+        <v>8.1945853882440065E-2</v>
       </c>
       <c r="G531">
-        <v>0.16754020307236839</v>
+        <v>0.16688367996873829</v>
       </c>
       <c r="H531">
         <v>1.22</v>
       </c>
       <c r="I531">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="J531">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="K531" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L531" t="s">
         <v>48</v>
@@ -50226,22 +50226,22 @@
         <v>28</v>
       </c>
       <c r="E532">
-        <v>0.39753672054792533</v>
+        <v>0.39702933153776038</v>
       </c>
       <c r="F532">
-        <v>0.29534304506225673</v>
+        <v>0.29700754255021189</v>
       </c>
       <c r="G532">
-        <v>0.30712023438981811</v>
+        <v>0.30596312591202768</v>
       </c>
       <c r="H532">
         <v>2.15</v>
       </c>
       <c r="I532">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J532">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K532" t="s">
         <v>48</v>
@@ -50279,13 +50279,13 @@
         <v>87</v>
       </c>
       <c r="E533">
-        <v>0.36223897461981142</v>
+        <v>0.35952107652242521</v>
       </c>
       <c r="F533">
-        <v>0.32922950490929609</v>
+        <v>0.33262515024987738</v>
       </c>
       <c r="G533">
-        <v>0.30853152047089238</v>
+        <v>0.3078537732276973</v>
       </c>
       <c r="H533">
         <v>2.5</v>
@@ -50332,13 +50332,13 @@
         <v>168</v>
       </c>
       <c r="E534">
-        <v>0.4458653067523845</v>
+        <v>0.44167876943989037</v>
       </c>
       <c r="F534">
-        <v>0.2436727861769194</v>
+        <v>0.24784753911033419</v>
       </c>
       <c r="G534">
-        <v>0.3104619070706961</v>
+        <v>0.31047369144977532</v>
       </c>
       <c r="H534">
         <v>1.95</v>
@@ -50347,7 +50347,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="J534">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K534" t="s">
         <v>48</v>
@@ -50356,7 +50356,7 @@
         <v>48</v>
       </c>
       <c r="M534" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q534">
         <f t="shared" si="96"/>
@@ -50385,13 +50385,13 @@
         <v>179</v>
       </c>
       <c r="E535">
-        <v>0.34643973810010747</v>
+        <v>0.34630197471038049</v>
       </c>
       <c r="F535">
-        <v>0.39488043435442322</v>
+        <v>0.39449009872595819</v>
       </c>
       <c r="G535">
-        <v>0.25867982754546931</v>
+        <v>0.25920792656366132</v>
       </c>
       <c r="H535">
         <v>2.4500000000000002</v>
@@ -50438,13 +50438,13 @@
         <v>84</v>
       </c>
       <c r="E536">
-        <v>0.1388295147768126</v>
+        <v>0.1424780769180182</v>
       </c>
       <c r="F536">
-        <v>0.7019092059359292</v>
+        <v>0.69494104906340004</v>
       </c>
       <c r="G536">
-        <v>0.15926127928725811</v>
+        <v>0.16258087401858171</v>
       </c>
       <c r="H536">
         <v>6</v>
@@ -50470,7 +50470,7 @@
       </c>
       <c r="R536">
         <f t="shared" si="97"/>
-        <v>7.2899991189013247E-2</v>
+        <v>2.9372158579458629E-2</v>
       </c>
       <c r="S536">
         <f t="shared" si="98"/>
@@ -50491,13 +50491,13 @@
         <v>189</v>
       </c>
       <c r="E537">
-        <v>0.69509827500742016</v>
+        <v>0.68789740499641017</v>
       </c>
       <c r="F537">
-        <v>0.1104840738420671</v>
+        <v>0.115195051623244</v>
       </c>
       <c r="G537">
-        <v>0.19441765115051271</v>
+        <v>0.1969075433803458</v>
       </c>
       <c r="H537">
         <v>1.38</v>
@@ -50544,13 +50544,13 @@
         <v>56</v>
       </c>
       <c r="E538">
-        <v>0.31176268519813588</v>
+        <v>0.31764813329880931</v>
       </c>
       <c r="F538">
-        <v>0.41762881901565091</v>
+        <v>0.41015086587188782</v>
       </c>
       <c r="G538">
-        <v>0.27060849578621321</v>
+        <v>0.27220100082930287</v>
       </c>
       <c r="H538">
         <v>2.8</v>
@@ -50559,7 +50559,7 @@
         <v>2.5</v>
       </c>
       <c r="J538">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K538" t="s">
         <v>48</v>
@@ -50568,7 +50568,7 @@
         <v>48</v>
       </c>
       <c r="M538" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q538">
         <f t="shared" si="96"/>
@@ -50597,13 +50597,13 @@
         <v>350</v>
       </c>
       <c r="E539">
-        <v>0.58190193872100859</v>
+        <v>0.57976519938388948</v>
       </c>
       <c r="F539">
-        <v>0.17143146500285081</v>
+        <v>0.17377811486669939</v>
       </c>
       <c r="G539">
-        <v>0.2466665962761406</v>
+        <v>0.2464566857494111</v>
       </c>
       <c r="H539">
         <v>1.57</v>
@@ -50650,16 +50650,16 @@
         <v>66</v>
       </c>
       <c r="E540">
-        <v>0.77906337694768057</v>
+        <v>0.77392688010041399</v>
       </c>
       <c r="F540">
-        <v>7.0845055876302646E-2</v>
+        <v>7.3613910103037403E-2</v>
       </c>
       <c r="G540">
-        <v>0.15009156717601671</v>
+        <v>0.15245920979654851</v>
       </c>
       <c r="H540">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="I540">
         <v>9</v>
@@ -50678,7 +50678,7 @@
       </c>
       <c r="Q540">
         <f t="shared" si="96"/>
-        <v>0.10028868466351026</v>
+        <v>1.2860145776570908E-2</v>
       </c>
       <c r="R540">
         <f t="shared" si="97"/>
@@ -50703,22 +50703,22 @@
         <v>28</v>
       </c>
       <c r="E541">
-        <v>0.78369616348118498</v>
+        <v>0.7750870679750067</v>
       </c>
       <c r="F541">
-        <v>6.8936202533056407E-2</v>
+        <v>7.2976744192964502E-2</v>
       </c>
       <c r="G541">
-        <v>0.14736763398575861</v>
+        <v>0.15193618783202889</v>
       </c>
       <c r="H541">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="I541">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J541">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K541" t="s">
         <v>48</v>
@@ -50756,19 +50756,19 @@
         <v>350</v>
       </c>
       <c r="E542">
-        <v>0.69334148684251529</v>
+        <v>0.69345582012950335</v>
       </c>
       <c r="F542">
-        <v>0.10400664397706549</v>
+        <v>0.1043597450862213</v>
       </c>
       <c r="G542">
-        <v>0.20265186918041911</v>
+        <v>0.20218443478427531</v>
       </c>
       <c r="H542">
         <v>1.4</v>
       </c>
       <c r="I542">
-        <v>6.75</v>
+        <v>6.8</v>
       </c>
       <c r="J542">
         <v>5.25</v>
@@ -50777,7 +50777,7 @@
         <v>53</v>
       </c>
       <c r="L542" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M542" t="s">
         <v>48</v>
@@ -50809,13 +50809,13 @@
         <v>350</v>
       </c>
       <c r="E543">
-        <v>0.70557708121908413</v>
+        <v>0.70339722710656249</v>
       </c>
       <c r="F543">
-        <v>0.1023316872336741</v>
+        <v>0.1039549813031264</v>
       </c>
       <c r="G543">
-        <v>0.19209123154724189</v>
+        <v>0.19264779159031101</v>
       </c>
       <c r="H543">
         <v>1.38</v>
